--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -451,17 +451,13 @@
         <v>0.5963900000000008</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.5956</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5956</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>0.5962500000000007</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.5945</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5956</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>0.5962516666666673</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5956</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>0.5963666666666673</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>0.596523333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>0.5966800000000007</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.6019</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>0.5968350000000007</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6024</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>0.5969950000000007</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>0.597138333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,22 +766,14 @@
         <v>0.5971983333333341</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,22 +801,14 @@
         <v>0.5972116666666673</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -912,22 +836,14 @@
         <v>0.5973500000000006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -955,22 +871,14 @@
         <v>0.5974266666666673</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -998,22 +906,14 @@
         <v>0.597553333333334</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,22 +941,14 @@
         <v>0.5977200000000008</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +976,14 @@
         <v>0.5977266666666675</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1127,22 +1011,14 @@
         <v>0.5977350000000008</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,22 +1046,14 @@
         <v>0.5978583333333342</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1213,22 +1081,14 @@
         <v>0.5978633333333341</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1256,22 +1116,14 @@
         <v>0.5979316666666674</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1299,22 +1151,14 @@
         <v>0.5980133333333341</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1186,14 @@
         <v>0.5981833333333341</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1391,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1432,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1473,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1555,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1637,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1678,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1719,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1760,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1801,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1842,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1924,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2006,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2047,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2088,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2129,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2334,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2375,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2498,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2539,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2580,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2662,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2744,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2785,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2826,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2867,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2908,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2949,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2984,20 +2586,18 @@
         <v>0.6040733333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.5989</v>
+      </c>
       <c r="K63" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.5989</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3025,18 +2625,20 @@
         <v>0.60402</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.5986</v>
+      </c>
       <c r="K64" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -3066,18 +2668,20 @@
         <v>0.603945</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.5967</v>
+      </c>
       <c r="K65" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -3107,14 +2711,16 @@
         <v>0.6038866666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.5955</v>
+      </c>
       <c r="K66" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3148,14 +2754,16 @@
         <v>0.6038733333333332</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.5989</v>
+      </c>
       <c r="K67" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3189,14 +2797,16 @@
         <v>0.6038616666666665</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.6016</v>
+      </c>
       <c r="K68" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3230,14 +2840,16 @@
         <v>0.6038716666666665</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.6017</v>
+      </c>
       <c r="K69" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3278,7 +2890,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3319,7 +2931,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3360,7 +2972,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3401,7 +3013,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3442,7 +3054,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3483,7 +3095,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3524,7 +3136,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3565,7 +3177,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3606,7 +3218,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3647,7 +3259,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3688,7 +3300,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3729,7 +3341,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3770,7 +3382,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3811,7 +3423,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3852,7 +3464,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3893,7 +3505,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3934,7 +3546,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3975,7 +3587,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4016,7 +3628,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4057,7 +3669,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4098,7 +3710,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4139,7 +3751,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4180,7 +3792,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4221,7 +3833,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4262,7 +3874,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4303,7 +3915,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4344,7 +3956,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4385,7 +3997,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4426,7 +4038,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4467,7 +4079,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4508,7 +4120,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4549,7 +4161,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4590,7 +4202,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4631,7 +4243,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4672,7 +4284,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4713,7 +4325,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4754,7 +4366,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4795,7 +4407,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4836,7 +4448,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4877,7 +4489,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4918,7 +4530,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4959,7 +4571,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5000,7 +4612,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5041,7 +4653,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5082,7 +4694,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5123,7 +4735,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5164,7 +4776,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5205,7 +4817,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5246,7 +4858,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5287,7 +4899,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5328,7 +4940,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5369,7 +4981,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5410,7 +5022,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5451,7 +5063,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5492,7 +5104,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5533,7 +5145,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5574,7 +5186,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5615,7 +5227,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5656,7 +5268,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5697,7 +5309,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5738,7 +5350,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5779,7 +5391,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5820,7 +5432,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5861,7 +5473,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5902,7 +5514,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5943,7 +5555,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5984,7 +5596,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6025,7 +5637,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6066,7 +5678,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6107,7 +5719,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6148,7 +5760,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6189,7 +5801,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6230,7 +5842,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6271,7 +5883,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6312,7 +5924,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6353,7 +5965,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6394,7 +6006,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6435,7 +6047,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6476,7 +6088,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6517,7 +6129,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6558,7 +6170,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6599,7 +6211,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6640,7 +6252,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6681,7 +6293,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6722,7 +6334,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6763,7 +6375,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6804,7 +6416,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6845,7 +6457,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6886,7 +6498,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6923,19 +6535,19 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>0.6024</v>
+        <v>0.5989</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>1.057416998671979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6967,10 +6579,16 @@
         <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M160" t="n">
-        <v>1</v>
+        <v>1.063625813992319</v>
       </c>
     </row>
     <row r="161">

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5956</v>
+        <v>0.6018</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5956</v>
+        <v>0.6028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5956</v>
+        <v>0.6028</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5956</v>
+        <v>0.6018</v>
       </c>
       <c r="F2" t="n">
-        <v>1382632.1318</v>
+        <v>5204.7347</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5963900000000008</v>
+        <v>0.5965133333333341</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5945</v>
+        <v>0.5956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5945</v>
+        <v>0.5956</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5945</v>
+        <v>0.5956</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5945</v>
+        <v>0.5956</v>
       </c>
       <c r="F3" t="n">
-        <v>1558610.7223</v>
+        <v>1382632.1318</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5962500000000007</v>
+        <v>0.5963900000000008</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5999</v>
+        <v>0.5945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5999</v>
+        <v>0.5945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5999</v>
+        <v>0.5945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5999</v>
+        <v>0.5945</v>
       </c>
       <c r="F4" t="n">
-        <v>1067798.7773</v>
+        <v>1558610.7223</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5962516666666673</v>
+        <v>0.5962500000000007</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0.5999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.5999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.5999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.5999</v>
       </c>
       <c r="F5" t="n">
-        <v>437270.7523</v>
+        <v>1067798.7773</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5963666666666673</v>
+        <v>0.5962516666666673</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
-        <v>854.6015</v>
+        <v>437270.7523</v>
       </c>
       <c r="G6" t="n">
-        <v>0.596523333333334</v>
+        <v>0.5963666666666673</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6019</v>
+        <v>0.6024</v>
       </c>
       <c r="C7" t="n">
         <v>0.6024</v>
@@ -617,13 +617,13 @@
         <v>0.6024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6019</v>
+        <v>0.6024</v>
       </c>
       <c r="F7" t="n">
-        <v>1391424.4827</v>
+        <v>854.6015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5966800000000007</v>
+        <v>0.596523333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6024</v>
+        <v>0.6019</v>
       </c>
       <c r="C8" t="n">
         <v>0.6024</v>
@@ -652,13 +652,13 @@
         <v>0.6024</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6024</v>
+        <v>0.6019</v>
       </c>
       <c r="F8" t="n">
-        <v>1712162.3563</v>
+        <v>1391424.4827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5968350000000007</v>
+        <v>0.5966800000000007</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0.6024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6027</v>
+        <v>0.6024</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6027</v>
+        <v>0.6024</v>
       </c>
       <c r="E9" t="n">
         <v>0.6024</v>
       </c>
       <c r="F9" t="n">
-        <v>1426853.4357</v>
+        <v>1712162.3563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5969950000000007</v>
+        <v>0.5968350000000007</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6028</v>
+        <v>0.6024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6028</v>
+        <v>0.6027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6028</v>
+        <v>0.6027</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6028</v>
+        <v>0.6024</v>
       </c>
       <c r="F10" t="n">
-        <v>270217.3505</v>
+        <v>1426853.4357</v>
       </c>
       <c r="G10" t="n">
-        <v>0.597138333333334</v>
+        <v>0.5969950000000007</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6029</v>
+        <v>0.6028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6029</v>
+        <v>0.6028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6029</v>
+        <v>0.6028</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6029</v>
+        <v>0.6028</v>
       </c>
       <c r="F11" t="n">
-        <v>210903.2514</v>
+        <v>270217.3505</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5971983333333341</v>
+        <v>0.597138333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="C12" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="D12" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="E12" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="F12" t="n">
-        <v>849.9431</v>
+        <v>210903.2514</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5972116666666673</v>
+        <v>0.5971983333333341</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0.603</v>
       </c>
       <c r="F13" t="n">
-        <v>1097024.4537</v>
+        <v>849.9431</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5973500000000006</v>
+        <v>0.5972116666666673</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0.603</v>
       </c>
       <c r="F14" t="n">
-        <v>2735.7311</v>
+        <v>1097024.4537</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5974266666666673</v>
+        <v>0.5973500000000006</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0.603</v>
       </c>
       <c r="F15" t="n">
-        <v>205309.5122</v>
+        <v>2735.7311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.597553333333334</v>
+        <v>0.5974266666666673</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0.603</v>
       </c>
       <c r="F16" t="n">
-        <v>209351.0502</v>
+        <v>205309.5122</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5977200000000008</v>
+        <v>0.597553333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0.603</v>
       </c>
       <c r="F17" t="n">
-        <v>200957.7755</v>
+        <v>209351.0502</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5977266666666675</v>
+        <v>0.5977200000000008</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="F18" t="n">
-        <v>1246615.0795</v>
+        <v>200957.7755</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5977350000000008</v>
+        <v>0.5977266666666675</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.602</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.602</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.602</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.602</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>1863864.1937</v>
+        <v>1246615.0795</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5978583333333342</v>
+        <v>0.5977350000000008</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.599</v>
+        <v>0.602</v>
       </c>
       <c r="C20" t="n">
-        <v>0.599</v>
+        <v>0.602</v>
       </c>
       <c r="D20" t="n">
-        <v>0.599</v>
+        <v>0.602</v>
       </c>
       <c r="E20" t="n">
-        <v>0.599</v>
+        <v>0.602</v>
       </c>
       <c r="F20" t="n">
-        <v>1269721.6185</v>
+        <v>1863864.1937</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5978633333333341</v>
+        <v>0.5978583333333342</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5984</v>
+        <v>0.599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5984</v>
+        <v>0.599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5984</v>
+        <v>0.599</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5984</v>
+        <v>0.599</v>
       </c>
       <c r="F21" t="n">
-        <v>1969569.7056</v>
+        <v>1269721.6185</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5979316666666674</v>
+        <v>0.5978633333333341</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.603</v>
+        <v>0.5984</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="E22" t="n">
-        <v>0.603</v>
+        <v>0.5984</v>
       </c>
       <c r="F22" t="n">
-        <v>3728547.4477</v>
+        <v>1969569.7056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5980133333333341</v>
+        <v>0.5979316666666674</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.604</v>
+        <v>0.603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6034</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.604</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6034</v>
+        <v>0.603</v>
       </c>
       <c r="F23" t="n">
-        <v>539648.4659</v>
+        <v>3728547.4477</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5981833333333341</v>
+        <v>0.5980133333333341</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>0.604</v>
       </c>
       <c r="C24" t="n">
-        <v>0.604</v>
+        <v>0.6034</v>
       </c>
       <c r="D24" t="n">
         <v>0.604</v>
       </c>
       <c r="E24" t="n">
-        <v>0.604</v>
+        <v>0.6034</v>
       </c>
       <c r="F24" t="n">
-        <v>855.6217</v>
+        <v>539648.4659</v>
       </c>
       <c r="G24" t="n">
-        <v>0.598288333333334</v>
+        <v>0.5981833333333341</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="F25" t="n">
-        <v>71452.5523</v>
+        <v>855.6217</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5982950000000006</v>
+        <v>0.598288333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6002</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.604</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.604</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6002</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>1537011.6379</v>
+        <v>71452.5523</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5984366666666673</v>
+        <v>0.5982950000000006</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.604</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.6</v>
-      </c>
       <c r="D27" t="n">
-        <v>0.6112</v>
+        <v>0.604</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6</v>
+        <v>0.6002</v>
       </c>
       <c r="F27" t="n">
-        <v>119313.2727</v>
+        <v>1537011.6379</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5984766666666672</v>
+        <v>0.5984366666666673</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6071</v>
+        <v>0.6</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6071</v>
+        <v>0.6112</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F28" t="n">
-        <v>1505126.8006</v>
+        <v>119313.2727</v>
       </c>
       <c r="G28" t="n">
-        <v>0.598608333333334</v>
+        <v>0.5984766666666672</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6077</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6095</v>
+        <v>0.6071</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6095</v>
+        <v>0.6071</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6077</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>44628.8293</v>
+        <v>1505126.8006</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987266666666672</v>
+        <v>0.598608333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6</v>
+        <v>0.6077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6</v>
+        <v>0.6095</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.6095</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6</v>
+        <v>0.6077</v>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>44628.8293</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5987750000000005</v>
+        <v>0.5987266666666672</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="F31" t="n">
-        <v>846.8079</v>
+        <v>1000</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5990666666666672</v>
+        <v>0.5987750000000005</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6</v>
+        <v>0.6107</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6108</v>
+        <v>0.6107</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6108</v>
+        <v>0.6107</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>0.6107</v>
       </c>
       <c r="F32" t="n">
-        <v>5041.0296</v>
+        <v>846.8079</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5993050000000005</v>
+        <v>0.5990666666666672</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6008</v>
+        <v>0.6</v>
       </c>
       <c r="C33" t="n">
         <v>0.6108</v>
@@ -1530,10 +1530,10 @@
         <v>0.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1865841.6955</v>
+        <v>5041.0296</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5994866666666672</v>
+        <v>0.5993050000000005</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6</v>
+        <v>0.6008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="E34" t="n">
         <v>0.6</v>
       </c>
       <c r="F34" t="n">
-        <v>834</v>
+        <v>1865841.6955</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5994666666666671</v>
+        <v>0.5994866666666672</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6108</v>
+        <v>0.6</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6108</v>
+        <v>0.6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6108</v>
+        <v>0.6</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6108</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1061999999999</v>
+        <v>834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5997600000000004</v>
+        <v>0.5994666666666671</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6039</v>
+        <v>0.6108</v>
       </c>
       <c r="C36" t="n">
         <v>0.6108</v>
@@ -1632,13 +1632,13 @@
         <v>0.6108</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="F36" t="n">
-        <v>475664.3388</v>
+        <v>821.1061999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6000533333333337</v>
+        <v>0.5997600000000004</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5984</v>
+        <v>0.6039</v>
       </c>
       <c r="C37" t="n">
         <v>0.6108</v>
@@ -1667,13 +1667,13 @@
         <v>0.6108</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5984</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>432987.4372</v>
+        <v>475664.3388</v>
       </c>
       <c r="G37" t="n">
-        <v>0.600301666666667</v>
+        <v>0.6000533333333337</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6106</v>
+        <v>0.5984</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6106</v>
+        <v>0.6108</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6106</v>
+        <v>0.6108</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6106</v>
+        <v>0.5984</v>
       </c>
       <c r="F38" t="n">
-        <v>471793.6117</v>
+        <v>432987.4372</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6005900000000003</v>
+        <v>0.600301666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6106</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6106</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6106</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6106</v>
       </c>
       <c r="F39" t="n">
-        <v>52239.2805</v>
+        <v>471793.6117</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6006733333333336</v>
+        <v>0.6005900000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6108</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6108</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6108</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6108</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>845.7286</v>
+        <v>52239.2805</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6009650000000003</v>
+        <v>0.6006733333333336</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.603</v>
+        <v>0.6108</v>
       </c>
       <c r="C41" t="n">
         <v>0.6108</v>
@@ -1807,13 +1807,13 @@
         <v>0.6108</v>
       </c>
       <c r="E41" t="n">
-        <v>0.603</v>
+        <v>0.6108</v>
       </c>
       <c r="F41" t="n">
-        <v>1926114.2175</v>
+        <v>845.7286</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6011150000000003</v>
+        <v>0.6009650000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6048</v>
+        <v>0.603</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6048</v>
+        <v>0.6108</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6048</v>
+        <v>0.6108</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6048</v>
+        <v>0.603</v>
       </c>
       <c r="F42" t="n">
-        <v>450812.675</v>
+        <v>1926114.2175</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6013083333333336</v>
+        <v>0.6011150000000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6108</v>
+        <v>0.6048</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6108</v>
+        <v>0.6048</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6108</v>
+        <v>0.6048</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6108</v>
+        <v>0.6048</v>
       </c>
       <c r="F43" t="n">
-        <v>855.2603</v>
+        <v>450812.675</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6015666666666668</v>
+        <v>0.6013083333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6098</v>
+        <v>0.6108</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6098</v>
+        <v>0.6108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6098</v>
+        <v>0.6108</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6098</v>
+        <v>0.6108</v>
       </c>
       <c r="F44" t="n">
-        <v>1691158.6939</v>
+        <v>855.2603</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6018200000000001</v>
+        <v>0.6015666666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6108</v>
+        <v>0.6098</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6108</v>
+        <v>0.6098</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6108</v>
+        <v>0.6098</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6108</v>
+        <v>0.6098</v>
       </c>
       <c r="F45" t="n">
-        <v>859.5497</v>
+        <v>1691158.6939</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6020483333333335</v>
+        <v>0.6018200000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6075</v>
+        <v>0.6108</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6075</v>
+        <v>0.6108</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6075</v>
+        <v>0.6108</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6075</v>
+        <v>0.6108</v>
       </c>
       <c r="F46" t="n">
-        <v>1973509.4727</v>
+        <v>859.5497</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6022133333333335</v>
+        <v>0.6020483333333335</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6108</v>
+        <v>0.6075</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6108</v>
+        <v>0.6075</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6108</v>
+        <v>0.6075</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6108</v>
+        <v>0.6075</v>
       </c>
       <c r="F47" t="n">
-        <v>825.1790999999999</v>
+        <v>1973509.4727</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6025066666666667</v>
+        <v>0.6022133333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6095</v>
+        <v>0.6108</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6095</v>
+        <v>0.6108</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6095</v>
+        <v>0.6108</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6095</v>
+        <v>0.6108</v>
       </c>
       <c r="F48" t="n">
-        <v>1469388.9861</v>
+        <v>825.1790999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6027783333333333</v>
+        <v>0.6025066666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6108</v>
+        <v>0.6095</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6108</v>
+        <v>0.6095</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6108</v>
+        <v>0.6095</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6108</v>
+        <v>0.6095</v>
       </c>
       <c r="F49" t="n">
-        <v>827.5398</v>
+        <v>1469388.9861</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6030716666666666</v>
+        <v>0.6027783333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0.6108</v>
       </c>
       <c r="F50" t="n">
-        <v>3299.3318</v>
+        <v>827.5398</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6033483333333332</v>
+        <v>0.6030716666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="F51" t="n">
-        <v>1682669.5467</v>
+        <v>3299.3318</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6034966666666666</v>
+        <v>0.6033483333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6039</v>
+        <v>0.6024</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6039</v>
+        <v>0.6024</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6039</v>
+        <v>0.6024</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6039</v>
+        <v>0.6024</v>
       </c>
       <c r="F52" t="n">
-        <v>552909.3443</v>
+        <v>1682669.5467</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6036749999999999</v>
+        <v>0.6034966666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="F53" t="n">
-        <v>4110.9159</v>
+        <v>552909.3443</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6037599999999999</v>
+        <v>0.6036749999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>2059075.3008</v>
+        <v>4110.9159</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6038633333333332</v>
+        <v>0.6037599999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.601</v>
+        <v>0.6017</v>
       </c>
       <c r="C55" t="n">
-        <v>0.601</v>
+        <v>0.6017</v>
       </c>
       <c r="D55" t="n">
-        <v>0.601</v>
+        <v>0.6017</v>
       </c>
       <c r="E55" t="n">
-        <v>0.601</v>
+        <v>0.6017</v>
       </c>
       <c r="F55" t="n">
-        <v>512651.227</v>
+        <v>2059075.3008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6039649999999999</v>
+        <v>0.6038633333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6004</v>
+        <v>0.601</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6004</v>
+        <v>0.601</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6004</v>
+        <v>0.601</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6004</v>
+        <v>0.601</v>
       </c>
       <c r="F56" t="n">
-        <v>1450854.3884</v>
+        <v>512651.227</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6040466666666665</v>
+        <v>0.6039649999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6004</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6004</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6004</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6004</v>
       </c>
       <c r="F57" t="n">
-        <v>374750.5559</v>
+        <v>1450854.3884</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6040849999999999</v>
+        <v>0.6040466666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0.5983000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1310516.5957</v>
+        <v>374750.5559</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6040266666666666</v>
+        <v>0.6040849999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5936</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>0.5983000000000001</v>
@@ -2437,13 +2437,13 @@
         <v>0.5983000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5936</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>194234.9154</v>
+        <v>1310516.5957</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6040583333333333</v>
+        <v>0.6040266666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5964</v>
+        <v>0.5936</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5964</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5964</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5964</v>
+        <v>0.5936</v>
       </c>
       <c r="F60" t="n">
-        <v>439341.4211</v>
+        <v>194234.9154</v>
       </c>
       <c r="G60" t="n">
-        <v>0.604025</v>
+        <v>0.6040583333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5964</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5964</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5964</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5964</v>
       </c>
       <c r="F61" t="n">
-        <v>874.6102</v>
+        <v>439341.4211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.60395</v>
+        <v>0.604025</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,28 +2536,32 @@
         <v>0.5983000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5989</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5989</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>0.5983000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>28582.9756</v>
+        <v>874.6102</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6040050000000001</v>
+        <v>0.60395</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.5964</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5964</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2568,22 +2572,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5986</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5986</v>
+        <v>0.5989</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5986</v>
+        <v>0.5989</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5986</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>770962.5823</v>
+        <v>28582.9756</v>
       </c>
       <c r="G63" t="n">
-        <v>0.6040733333333334</v>
+        <v>0.6040050000000001</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2592,12 +2596,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5989</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+        <v>0.5964</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2607,22 +2615,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5967</v>
+        <v>0.5986</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5967</v>
+        <v>0.5986</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5967</v>
+        <v>0.5986</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5967</v>
+        <v>0.5986</v>
       </c>
       <c r="F64" t="n">
-        <v>923775.1647</v>
+        <v>770962.5823</v>
       </c>
       <c r="G64" t="n">
-        <v>0.60402</v>
+        <v>0.6040733333333334</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2631,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5986</v>
+        <v>0.5989</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5989</v>
+        <v>0.5964</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2650,22 +2658,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5956</v>
+        <v>0.5967</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5955</v>
+        <v>0.5967</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5956</v>
+        <v>0.5967</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5955</v>
+        <v>0.5967</v>
       </c>
       <c r="F65" t="n">
-        <v>506752.1151</v>
+        <v>923775.1647</v>
       </c>
       <c r="G65" t="n">
-        <v>0.603945</v>
+        <v>0.60402</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -2674,16 +2682,12 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5967</v>
+        <v>0.5986</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0.5986</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2693,22 +2697,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5989</v>
+        <v>0.5956</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5989</v>
+        <v>0.5955</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5989</v>
+        <v>0.5956</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5989</v>
+        <v>0.5955</v>
       </c>
       <c r="F66" t="n">
-        <v>1306050.9242</v>
+        <v>506752.1151</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6038866666666666</v>
+        <v>0.603945</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2717,14 +2721,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5955</v>
+        <v>0.5967</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2736,22 +2740,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6016</v>
+        <v>0.5989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6016</v>
+        <v>0.5989</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6016</v>
+        <v>0.5989</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6016</v>
+        <v>0.5989</v>
       </c>
       <c r="F67" t="n">
-        <v>1352385.7244</v>
+        <v>1306050.9242</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6038733333333332</v>
+        <v>0.6038866666666666</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
@@ -2760,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5989</v>
+        <v>0.5955</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2779,34 +2783,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6017</v>
+        <v>0.6016</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6017</v>
+        <v>0.6016</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6017</v>
+        <v>0.6016</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6017</v>
+        <v>0.6016</v>
       </c>
       <c r="F68" t="n">
-        <v>1374844.9308</v>
+        <v>1352385.7244</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6038616666666665</v>
+        <v>0.6038733333333332</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.6016</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2822,34 +2824,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="F69" t="n">
-        <v>1854623.5131</v>
+        <v>1374844.9308</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6038716666666665</v>
+        <v>0.6038616666666665</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.6017</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2865,22 +2865,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6011</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6011</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6011</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6011</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>2054074.9316</v>
+        <v>1854623.5131</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6038433333333332</v>
+        <v>0.6038716666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -2906,22 +2906,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6011</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6011</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6011</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6011</v>
       </c>
       <c r="F71" t="n">
-        <v>849.3155</v>
+        <v>2054074.9316</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6038666666666666</v>
+        <v>0.6038433333333332</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -2947,22 +2947,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6032</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6032</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6032</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6032</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>915636.2868</v>
+        <v>849.3155</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6038699999999999</v>
+        <v>0.6038666666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -2988,22 +2988,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6032</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6032</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6032</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6032</v>
       </c>
       <c r="F73" t="n">
-        <v>851.7437</v>
+        <v>915636.2868</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6038916666666665</v>
+        <v>0.6038699999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3029,22 +3029,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6005</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6005</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6005</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6005</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1215334.1918</v>
+        <v>851.7437</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6038499999999998</v>
+        <v>0.6038916666666665</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3070,22 +3070,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="F75" t="n">
-        <v>856.4077</v>
+        <v>1215334.1918</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6038716666666665</v>
+        <v>0.6038499999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3111,22 +3111,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6017</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6017</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6017</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6017</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1275673.6399</v>
+        <v>856.4077</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6038499999999998</v>
+        <v>0.6038716666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3152,22 +3152,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6017</v>
       </c>
       <c r="F77" t="n">
-        <v>863.3199</v>
+        <v>1275673.6399</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6038716666666665</v>
+        <v>0.6038499999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3193,22 +3193,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>1491235.0493</v>
+        <v>863.3199</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6038499999999998</v>
+        <v>0.6038716666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3234,22 +3234,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6016</v>
+        <v>0.6</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6016</v>
+        <v>0.6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6016</v>
+        <v>0.6</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6016</v>
+        <v>0.6</v>
       </c>
       <c r="F79" t="n">
-        <v>916573.8403</v>
+        <v>1491235.0493</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6038433333333332</v>
+        <v>0.6038499999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3275,22 +3275,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="F80" t="n">
-        <v>828.7926</v>
+        <v>916573.8403</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6039316666666665</v>
+        <v>0.6038433333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3316,22 +3316,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6112</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6112</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>321015.3658</v>
+        <v>828.7926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6041449999999998</v>
+        <v>0.6039316666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="C82" t="n">
         <v>0.6112</v>
@@ -3366,13 +3366,13 @@
         <v>0.6112</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6024</v>
+        <v>0.6</v>
       </c>
       <c r="F82" t="n">
-        <v>1042741.2895</v>
+        <v>321015.3658</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6042766666666666</v>
+        <v>0.6041449999999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3398,22 +3398,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6015</v>
+        <v>0.6024</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6015</v>
+        <v>0.6112</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6015</v>
+        <v>0.6112</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6015</v>
+        <v>0.6024</v>
       </c>
       <c r="F83" t="n">
-        <v>1688595.4533</v>
+        <v>1042741.2895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6042449999999999</v>
+        <v>0.6042766666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3439,22 +3439,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5989</v>
+        <v>0.6015</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6111</v>
+        <v>0.6015</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6111</v>
+        <v>0.6015</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5989</v>
+        <v>0.6015</v>
       </c>
       <c r="F84" t="n">
-        <v>1294122.4343</v>
+        <v>1688595.4533</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6043633333333333</v>
+        <v>0.6042449999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.5989</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.5989</v>
       </c>
       <c r="F85" t="n">
-        <v>1560208.9446</v>
+        <v>1294122.4343</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6043966666666666</v>
+        <v>0.6043633333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3521,22 +3521,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5971</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5971</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5971</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5971</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>2059425.7</v>
+        <v>1560208.9446</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6042816666666666</v>
+        <v>0.6043966666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3562,22 +3562,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5952</v>
+        <v>0.5971</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5951</v>
+        <v>0.5971</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5952</v>
+        <v>0.5971</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5951</v>
+        <v>0.5971</v>
       </c>
       <c r="F87" t="n">
-        <v>1807248.2876</v>
+        <v>2059425.7</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6042</v>
+        <v>0.6042816666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3603,22 +3603,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.611</v>
+        <v>0.5952</v>
       </c>
       <c r="C88" t="n">
-        <v>0.611</v>
+        <v>0.5951</v>
       </c>
       <c r="D88" t="n">
-        <v>0.611</v>
+        <v>0.5952</v>
       </c>
       <c r="E88" t="n">
-        <v>0.611</v>
+        <v>0.5951</v>
       </c>
       <c r="F88" t="n">
-        <v>1337095.2472</v>
+        <v>1807248.2876</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6042649999999998</v>
+        <v>0.6042</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3644,22 +3644,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.599</v>
+        <v>0.611</v>
       </c>
       <c r="C89" t="n">
-        <v>0.599</v>
+        <v>0.611</v>
       </c>
       <c r="D89" t="n">
-        <v>0.599</v>
+        <v>0.611</v>
       </c>
       <c r="E89" t="n">
-        <v>0.599</v>
+        <v>0.611</v>
       </c>
       <c r="F89" t="n">
-        <v>2082418.6352</v>
+        <v>1337095.2472</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6040899999999998</v>
+        <v>0.6042649999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3685,22 +3685,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6025</v>
+        <v>0.599</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6025</v>
+        <v>0.599</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6025</v>
+        <v>0.599</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6025</v>
+        <v>0.599</v>
       </c>
       <c r="F90" t="n">
-        <v>1706968.8819</v>
+        <v>2082418.6352</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6041316666666664</v>
+        <v>0.6040899999999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3726,22 +3726,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.611</v>
+        <v>0.6025</v>
       </c>
       <c r="C91" t="n">
-        <v>0.611</v>
+        <v>0.6025</v>
       </c>
       <c r="D91" t="n">
-        <v>0.611</v>
+        <v>0.6025</v>
       </c>
       <c r="E91" t="n">
-        <v>0.611</v>
+        <v>0.6025</v>
       </c>
       <c r="F91" t="n">
-        <v>16366.61211129296</v>
+        <v>1706968.8819</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6041366666666664</v>
+        <v>0.6041316666666664</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3767,22 +3767,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6012</v>
+        <v>0.611</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6012</v>
+        <v>0.611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6012</v>
+        <v>0.611</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6012</v>
+        <v>0.611</v>
       </c>
       <c r="F92" t="n">
-        <v>1973628.1758</v>
+        <v>16366.61211129296</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6039766666666664</v>
+        <v>0.6041366666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3808,22 +3808,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.606</v>
+        <v>0.6012</v>
       </c>
       <c r="C93" t="n">
-        <v>0.606</v>
+        <v>0.6012</v>
       </c>
       <c r="D93" t="n">
-        <v>0.606</v>
+        <v>0.6012</v>
       </c>
       <c r="E93" t="n">
-        <v>0.606</v>
+        <v>0.6012</v>
       </c>
       <c r="F93" t="n">
-        <v>1828090.5936</v>
+        <v>1973628.1758</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6038966666666664</v>
+        <v>0.6039766666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3849,22 +3849,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.611</v>
+        <v>0.606</v>
       </c>
       <c r="C94" t="n">
-        <v>0.611</v>
+        <v>0.606</v>
       </c>
       <c r="D94" t="n">
-        <v>0.611</v>
+        <v>0.606</v>
       </c>
       <c r="E94" t="n">
-        <v>0.611</v>
+        <v>0.606</v>
       </c>
       <c r="F94" t="n">
-        <v>191800.081588707</v>
+        <v>1828090.5936</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6040799999999997</v>
+        <v>0.6038966666666664</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -3890,22 +3890,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6111</v>
+        <v>0.611</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6095</v>
+        <v>0.611</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6111</v>
+        <v>0.611</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6095</v>
+        <v>0.611</v>
       </c>
       <c r="F95" t="n">
-        <v>2062212.6695</v>
+        <v>191800.081588707</v>
       </c>
       <c r="G95" t="n">
-        <v>0.604058333333333</v>
+        <v>0.6040799999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3931,22 +3931,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6095</v>
+        <v>0.6111</v>
       </c>
       <c r="C96" t="n">
         <v>0.6095</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6095</v>
+        <v>0.6111</v>
       </c>
       <c r="E96" t="n">
         <v>0.6095</v>
       </c>
       <c r="F96" t="n">
-        <v>886034.3339</v>
+        <v>2062212.6695</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6040366666666663</v>
+        <v>0.604058333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.611</v>
+        <v>0.6095</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6111</v>
+        <v>0.6095</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6111</v>
+        <v>0.6095</v>
       </c>
       <c r="E97" t="n">
-        <v>0.611</v>
+        <v>0.6095</v>
       </c>
       <c r="F97" t="n">
-        <v>484836.8578</v>
+        <v>886034.3339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6040416666666665</v>
+        <v>0.6040366666666663</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4013,22 +4013,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6107</v>
+        <v>0.611</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6107</v>
+        <v>0.6111</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6107</v>
+        <v>0.6111</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6107</v>
+        <v>0.611</v>
       </c>
       <c r="F98" t="n">
-        <v>1802128.2172</v>
+        <v>484836.8578</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6040433333333332</v>
+        <v>0.6040416666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4054,22 +4054,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.611</v>
+        <v>0.6107</v>
       </c>
       <c r="C99" t="n">
-        <v>0.611</v>
+        <v>0.6107</v>
       </c>
       <c r="D99" t="n">
-        <v>0.611</v>
+        <v>0.6107</v>
       </c>
       <c r="E99" t="n">
-        <v>0.611</v>
+        <v>0.6107</v>
       </c>
       <c r="F99" t="n">
-        <v>1406373.134</v>
+        <v>1802128.2172</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6042549999999998</v>
+        <v>0.6040433333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4095,22 +4095,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6111</v>
+        <v>0.611</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6111</v>
+        <v>0.611</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6111</v>
+        <v>0.611</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6111</v>
+        <v>0.611</v>
       </c>
       <c r="F100" t="n">
-        <v>1694.0474</v>
+        <v>1406373.134</v>
       </c>
       <c r="G100" t="n">
-        <v>0.6042599999999998</v>
+        <v>0.6042549999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4136,22 +4136,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6107</v>
+        <v>0.6111</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6095</v>
+        <v>0.6111</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6107</v>
+        <v>0.6111</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6095</v>
+        <v>0.6111</v>
       </c>
       <c r="F101" t="n">
-        <v>635987.7192112929</v>
+        <v>1694.0474</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6042383333333331</v>
+        <v>0.6042599999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4177,22 +4177,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6111</v>
+        <v>0.6107</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6111</v>
+        <v>0.6095</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6111</v>
+        <v>0.6107</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6111</v>
+        <v>0.6095</v>
       </c>
       <c r="F102" t="n">
-        <v>847.6165999999999</v>
+        <v>635987.7192112929</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6043433333333331</v>
+        <v>0.6042383333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4218,22 +4218,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="F103" t="n">
-        <v>1933787.2826</v>
+        <v>847.6165999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6042183333333332</v>
+        <v>0.6043433333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4259,22 +4259,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6088</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6088</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6088</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6088</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>493881.902</v>
+        <v>1933787.2826</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6042016666666665</v>
+        <v>0.6042183333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4300,22 +4300,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6111</v>
+        <v>0.6088</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6111</v>
+        <v>0.6088</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6111</v>
+        <v>0.6088</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6111</v>
+        <v>0.6088</v>
       </c>
       <c r="F105" t="n">
-        <v>828.4141</v>
+        <v>493881.902</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6042066666666666</v>
+        <v>0.6042016666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4341,22 +4341,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="F106" t="n">
-        <v>1366056.303</v>
+        <v>828.4141</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6041199999999999</v>
+        <v>0.6042066666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4382,22 +4382,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>1576697.3514</v>
+        <v>1366056.303</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6041133333333332</v>
+        <v>0.6041199999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4435,10 +4435,10 @@
         <v>0.6104000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>1354494.287</v>
+        <v>1576697.3514</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6041283333333333</v>
+        <v>0.6041133333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4464,22 +4464,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6111</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6111</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6111</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6111</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>830.7834</v>
+        <v>1354494.287</v>
       </c>
       <c r="G109" t="n">
-        <v>0.6041333333333333</v>
+        <v>0.6041283333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4505,22 +4505,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="F110" t="n">
-        <v>1477708.554</v>
+        <v>830.7834</v>
       </c>
       <c r="G110" t="n">
-        <v>0.60393</v>
+        <v>0.6041333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4546,22 +4546,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6086</v>
+        <v>0.5986</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6086</v>
+        <v>0.5986</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6086</v>
+        <v>0.5986</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6086</v>
+        <v>0.5986</v>
       </c>
       <c r="F111" t="n">
-        <v>739916.3612</v>
+        <v>1477708.554</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6040333333333333</v>
+        <v>0.60393</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4587,22 +4587,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.61</v>
+        <v>0.6086</v>
       </c>
       <c r="C112" t="n">
-        <v>0.61</v>
+        <v>0.6086</v>
       </c>
       <c r="D112" t="n">
-        <v>0.61</v>
+        <v>0.6086</v>
       </c>
       <c r="E112" t="n">
-        <v>0.61</v>
+        <v>0.6086</v>
       </c>
       <c r="F112" t="n">
-        <v>861.17</v>
+        <v>739916.3612</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6041349999999999</v>
+        <v>0.6040333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4628,22 +4628,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6067</v>
+        <v>0.61</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6067</v>
+        <v>0.61</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6067</v>
+        <v>0.61</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6067</v>
+        <v>0.61</v>
       </c>
       <c r="F113" t="n">
-        <v>1660292.0985</v>
+        <v>861.17</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6042749999999999</v>
+        <v>0.6041349999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4669,22 +4669,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6069</v>
+        <v>0.6067</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6069</v>
+        <v>0.6067</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6069</v>
+        <v>0.6067</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6069</v>
+        <v>0.6067</v>
       </c>
       <c r="F114" t="n">
-        <v>1174179.5781</v>
+        <v>1660292.0985</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6043616666666666</v>
+        <v>0.6042749999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4710,22 +4710,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6051</v>
+        <v>0.6069</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6051</v>
+        <v>0.6069</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6051</v>
+        <v>0.6069</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6051</v>
+        <v>0.6069</v>
       </c>
       <c r="F115" t="n">
-        <v>829783.2678</v>
+        <v>1174179.5781</v>
       </c>
       <c r="G115" t="n">
-        <v>0.60443</v>
+        <v>0.6043616666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4751,22 +4751,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6057</v>
+        <v>0.6051</v>
       </c>
       <c r="C116" t="n">
-        <v>0.61</v>
+        <v>0.6051</v>
       </c>
       <c r="D116" t="n">
-        <v>0.61</v>
+        <v>0.6051</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6057</v>
+        <v>0.6051</v>
       </c>
       <c r="F116" t="n">
-        <v>1581721.0184</v>
+        <v>829783.2678</v>
       </c>
       <c r="G116" t="n">
-        <v>0.60459</v>
+        <v>0.60443</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4792,22 +4792,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6055</v>
+        <v>0.6057</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6055</v>
+        <v>0.61</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6055</v>
+        <v>0.61</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6055</v>
+        <v>0.6057</v>
       </c>
       <c r="F117" t="n">
-        <v>1299940.8865</v>
+        <v>1581721.0184</v>
       </c>
       <c r="G117" t="n">
-        <v>0.60471</v>
+        <v>0.60459</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4833,22 +4833,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.605</v>
+        <v>0.6055</v>
       </c>
       <c r="C118" t="n">
-        <v>0.605</v>
+        <v>0.6055</v>
       </c>
       <c r="D118" t="n">
-        <v>0.605</v>
+        <v>0.6055</v>
       </c>
       <c r="E118" t="n">
-        <v>0.605</v>
+        <v>0.6055</v>
       </c>
       <c r="F118" t="n">
-        <v>9892.623799999999</v>
+        <v>1299940.8865</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6048216666666665</v>
+        <v>0.60471</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4877,19 +4877,19 @@
         <v>0.605</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="E119" t="n">
         <v>0.605</v>
       </c>
       <c r="F119" t="n">
-        <v>1750643.7844</v>
+        <v>9892.623799999999</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6049733333333331</v>
+        <v>0.6048216666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4915,22 +4915,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6005</v>
+        <v>0.605</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6005</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6005</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6005</v>
+        <v>0.605</v>
       </c>
       <c r="F120" t="n">
-        <v>1370618.9662</v>
+        <v>1750643.7844</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6050416666666664</v>
+        <v>0.6049733333333331</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4956,22 +4956,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6036</v>
+        <v>0.6005</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6036</v>
+        <v>0.6005</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6036</v>
+        <v>0.6005</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6036</v>
+        <v>0.6005</v>
       </c>
       <c r="F121" t="n">
-        <v>636272.7458</v>
+        <v>1370618.9662</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6051299999999996</v>
+        <v>0.6050416666666664</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4997,22 +4997,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6036</v>
       </c>
       <c r="F122" t="n">
-        <v>4625.5779</v>
+        <v>636272.7458</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6052716666666663</v>
+        <v>0.6051299999999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5038,19 +5038,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5986</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5986</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5986</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5986</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>297651.5375</v>
+        <v>4625.5779</v>
       </c>
       <c r="G123" t="n">
         <v>0.6052716666666663</v>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5079,22 +5079,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6007</v>
+        <v>0.5986</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6007</v>
+        <v>0.5986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6007</v>
+        <v>0.5986</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6007</v>
+        <v>0.5986</v>
       </c>
       <c r="F124" t="n">
-        <v>2052538.9809</v>
+        <v>297651.5375</v>
       </c>
       <c r="G124" t="n">
-        <v>0.605338333333333</v>
+        <v>0.6052716666666663</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5120,22 +5120,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6065</v>
+        <v>0.6007</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6065</v>
+        <v>0.6007</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6065</v>
+        <v>0.6007</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6065</v>
+        <v>0.6007</v>
       </c>
       <c r="F125" t="n">
-        <v>903581.4389</v>
+        <v>2052538.9809</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6055216666666663</v>
+        <v>0.605338333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5161,22 +5161,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6057</v>
+        <v>0.6065</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6057</v>
+        <v>0.6065</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6057</v>
+        <v>0.6065</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6057</v>
+        <v>0.6065</v>
       </c>
       <c r="F126" t="n">
-        <v>919107.6576</v>
+        <v>903581.4389</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6056349999999996</v>
+        <v>0.6055216666666663</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5202,22 +5202,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6001</v>
+        <v>0.6057</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6001</v>
+        <v>0.6057</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6001</v>
+        <v>0.6057</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6001</v>
+        <v>0.6057</v>
       </c>
       <c r="F127" t="n">
-        <v>4625.5779</v>
+        <v>919107.6576</v>
       </c>
       <c r="G127" t="n">
-        <v>0.6056099999999996</v>
+        <v>0.6056349999999996</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5243,22 +5243,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6002</v>
+        <v>0.6001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6002</v>
+        <v>0.6001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6002</v>
+        <v>0.6001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6002</v>
+        <v>0.6001</v>
       </c>
       <c r="F128" t="n">
-        <v>749467.118</v>
+        <v>4625.5779</v>
       </c>
       <c r="G128" t="n">
-        <v>0.6055849999999996</v>
+        <v>0.6056099999999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5284,22 +5284,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6002</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6002</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6002</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6002</v>
       </c>
       <c r="F129" t="n">
-        <v>4570.1189</v>
+        <v>749467.118</v>
       </c>
       <c r="G129" t="n">
-        <v>0.6056533333333329</v>
+        <v>0.6055849999999996</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5325,22 +5325,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6006</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6006</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6006</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6006</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>682359.8053</v>
+        <v>4570.1189</v>
       </c>
       <c r="G130" t="n">
-        <v>0.6056449999999995</v>
+        <v>0.6056533333333329</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5366,22 +5366,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6001</v>
+        <v>0.6006</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6001</v>
+        <v>0.6006</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6001</v>
+        <v>0.6006</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6001</v>
+        <v>0.6006</v>
       </c>
       <c r="F131" t="n">
-        <v>24636.8942</v>
+        <v>682359.8053</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6055749999999995</v>
+        <v>0.6056449999999995</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5407,22 +5407,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6014</v>
+        <v>0.6001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6014</v>
+        <v>0.6001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6014</v>
+        <v>0.6001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6014</v>
+        <v>0.6001</v>
       </c>
       <c r="F132" t="n">
-        <v>1334988.9374</v>
+        <v>24636.8942</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6055449999999994</v>
+        <v>0.6055749999999995</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5448,32 +5448,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6014</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6014</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6014</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6014</v>
       </c>
       <c r="F133" t="n">
-        <v>874.0118</v>
+        <v>1334988.9374</v>
       </c>
       <c r="G133" t="n">
-        <v>0.605596666666666</v>
+        <v>0.6055449999999994</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.6001</v>
+      </c>
       <c r="K133" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5489,22 +5491,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6041</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6041</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6041</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6041</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F134" t="n">
-        <v>843288.3522</v>
+        <v>874.0118</v>
       </c>
       <c r="G134" t="n">
-        <v>0.6056566666666662</v>
+        <v>0.605596666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5514,7 +5516,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5530,32 +5532,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6073</v>
+        <v>0.6041</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6073</v>
+        <v>0.6041</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6073</v>
+        <v>0.6041</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6073</v>
+        <v>0.6041</v>
       </c>
       <c r="F135" t="n">
-        <v>1767180.2997</v>
+        <v>843288.3522</v>
       </c>
       <c r="G135" t="n">
-        <v>0.6057066666666662</v>
+        <v>0.6056566666666662</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.6074000000000001</v>
+      </c>
       <c r="K135" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5571,22 +5575,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6039</v>
+        <v>0.6073</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6039</v>
+        <v>0.6073</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6039</v>
+        <v>0.6073</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6039</v>
+        <v>0.6073</v>
       </c>
       <c r="F136" t="n">
-        <v>2092008.8831</v>
+        <v>1767180.2997</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6057433333333329</v>
+        <v>0.6057066666666662</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5596,7 +5600,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5612,22 +5616,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6007</v>
+        <v>0.6039</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6007</v>
+        <v>0.6039</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6007</v>
+        <v>0.6039</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6007</v>
+        <v>0.6039</v>
       </c>
       <c r="F137" t="n">
-        <v>981330.2635</v>
+        <v>2092008.8831</v>
       </c>
       <c r="G137" t="n">
-        <v>0.6056833333333329</v>
+        <v>0.6057433333333329</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5637,7 +5641,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5653,22 +5657,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6007</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6007</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6007</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6007</v>
       </c>
       <c r="F138" t="n">
-        <v>949.6057</v>
+        <v>981330.2635</v>
       </c>
       <c r="G138" t="n">
-        <v>0.6058066666666662</v>
+        <v>0.6056833333333329</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5678,7 +5682,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5694,22 +5698,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6002</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6002</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6002</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6002</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>17000</v>
+        <v>949.6057</v>
       </c>
       <c r="G139" t="n">
-        <v>0.6057833333333329</v>
+        <v>0.6058066666666662</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5719,7 +5723,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5735,22 +5739,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6034</v>
+        <v>0.6002</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6034</v>
+        <v>0.6002</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6034</v>
+        <v>0.6002</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6034</v>
+        <v>0.6002</v>
       </c>
       <c r="F140" t="n">
-        <v>1690856.8146</v>
+        <v>17000</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6057683333333329</v>
+        <v>0.6057833333333329</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5760,7 +5764,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5776,22 +5780,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6012</v>
+        <v>0.6034</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6012</v>
+        <v>0.6034</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6012</v>
+        <v>0.6034</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6012</v>
+        <v>0.6034</v>
       </c>
       <c r="F141" t="n">
-        <v>1810761.8624</v>
+        <v>1690856.8146</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6056016666666663</v>
+        <v>0.6057683333333329</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5801,7 +5805,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5817,22 +5821,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6012</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6012</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6012</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6012</v>
       </c>
       <c r="F142" t="n">
-        <v>884.1248000000001</v>
+        <v>1810761.8624</v>
       </c>
       <c r="G142" t="n">
-        <v>0.605538333333333</v>
+        <v>0.6056016666666663</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5842,7 +5846,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5858,22 +5862,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6068</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6068</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6068</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6068</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>1308307.835</v>
+        <v>884.1248000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>0.6056266666666662</v>
+        <v>0.605538333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5883,7 +5887,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5899,22 +5903,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6068</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6068</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6068</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6068</v>
       </c>
       <c r="F144" t="n">
-        <v>473757.9768</v>
+        <v>1308307.835</v>
       </c>
       <c r="G144" t="n">
-        <v>0.6055649999999996</v>
+        <v>0.6056266666666662</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5924,7 +5928,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5940,22 +5944,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.608</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>0.608</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>0.608</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>0.608</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>1087413.1185</v>
+        <v>473757.9768</v>
       </c>
       <c r="G145" t="n">
-        <v>0.6056099999999994</v>
+        <v>0.6055649999999996</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5965,7 +5969,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5981,22 +5985,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6082</v>
+        <v>0.608</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6082</v>
+        <v>0.608</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6082</v>
+        <v>0.608</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6082</v>
+        <v>0.608</v>
       </c>
       <c r="F146" t="n">
-        <v>857337.9578</v>
+        <v>1087413.1185</v>
       </c>
       <c r="G146" t="n">
-        <v>0.6057949999999994</v>
+        <v>0.6056099999999994</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6006,7 +6010,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6022,22 +6026,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6082</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6082</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6082</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6082</v>
       </c>
       <c r="F147" t="n">
-        <v>982027.7688</v>
+        <v>857337.9578</v>
       </c>
       <c r="G147" t="n">
-        <v>0.6060333333333328</v>
+        <v>0.6057949999999994</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6047,7 +6051,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6063,22 +6067,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6088</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6088</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6088</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6088</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>731688.5696</v>
+        <v>982027.7688</v>
       </c>
       <c r="G148" t="n">
-        <v>0.6059966666666662</v>
+        <v>0.6060333333333328</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6088,7 +6092,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6104,22 +6108,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6093</v>
+        <v>0.6088</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6093</v>
+        <v>0.6088</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6093</v>
+        <v>0.6088</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6093</v>
+        <v>0.6088</v>
       </c>
       <c r="F149" t="n">
-        <v>1142886.6734</v>
+        <v>731688.5696</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6061683333333329</v>
+        <v>0.6059966666666662</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6129,7 +6133,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6145,22 +6149,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6079</v>
+        <v>0.6093</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6079</v>
+        <v>0.6093</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6079</v>
+        <v>0.6093</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6079</v>
+        <v>0.6093</v>
       </c>
       <c r="F150" t="n">
-        <v>1598241.1297</v>
+        <v>1142886.6734</v>
       </c>
       <c r="G150" t="n">
-        <v>0.6062583333333329</v>
+        <v>0.6061683333333329</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6170,7 +6174,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6186,22 +6190,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.61</v>
+        <v>0.6079</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6145</v>
+        <v>0.6079</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6145</v>
+        <v>0.6079</v>
       </c>
       <c r="E151" t="n">
-        <v>0.61</v>
+        <v>0.6079</v>
       </c>
       <c r="F151" t="n">
-        <v>252259.6444</v>
+        <v>1598241.1297</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6063166666666663</v>
+        <v>0.6062583333333329</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6211,7 +6215,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6227,22 +6231,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6152</v>
+        <v>0.61</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6152</v>
+        <v>0.6145</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6152</v>
+        <v>0.6145</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6152</v>
+        <v>0.61</v>
       </c>
       <c r="F152" t="n">
-        <v>1421963.3502</v>
+        <v>252259.6444</v>
       </c>
       <c r="G152" t="n">
-        <v>0.6065499999999997</v>
+        <v>0.6063166666666663</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6252,7 +6256,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6268,22 +6272,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6145</v>
+        <v>0.6152</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6145</v>
+        <v>0.6152</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6145</v>
+        <v>0.6152</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6145</v>
+        <v>0.6152</v>
       </c>
       <c r="F153" t="n">
-        <v>195526.7092</v>
+        <v>1421963.3502</v>
       </c>
       <c r="G153" t="n">
-        <v>0.6066916666666663</v>
+        <v>0.6065499999999997</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6293,7 +6297,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6309,22 +6313,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6145</v>
       </c>
       <c r="F154" t="n">
-        <v>783001.1219</v>
+        <v>195526.7092</v>
       </c>
       <c r="G154" t="n">
-        <v>0.6067649999999997</v>
+        <v>0.6066916666666663</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6334,7 +6338,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6350,22 +6354,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.615</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>0.615</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="D155" t="n">
-        <v>0.615</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>0.615</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>447237.9204</v>
+        <v>783001.1219</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6068566666666665</v>
+        <v>0.6067649999999997</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6375,7 +6379,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6391,22 +6395,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6157</v>
+        <v>0.615</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6157</v>
+        <v>0.615</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6157</v>
+        <v>0.615</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6157</v>
+        <v>0.615</v>
       </c>
       <c r="F156" t="n">
-        <v>1597668.1743</v>
+        <v>447237.9204</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6069599999999997</v>
+        <v>0.6068566666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6416,7 +6420,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6432,22 +6436,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6159</v>
+        <v>0.6157</v>
       </c>
       <c r="C157" t="n">
-        <v>0.65</v>
+        <v>0.6157</v>
       </c>
       <c r="D157" t="n">
-        <v>0.65</v>
+        <v>0.6157</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6159</v>
+        <v>0.6157</v>
       </c>
       <c r="F157" t="n">
-        <v>6843141.469112077</v>
+        <v>1597668.1743</v>
       </c>
       <c r="G157" t="n">
-        <v>0.6076083333333331</v>
+        <v>0.6069599999999997</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6457,7 +6461,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6473,22 +6477,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="C158" t="n">
         <v>0.65</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.64</v>
       </c>
       <c r="D158" t="n">
         <v>0.65</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6159</v>
       </c>
       <c r="F158" t="n">
-        <v>2631489.782397303</v>
+        <v>6843141.469112077</v>
       </c>
       <c r="G158" t="n">
-        <v>0.6080966666666664</v>
+        <v>0.6076083333333331</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6498,7 +6502,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6514,22 +6518,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C159" t="n">
         <v>0.64</v>
       </c>
       <c r="D159" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E159" t="n">
-        <v>0.64</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="F159" t="n">
-        <v>27927.8029</v>
+        <v>2631489.782397303</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6085799999999998</v>
+        <v>0.6080966666666664</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6539,7 +6543,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6567,10 +6571,10 @@
         <v>0.64</v>
       </c>
       <c r="F160" t="n">
-        <v>1704076.3806</v>
+        <v>27927.8029</v>
       </c>
       <c r="G160" t="n">
-        <v>0.6090616666666665</v>
+        <v>0.6085799999999998</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6580,7 +6584,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>0.5989</v>
+        <v>0.5986</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6588,7 +6592,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>1.063625813992319</v>
+        <v>1.064161376545272</v>
       </c>
     </row>
     <row r="161">
@@ -6596,28 +6600,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="F161" t="n">
-        <v>50000</v>
+        <v>1704076.3806</v>
       </c>
       <c r="G161" t="n">
-        <v>0.6093449999999998</v>
+        <v>0.6090616666666665</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6631,22 +6635,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>1472588.5887</v>
+        <v>50000</v>
       </c>
       <c r="G162" t="n">
-        <v>0.6096349999999998</v>
+        <v>0.6093449999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6661,6 +6665,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1472588.5887</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.6096349999999998</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5204.7347</v>
       </c>
       <c r="G2" t="n">
+        <v>0.5956666666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5965133333333341</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>1382632.1318</v>
       </c>
       <c r="G3" t="n">
+        <v>0.5958266666666664</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5963900000000008</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>1558610.7223</v>
       </c>
       <c r="G4" t="n">
+        <v>0.5959133333333332</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5962500000000007</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5956</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>1067798.7773</v>
       </c>
       <c r="G5" t="n">
+        <v>0.5963599999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5962516666666673</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5945</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>437270.7523</v>
       </c>
       <c r="G6" t="n">
+        <v>0.5967466666666664</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5963666666666673</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>854.6015</v>
       </c>
       <c r="G7" t="n">
+        <v>0.5973399999999996</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.596523333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,29 @@
         <v>1391424.4827</v>
       </c>
       <c r="G8" t="n">
+        <v>0.597953333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5966800000000007</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +759,21 @@
         <v>1712162.3563</v>
       </c>
       <c r="G9" t="n">
+        <v>0.5985666666666664</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.5968350000000007</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,21 @@
         <v>1426853.4357</v>
       </c>
       <c r="G10" t="n">
+        <v>0.5990466666666664</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5969950000000007</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +835,21 @@
         <v>270217.3505</v>
       </c>
       <c r="G11" t="n">
+        <v>0.5995733333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.597138333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +873,21 @@
         <v>210903.2514</v>
       </c>
       <c r="G12" t="n">
+        <v>0.6000666666666665</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.5971983333333341</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +911,21 @@
         <v>849.9431</v>
       </c>
       <c r="G13" t="n">
+        <v>0.6005333333333331</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.5972116666666673</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +949,21 @@
         <v>1097024.4537</v>
       </c>
       <c r="G14" t="n">
+        <v>0.6006133333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.5973500000000006</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +987,21 @@
         <v>2735.7311</v>
       </c>
       <c r="G15" t="n">
+        <v>0.601053333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.5974266666666673</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1025,21 @@
         <v>205309.5122</v>
       </c>
       <c r="G16" t="n">
+        <v>0.6013599999999997</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.597553333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1063,21 @@
         <v>209351.0502</v>
       </c>
       <c r="G17" t="n">
+        <v>0.601373333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5977200000000008</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1101,21 @@
         <v>200957.7755</v>
       </c>
       <c r="G18" t="n">
+        <v>0.6018666666666663</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.5977266666666675</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1139,21 @@
         <v>1246615.0795</v>
       </c>
       <c r="G19" t="n">
+        <v>0.6023199999999996</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5977350000000008</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1177,21 @@
         <v>1863864.1937</v>
       </c>
       <c r="G20" t="n">
+        <v>0.6024599999999997</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5978583333333342</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1215,21 @@
         <v>1269721.6185</v>
       </c>
       <c r="G21" t="n">
+        <v>0.6023933333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5978633333333341</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1253,21 @@
         <v>1969569.7056</v>
       </c>
       <c r="G22" t="n">
+        <v>0.6021266666666665</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5979316666666674</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1291,21 @@
         <v>3728547.4477</v>
       </c>
       <c r="G23" t="n">
+        <v>0.6021866666666665</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.5980133333333341</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1329,21 @@
         <v>539648.4659</v>
       </c>
       <c r="G24" t="n">
+        <v>0.6022533333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.5981833333333341</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1367,21 @@
         <v>855.6217</v>
       </c>
       <c r="G25" t="n">
+        <v>0.6023399999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.598288333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1405,21 @@
         <v>71452.5523</v>
       </c>
       <c r="G26" t="n">
+        <v>0.6023733333333331</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.5982950000000006</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1443,21 @@
         <v>1537011.6379</v>
       </c>
       <c r="G27" t="n">
+        <v>0.6024466666666665</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.5984366666666673</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1481,21 @@
         <v>119313.2727</v>
       </c>
       <c r="G28" t="n">
+        <v>0.6022466666666664</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.5984766666666672</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1519,21 @@
         <v>1505126.8006</v>
       </c>
       <c r="G29" t="n">
+        <v>0.6025199999999997</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.598608333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1557,21 @@
         <v>44628.8293</v>
       </c>
       <c r="G30" t="n">
+        <v>0.6029533333333331</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.5987266666666672</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1595,21 @@
         <v>1000</v>
       </c>
       <c r="G31" t="n">
+        <v>0.602753333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.5987750000000005</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1633,21 @@
         <v>846.8079</v>
       </c>
       <c r="G32" t="n">
+        <v>0.6032666666666664</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.5990666666666672</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1671,21 @@
         <v>5041.0296</v>
       </c>
       <c r="G33" t="n">
+        <v>0.6037866666666664</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.5993050000000005</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1709,21 @@
         <v>1865841.6955</v>
       </c>
       <c r="G34" t="n">
+        <v>0.6044199999999996</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.5994866666666672</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1747,21 @@
         <v>834</v>
       </c>
       <c r="G35" t="n">
+        <v>0.6042866666666663</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.5994666666666671</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1785,21 @@
         <v>821.1061999999999</v>
       </c>
       <c r="G36" t="n">
+        <v>0.6050733333333329</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.5997600000000004</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1823,21 @@
         <v>475664.3388</v>
       </c>
       <c r="G37" t="n">
+        <v>0.6058999999999996</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.6000533333333337</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1861,21 @@
         <v>432987.4372</v>
       </c>
       <c r="G38" t="n">
+        <v>0.6063999999999995</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.600301666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1899,21 @@
         <v>471793.6117</v>
       </c>
       <c r="G39" t="n">
+        <v>0.6068799999999995</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.6005900000000003</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1937,21 @@
         <v>52239.2805</v>
       </c>
       <c r="G40" t="n">
+        <v>0.6064999999999995</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.6006733333333336</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1975,21 @@
         <v>845.7286</v>
       </c>
       <c r="G41" t="n">
+        <v>0.6069999999999995</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.6009650000000003</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2013,21 @@
         <v>1926114.2175</v>
       </c>
       <c r="G42" t="n">
+        <v>0.6074533333333328</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.6011150000000003</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2051,21 @@
         <v>450812.675</v>
       </c>
       <c r="G43" t="n">
+        <v>0.6077733333333328</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.6013083333333336</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2089,21 @@
         <v>855.2603</v>
       </c>
       <c r="G44" t="n">
+        <v>0.6080199999999996</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.6015666666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2127,21 @@
         <v>1691158.6939</v>
       </c>
       <c r="G45" t="n">
+        <v>0.6080399999999995</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.6018200000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2165,21 @@
         <v>859.5497</v>
       </c>
       <c r="G46" t="n">
+        <v>0.6087599999999995</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.6020483333333335</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2203,21 @@
         <v>1973509.4727</v>
       </c>
       <c r="G47" t="n">
+        <v>0.6085466666666661</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.6022133333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2241,21 @@
         <v>825.1790999999999</v>
       </c>
       <c r="G48" t="n">
+        <v>0.6085466666666661</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.6025066666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2279,21 @@
         <v>1469388.9861</v>
       </c>
       <c r="G49" t="n">
+        <v>0.6084599999999996</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.6027783333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2317,21 @@
         <v>827.5398</v>
       </c>
       <c r="G50" t="n">
+        <v>0.6091799999999996</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.6030716666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2355,21 @@
         <v>3299.3318</v>
       </c>
       <c r="G51" t="n">
+        <v>0.6091799999999996</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.6033483333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2393,21 @@
         <v>1682669.5467</v>
       </c>
       <c r="G52" t="n">
+        <v>0.6086199999999996</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.6034966666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2431,21 @@
         <v>552909.3443</v>
       </c>
       <c r="G53" t="n">
+        <v>0.6081599999999996</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.6036749999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2469,21 @@
         <v>4110.9159</v>
       </c>
       <c r="G54" t="n">
+        <v>0.6073399999999995</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.6037599999999999</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2507,21 @@
         <v>2059075.3008</v>
       </c>
       <c r="G55" t="n">
+        <v>0.6075666666666663</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.6038633333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2545,21 @@
         <v>512651.227</v>
       </c>
       <c r="G56" t="n">
+        <v>0.606913333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.6039649999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2583,21 @@
         <v>1450854.3884</v>
       </c>
       <c r="G57" t="n">
+        <v>0.6062199999999998</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.6040466666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2621,21 @@
         <v>374750.5559</v>
       </c>
       <c r="G58" t="n">
+        <v>0.6057866666666665</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.6040849999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2659,21 @@
         <v>1310516.5957</v>
       </c>
       <c r="G59" t="n">
+        <v>0.6049533333333331</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.6040266666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2697,21 @@
         <v>194234.9154</v>
       </c>
       <c r="G60" t="n">
+        <v>0.6041866666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.6040583333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2735,21 @@
         <v>439341.4211</v>
       </c>
       <c r="G61" t="n">
+        <v>0.6032266666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.604025</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2773,21 @@
         <v>874.6102</v>
       </c>
       <c r="G62" t="n">
+        <v>0.6026133333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.60395</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5964</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.5964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,26 +2811,21 @@
         <v>28582.9756</v>
       </c>
       <c r="G63" t="n">
+        <v>0.60182</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.6040050000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5983000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.5964</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,26 +2849,21 @@
         <v>770962.5823</v>
       </c>
       <c r="G64" t="n">
+        <v>0.6010933333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.6040733333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.5964</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,22 +2887,21 @@
         <v>923775.1647</v>
       </c>
       <c r="G65" t="n">
+        <v>0.6001533333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.60402</v>
       </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.5986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2712,26 +2925,21 @@
         <v>506752.1151</v>
       </c>
       <c r="G66" t="n">
+        <v>0.5991333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.603945</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5967</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2755,26 +2963,21 @@
         <v>1306050.9242</v>
       </c>
       <c r="G67" t="n">
+        <v>0.5989000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.6038866666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,24 +3001,21 @@
         <v>1352385.7244</v>
       </c>
       <c r="G68" t="n">
+        <v>0.5987466666666668</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.6038733333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2839,24 +3039,21 @@
         <v>1374844.9308</v>
       </c>
       <c r="G69" t="n">
+        <v>0.5989733333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.6038616666666665</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,24 +3077,21 @@
         <v>1854623.5131</v>
       </c>
       <c r="G70" t="n">
+        <v>0.5990800000000002</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.6038716666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2921,24 +3115,21 @@
         <v>2054074.9316</v>
       </c>
       <c r="G71" t="n">
+        <v>0.5990866666666669</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.6038433333333332</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,24 +3153,21 @@
         <v>849.3155</v>
       </c>
       <c r="G72" t="n">
+        <v>0.5993466666666669</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.6038666666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,24 +3191,21 @@
         <v>915636.2868</v>
       </c>
       <c r="G73" t="n">
+        <v>0.5996733333333335</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.6038699999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,24 +3229,21 @@
         <v>851.7437</v>
       </c>
       <c r="G74" t="n">
+        <v>0.6000733333333336</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.6038916666666665</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3085,24 +3267,21 @@
         <v>1215334.1918</v>
       </c>
       <c r="G75" t="n">
+        <v>0.6002200000000002</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.6038499999999998</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,24 +3305,21 @@
         <v>856.4077</v>
       </c>
       <c r="G76" t="n">
+        <v>0.6007466666666669</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.6038716666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3167,24 +3343,21 @@
         <v>1275673.6399</v>
       </c>
       <c r="G77" t="n">
+        <v>0.6009733333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.6038499999999998</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,24 +3381,21 @@
         <v>863.3199</v>
       </c>
       <c r="G78" t="n">
+        <v>0.6013333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.6038716666666665</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,24 +3419,21 @@
         <v>1491235.0493</v>
       </c>
       <c r="G79" t="n">
+        <v>0.6014266666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.6038499999999998</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,24 +3457,21 @@
         <v>916573.8403</v>
       </c>
       <c r="G80" t="n">
+        <v>0.6017533333333334</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.6038433333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3331,24 +3495,21 @@
         <v>828.7926</v>
       </c>
       <c r="G81" t="n">
+        <v>0.6023400000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.6039316666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,24 +3533,21 @@
         <v>321015.3658</v>
       </c>
       <c r="G82" t="n">
+        <v>0.6031600000000001</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.6041449999999998</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,24 +3571,21 @@
         <v>1042741.2895</v>
       </c>
       <c r="G83" t="n">
+        <v>0.6038000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.6042766666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,24 +3609,21 @@
         <v>1688595.4533</v>
       </c>
       <c r="G84" t="n">
+        <v>0.6037866666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.6042449999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3495,24 +3647,21 @@
         <v>1294122.4343</v>
       </c>
       <c r="G85" t="n">
+        <v>0.6043066666666668</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.6043633333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,24 +3685,21 @@
         <v>1560208.9446</v>
       </c>
       <c r="G86" t="n">
+        <v>0.6045866666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.6043966666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3577,24 +3723,21 @@
         <v>2059425.7</v>
       </c>
       <c r="G87" t="n">
+        <v>0.6041066666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.6042816666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,24 +3761,21 @@
         <v>1807248.2876</v>
       </c>
       <c r="G88" t="n">
+        <v>0.6035666666666668</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.6042</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,24 +3799,21 @@
         <v>1337095.2472</v>
       </c>
       <c r="G89" t="n">
+        <v>0.6040133333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.6042649999999998</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,24 +3837,21 @@
         <v>2082418.6352</v>
       </c>
       <c r="G90" t="n">
+        <v>0.6039133333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.6040899999999998</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,24 +3875,21 @@
         <v>1706968.8819</v>
       </c>
       <c r="G91" t="n">
+        <v>0.6037933333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.6041316666666664</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,24 +3913,21 @@
         <v>16366.61211129296</v>
       </c>
       <c r="G92" t="n">
+        <v>0.6044133333333335</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.6041366666666664</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3823,24 +3951,21 @@
         <v>1973628.1758</v>
       </c>
       <c r="G93" t="n">
+        <v>0.6042066666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.6039766666666664</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,24 +3989,21 @@
         <v>1828090.5936</v>
       </c>
       <c r="G94" t="n">
+        <v>0.6046066666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.6038966666666664</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,24 +4027,21 @@
         <v>191800.081588707</v>
       </c>
       <c r="G95" t="n">
+        <v>0.6052333333333336</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.6040799999999997</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,24 +4065,21 @@
         <v>2062212.6695</v>
       </c>
       <c r="G96" t="n">
+        <v>0.6055800000000002</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.604058333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,24 +4103,21 @@
         <v>886034.3339</v>
       </c>
       <c r="G97" t="n">
+        <v>0.6054666666666669</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.6040366666666663</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,24 +4141,21 @@
         <v>484836.8578</v>
       </c>
       <c r="G98" t="n">
+        <v>0.6054600000000003</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.6040416666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,24 +4179,21 @@
         <v>1802128.2172</v>
       </c>
       <c r="G99" t="n">
+        <v>0.6060733333333336</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.6040433333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,24 +4217,21 @@
         <v>1406373.134</v>
       </c>
       <c r="G100" t="n">
+        <v>0.606066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.6042549999999998</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,24 +4255,21 @@
         <v>1694.0474</v>
       </c>
       <c r="G101" t="n">
+        <v>0.6064533333333337</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.6042599999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,24 +4293,21 @@
         <v>635987.7192112929</v>
       </c>
       <c r="G102" t="n">
+        <v>0.6072800000000005</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.6042383333333331</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,24 +4331,21 @@
         <v>847.6165999999999</v>
       </c>
       <c r="G103" t="n">
+        <v>0.6083466666666671</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.6043433333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,24 +4369,21 @@
         <v>1933787.2826</v>
       </c>
       <c r="G104" t="n">
+        <v>0.6078333333333338</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.6042183333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,24 +4407,21 @@
         <v>493881.902</v>
       </c>
       <c r="G105" t="n">
+        <v>0.6084866666666672</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.6042016666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,24 +4445,21 @@
         <v>828.4141</v>
       </c>
       <c r="G106" t="n">
+        <v>0.6090600000000005</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.6042066666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,24 +4483,21 @@
         <v>1366056.303</v>
       </c>
       <c r="G107" t="n">
+        <v>0.6084800000000004</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.6041199999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,24 +4521,21 @@
         <v>1576697.3514</v>
       </c>
       <c r="G108" t="n">
+        <v>0.6090933333333337</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.6041133333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,24 +4559,21 @@
         <v>1354494.287</v>
       </c>
       <c r="G109" t="n">
+        <v>0.6093866666666671</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.6041283333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,24 +4597,21 @@
         <v>830.7834</v>
       </c>
       <c r="G110" t="n">
+        <v>0.6093933333333337</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.6041333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,24 +4635,21 @@
         <v>1477708.554</v>
       </c>
       <c r="G111" t="n">
+        <v>0.6086666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.60393</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,24 +4673,21 @@
         <v>739916.3612</v>
       </c>
       <c r="G112" t="n">
+        <v>0.608606666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.6040333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4643,24 +4711,21 @@
         <v>861.17</v>
       </c>
       <c r="G113" t="n">
+        <v>0.6085333333333336</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.6041349999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,24 +4749,21 @@
         <v>1660292.0985</v>
       </c>
       <c r="G114" t="n">
+        <v>0.608266666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.6042749999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,24 +4787,21 @@
         <v>1174179.5781</v>
       </c>
       <c r="G115" t="n">
+        <v>0.6079933333333335</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.6043616666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,24 +4825,21 @@
         <v>829783.2678</v>
       </c>
       <c r="G116" t="n">
+        <v>0.6075933333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.60443</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,24 +4863,21 @@
         <v>1581721.0184</v>
       </c>
       <c r="G117" t="n">
+        <v>0.6076266666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.60459</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,24 +4901,21 @@
         <v>1299940.8865</v>
       </c>
       <c r="G118" t="n">
+        <v>0.6072533333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.60471</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4889,24 +4939,21 @@
         <v>9892.623799999999</v>
       </c>
       <c r="G119" t="n">
+        <v>0.6073666666666668</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.6048216666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,24 +4977,21 @@
         <v>1750643.7844</v>
       </c>
       <c r="G120" t="n">
+        <v>0.6072733333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>0.6049733333333331</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4971,24 +5015,21 @@
         <v>1370618.9662</v>
       </c>
       <c r="G121" t="n">
+        <v>0.6065666666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>0.6050416666666664</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,24 +5053,21 @@
         <v>636272.7458</v>
       </c>
       <c r="G122" t="n">
+        <v>0.6066533333333335</v>
+      </c>
+      <c r="H122" t="n">
         <v>0.6051299999999996</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,24 +5091,21 @@
         <v>4625.5779</v>
       </c>
       <c r="G123" t="n">
+        <v>0.6064533333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>0.6052716666666663</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,24 +5129,21 @@
         <v>297651.5375</v>
       </c>
       <c r="G124" t="n">
+        <v>0.6056666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>0.6052716666666663</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,24 +5167,21 @@
         <v>2052538.9809</v>
       </c>
       <c r="G125" t="n">
+        <v>0.6049733333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>0.605338333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,24 +5205,21 @@
         <v>903581.4389</v>
       </c>
       <c r="G126" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.6055216666666663</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5217,24 +5243,21 @@
         <v>919107.6576</v>
       </c>
       <c r="G127" t="n">
+        <v>0.6053066666666669</v>
+      </c>
+      <c r="H127" t="n">
         <v>0.6056349999999996</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,24 +5281,21 @@
         <v>4625.5779</v>
       </c>
       <c r="G128" t="n">
+        <v>0.6046466666666669</v>
+      </c>
+      <c r="H128" t="n">
         <v>0.6056099999999996</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5299,24 +5319,21 @@
         <v>749467.118</v>
       </c>
       <c r="G129" t="n">
+        <v>0.6042133333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>0.6055849999999996</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,24 +5357,21 @@
         <v>4570.1189</v>
       </c>
       <c r="G130" t="n">
+        <v>0.6042466666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>0.6056533333333329</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5381,24 +5395,21 @@
         <v>682359.8053</v>
       </c>
       <c r="G131" t="n">
+        <v>0.6039466666666669</v>
+      </c>
+      <c r="H131" t="n">
         <v>0.6056449999999995</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,24 +5433,21 @@
         <v>24636.8942</v>
       </c>
       <c r="G132" t="n">
+        <v>0.6032866666666669</v>
+      </c>
+      <c r="H132" t="n">
         <v>0.6055749999999995</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5463,26 +5471,21 @@
         <v>1334988.9374</v>
       </c>
       <c r="G133" t="n">
+        <v>0.6030133333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>0.6055449999999994</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.6001</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,24 +5509,21 @@
         <v>874.0118</v>
       </c>
       <c r="G134" t="n">
+        <v>0.6031733333333336</v>
+      </c>
+      <c r="H134" t="n">
         <v>0.605596666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5547,26 +5547,21 @@
         <v>843288.3522</v>
       </c>
       <c r="G135" t="n">
+        <v>0.6029533333333336</v>
+      </c>
+      <c r="H135" t="n">
         <v>0.6056566666666662</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,24 +5585,21 @@
         <v>1767180.2997</v>
       </c>
       <c r="G136" t="n">
+        <v>0.6034066666666669</v>
+      </c>
+      <c r="H136" t="n">
         <v>0.6057066666666662</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5631,24 +5623,21 @@
         <v>2092008.8831</v>
       </c>
       <c r="G137" t="n">
+        <v>0.6034266666666669</v>
+      </c>
+      <c r="H137" t="n">
         <v>0.6057433333333329</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,24 +5661,21 @@
         <v>981330.2635</v>
       </c>
       <c r="G138" t="n">
+        <v>0.6029800000000002</v>
+      </c>
+      <c r="H138" t="n">
         <v>0.6056833333333329</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5713,24 +5699,21 @@
         <v>949.6057</v>
       </c>
       <c r="G139" t="n">
+        <v>0.6035666666666669</v>
+      </c>
+      <c r="H139" t="n">
         <v>0.6058066666666662</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5754,24 +5737,21 @@
         <v>17000</v>
       </c>
       <c r="G140" t="n">
+        <v>0.6035333333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>0.6057833333333329</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5795,24 +5775,21 @@
         <v>1690856.8146</v>
       </c>
       <c r="G141" t="n">
+        <v>0.6033266666666669</v>
+      </c>
+      <c r="H141" t="n">
         <v>0.6057683333333329</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,24 +5813,21 @@
         <v>1810761.8624</v>
       </c>
       <c r="G142" t="n">
+        <v>0.6030266666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>0.6056016666666663</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5877,24 +5851,21 @@
         <v>884.1248000000001</v>
       </c>
       <c r="G143" t="n">
+        <v>0.6035133333333336</v>
+      </c>
+      <c r="H143" t="n">
         <v>0.605538333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,24 +5889,21 @@
         <v>1308307.835</v>
       </c>
       <c r="G144" t="n">
+        <v>0.6039533333333336</v>
+      </c>
+      <c r="H144" t="n">
         <v>0.6056266666666662</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,24 +5927,21 @@
         <v>473757.9768</v>
       </c>
       <c r="G145" t="n">
+        <v>0.6039533333333336</v>
+      </c>
+      <c r="H145" t="n">
         <v>0.6055649999999996</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,24 +5965,21 @@
         <v>1087413.1185</v>
       </c>
       <c r="G146" t="n">
+        <v>0.6044466666666669</v>
+      </c>
+      <c r="H146" t="n">
         <v>0.6056099999999994</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,24 +6003,21 @@
         <v>857337.9578</v>
       </c>
       <c r="G147" t="n">
+        <v>0.604986666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>0.6057949999999994</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,24 +6041,21 @@
         <v>982027.7688</v>
       </c>
       <c r="G148" t="n">
+        <v>0.6055200000000004</v>
+      </c>
+      <c r="H148" t="n">
         <v>0.6060333333333328</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6123,24 +6079,21 @@
         <v>731688.5696</v>
       </c>
       <c r="G149" t="n">
+        <v>0.6056133333333338</v>
+      </c>
+      <c r="H149" t="n">
         <v>0.6059966666666662</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,24 +6117,21 @@
         <v>1142886.6734</v>
       </c>
       <c r="G150" t="n">
+        <v>0.6059600000000003</v>
+      </c>
+      <c r="H150" t="n">
         <v>0.6061683333333329</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6205,24 +6155,21 @@
         <v>1598241.1297</v>
       </c>
       <c r="G151" t="n">
+        <v>0.6060000000000003</v>
+      </c>
+      <c r="H151" t="n">
         <v>0.6062583333333329</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,24 +6193,21 @@
         <v>252259.6444</v>
       </c>
       <c r="G152" t="n">
+        <v>0.6067066666666671</v>
+      </c>
+      <c r="H152" t="n">
         <v>0.6063166666666663</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6287,24 +6231,21 @@
         <v>1421963.3502</v>
       </c>
       <c r="G153" t="n">
+        <v>0.6076733333333337</v>
+      </c>
+      <c r="H153" t="n">
         <v>0.6065499999999997</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,24 +6269,21 @@
         <v>195526.7092</v>
       </c>
       <c r="G154" t="n">
+        <v>0.6081466666666669</v>
+      </c>
+      <c r="H154" t="n">
         <v>0.6066916666666663</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6369,24 +6307,21 @@
         <v>783001.1219</v>
       </c>
       <c r="G155" t="n">
+        <v>0.6091600000000004</v>
+      </c>
+      <c r="H155" t="n">
         <v>0.6067649999999997</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6410,24 +6345,21 @@
         <v>447237.9204</v>
       </c>
       <c r="G156" t="n">
+        <v>0.6099333333333337</v>
+      </c>
+      <c r="H156" t="n">
         <v>0.6068566666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,24 +6383,21 @@
         <v>1597668.1743</v>
       </c>
       <c r="G157" t="n">
+        <v>0.6109000000000003</v>
+      </c>
+      <c r="H157" t="n">
         <v>0.6069599999999997</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6492,24 +6421,21 @@
         <v>6843141.469112077</v>
       </c>
       <c r="G158" t="n">
+        <v>0.6137400000000003</v>
+      </c>
+      <c r="H158" t="n">
         <v>0.6076083333333331</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6533,24 +6459,21 @@
         <v>2631489.782397303</v>
       </c>
       <c r="G159" t="n">
+        <v>0.6159533333333337</v>
+      </c>
+      <c r="H159" t="n">
         <v>0.6080966666666664</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,25 +6497,22 @@
         <v>27927.8029</v>
       </c>
       <c r="G160" t="n">
+        <v>0.618126666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>0.6085799999999998</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.5986</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1.064161376545272</v>
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6615,18 +6535,21 @@
         <v>1704076.3806</v>
       </c>
       <c r="G161" t="n">
+        <v>0.6202600000000004</v>
+      </c>
+      <c r="H161" t="n">
         <v>0.6090616666666665</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,18 +6573,21 @@
         <v>50000</v>
       </c>
       <c r="G162" t="n">
+        <v>0.6214800000000004</v>
+      </c>
+      <c r="H162" t="n">
         <v>0.6093449999999998</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6685,18 +6611,401 @@
         <v>1472588.5887</v>
       </c>
       <c r="G163" t="n">
+        <v>0.6227533333333337</v>
+      </c>
+      <c r="H163" t="n">
         <v>0.6096349999999998</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="F164" t="n">
+        <v>858.3902</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.6248133333333337</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.6102416666666666</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="F165" t="n">
+        <v>886.8184</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.6268400000000003</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.6107566666666665</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1226123.061</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.6284533333333335</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.6111066666666665</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1448643.2394</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.6297200000000003</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.6116266666666664</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1508622.641</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.6307133333333337</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.6119549999999998</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1380514.6556</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.6317800000000003</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.6122899999999998</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1442220.7378</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.6331533333333337</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.6127049999999998</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F171" t="n">
+        <v>564533.1161</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.6334866666666669</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.6130616666666665</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="F172" t="n">
+        <v>297651.5375</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.6335800000000003</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.6132033333333331</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1098782.8234</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.6315800000000001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.6133699999999997</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6018</v>
+        <v>0.5965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6028</v>
+        <v>0.5965</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6028</v>
+        <v>0.5965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6018</v>
+        <v>0.5965</v>
       </c>
       <c r="F2" t="n">
-        <v>5204.7347</v>
+        <v>638513.4954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5956666666666665</v>
+        <v>4271489.448199998</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5965133333333341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5956</v>
+        <v>0.5999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5956</v>
+        <v>0.5999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5956</v>
+        <v>0.5999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5956</v>
+        <v>0.5999</v>
       </c>
       <c r="F3" t="n">
-        <v>1382632.1318</v>
+        <v>1353012.5004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5958266666666664</v>
+        <v>5624501.948599998</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5963900000000008</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,832 +503,771 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5945</v>
+        <v>0.6012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5945</v>
+        <v>0.6012</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5945</v>
+        <v>0.6012</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5945</v>
+        <v>0.6012</v>
       </c>
       <c r="F4" t="n">
-        <v>1558610.7223</v>
+        <v>741210.028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5959133333333332</v>
+        <v>6365711.976599998</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5962500000000007</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5956</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1401808.7099</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4963903.266699998</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2877986.3401</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4963903.266699998</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1560116.4089</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6524019.675599998</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F8" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6124019.675599998</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F9" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6124019.675599998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F10" t="n">
+        <v>394113.2594</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6124019.675599998</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F11" t="n">
+        <v>926418.3773000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7050438.052899998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6850438.052899998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1245269.9125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8095707.965399997</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="F14" t="n">
+        <v>552946.9799</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7542760.985499998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1587990.1228</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9130751.108299997</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1067798.7773</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5963599999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5962516666666673</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5945</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="F16" t="n">
+        <v>936545.3644</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10067296.4727</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>437270.7523</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5967466666666664</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5963666666666673</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="F7" t="n">
-        <v>854.6015</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.5973399999999996</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.596523333333334</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9867296.472699996</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9867296.472699996</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16879.2245</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9867296.472699996</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2140218.0927</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12007514.5654</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="F21" t="n">
+        <v>506291.7849</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11501222.7805</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11301222.7805</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3357727.382</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11301222.7805</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6019</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.6019</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1391424.4827</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.597953333333333</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5966800000000007</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2104150.141</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13405372.9215</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1712162.3563</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5985666666666664</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5968350000000007</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6027</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6027</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1426853.4357</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5990466666666664</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5969950000000007</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="F11" t="n">
-        <v>270217.3505</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.5995733333333332</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.597138333333334</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="F12" t="n">
-        <v>210903.2514</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.6000666666666665</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5971983333333341</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F13" t="n">
-        <v>849.9431</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6005333333333331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.5972116666666673</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1097024.4537</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.6006133333333331</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5973500000000006</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2735.7311</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.601053333333333</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.5974266666666673</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F16" t="n">
-        <v>205309.5122</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.6013599999999997</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.597553333333334</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F17" t="n">
-        <v>209351.0502</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.601373333333333</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5977200000000008</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F18" t="n">
-        <v>200957.7755</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.6018666666666663</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.5977266666666675</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1246615.0795</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.6023199999999996</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5977350000000008</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1863864.1937</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.6024599999999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5978583333333342</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1269721.6185</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.6023933333333331</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5978633333333341</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1969569.7056</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.6021266666666665</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5979316666666674</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6032999999999999</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6032999999999999</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3728547.4477</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.6021866666666665</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5980133333333341</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.604</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="F24" t="n">
-        <v>539648.4659</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.6022533333333333</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.5981833333333341</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1352,36 +1276,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.604</v>
+        <v>0.5949</v>
       </c>
       <c r="C25" t="n">
-        <v>0.604</v>
+        <v>0.5949</v>
       </c>
       <c r="D25" t="n">
-        <v>0.604</v>
+        <v>0.5949</v>
       </c>
       <c r="E25" t="n">
-        <v>0.604</v>
+        <v>0.5949</v>
       </c>
       <c r="F25" t="n">
-        <v>855.6217</v>
+        <v>2064543.1308</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6023399999999999</v>
+        <v>11340829.7907</v>
       </c>
       <c r="H25" t="n">
-        <v>0.598288333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1390,36 +1311,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5955</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5955</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5955</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5955</v>
       </c>
       <c r="F26" t="n">
-        <v>71452.5523</v>
+        <v>1995671.2962</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6023733333333331</v>
+        <v>13336501.0869</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5982950000000006</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,36 +1346,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6002</v>
+        <v>0.596</v>
       </c>
       <c r="C27" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="D27" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6002</v>
+        <v>0.596</v>
       </c>
       <c r="F27" t="n">
-        <v>1537011.6379</v>
+        <v>483863.2636</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6024466666666665</v>
+        <v>13820364.3505</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5984366666666673</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,36 +1381,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.604</v>
+        <v>0.6018</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6</v>
+        <v>0.6018</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6112</v>
+        <v>0.6018</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6</v>
+        <v>0.6018</v>
       </c>
       <c r="F28" t="n">
-        <v>119313.2727</v>
+        <v>854.6952</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6022466666666664</v>
+        <v>13821219.0457</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5984766666666672</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1504,36 +1416,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.5964</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6071</v>
+        <v>0.5964</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6071</v>
+        <v>0.5964</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.5964</v>
       </c>
       <c r="F29" t="n">
-        <v>1505126.8006</v>
+        <v>1130707.1425</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6025199999999997</v>
+        <v>12690511.9032</v>
       </c>
       <c r="H29" t="n">
-        <v>0.598608333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,36 +1451,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6077</v>
+        <v>0.5984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6095</v>
+        <v>0.5984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6095</v>
+        <v>0.5984</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6077</v>
+        <v>0.5984</v>
       </c>
       <c r="F30" t="n">
-        <v>44628.8293</v>
+        <v>1399980.303</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6029533333333331</v>
+        <v>14090492.2062</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5987266666666672</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,36 +1486,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6</v>
+        <v>0.6018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6</v>
+        <v>0.6028</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6</v>
+        <v>0.6028</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6</v>
+        <v>0.6018</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>5204.7347</v>
       </c>
       <c r="G31" t="n">
-        <v>0.602753333333333</v>
+        <v>14095696.9409</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5987750000000005</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1618,36 +1521,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6107</v>
+        <v>0.5956</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6107</v>
+        <v>0.5956</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6107</v>
+        <v>0.5956</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6107</v>
+        <v>0.5956</v>
       </c>
       <c r="F32" t="n">
-        <v>846.8079</v>
+        <v>1382632.1318</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6032666666666664</v>
+        <v>12713064.8091</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5990666666666672</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,36 +1556,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6</v>
+        <v>0.5945</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6108</v>
+        <v>0.5945</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6108</v>
+        <v>0.5945</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6</v>
+        <v>0.5945</v>
       </c>
       <c r="F33" t="n">
-        <v>5041.0296</v>
+        <v>1558610.7223</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6037866666666664</v>
+        <v>11154454.0868</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5993050000000005</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1694,36 +1591,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6008</v>
+        <v>0.5999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6108</v>
+        <v>0.5999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6108</v>
+        <v>0.5999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6</v>
+        <v>0.5999</v>
       </c>
       <c r="F34" t="n">
-        <v>1865841.6955</v>
+        <v>1067798.7773</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6044199999999996</v>
+        <v>12222252.8641</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5994866666666672</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,24 +1638,21 @@
         <v>0.6</v>
       </c>
       <c r="F35" t="n">
-        <v>834</v>
+        <v>437270.7523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6042866666666663</v>
+        <v>12659523.6164</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5994666666666671</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,36 +1661,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="F36" t="n">
-        <v>821.1061999999999</v>
+        <v>854.6015</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6050733333333329</v>
+        <v>12660378.2179</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5997600000000004</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,36 +1696,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6039</v>
+        <v>0.6019</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6019</v>
       </c>
       <c r="F37" t="n">
-        <v>475664.3388</v>
+        <v>1391424.4827</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6058999999999996</v>
+        <v>12660378.2179</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6000533333333337</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,36 +1731,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5984</v>
+        <v>0.6024</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5984</v>
+        <v>0.6024</v>
       </c>
       <c r="F38" t="n">
-        <v>432987.4372</v>
+        <v>1712162.3563</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6063999999999995</v>
+        <v>12660378.2179</v>
       </c>
       <c r="H38" t="n">
-        <v>0.600301666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,36 +1766,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6106</v>
+        <v>0.6024</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6106</v>
+        <v>0.6027</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6106</v>
+        <v>0.6027</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6106</v>
+        <v>0.6024</v>
       </c>
       <c r="F39" t="n">
-        <v>471793.6117</v>
+        <v>1426853.4357</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6068799999999995</v>
+        <v>14087231.6536</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6005900000000003</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1922,36 +1801,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="F40" t="n">
-        <v>52239.2805</v>
+        <v>270217.3505</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6064999999999995</v>
+        <v>14357449.0041</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6006733333333336</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,36 +1836,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6108</v>
+        <v>0.6029</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6108</v>
+        <v>0.6029</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6108</v>
+        <v>0.6029</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6108</v>
+        <v>0.6029</v>
       </c>
       <c r="F41" t="n">
-        <v>845.7286</v>
+        <v>210903.2514</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6069999999999995</v>
+        <v>14568352.2555</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6009650000000003</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2001,33 +1874,30 @@
         <v>0.603</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="E42" t="n">
         <v>0.603</v>
       </c>
       <c r="F42" t="n">
-        <v>1926114.2175</v>
+        <v>849.9431</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6074533333333328</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6011150000000003</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,36 +1906,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6048</v>
+        <v>0.603</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6048</v>
+        <v>0.603</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6048</v>
+        <v>0.603</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6048</v>
+        <v>0.603</v>
       </c>
       <c r="F43" t="n">
-        <v>450812.675</v>
+        <v>1097024.4537</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6077733333333328</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6013083333333336</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,36 +1941,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="F44" t="n">
-        <v>855.2603</v>
+        <v>2735.7311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6080199999999996</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6015666666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,36 +1976,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6098</v>
+        <v>0.603</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6098</v>
+        <v>0.603</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6098</v>
+        <v>0.603</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6098</v>
+        <v>0.603</v>
       </c>
       <c r="F45" t="n">
-        <v>1691158.6939</v>
+        <v>205309.5122</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6080399999999995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6018200000000001</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2150,36 +2011,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6108</v>
+        <v>0.603</v>
       </c>
       <c r="F46" t="n">
-        <v>859.5497</v>
+        <v>209351.0502</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6087599999999995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6020483333333335</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2188,36 +2046,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6075</v>
+        <v>0.603</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6075</v>
+        <v>0.603</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6075</v>
+        <v>0.603</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6075</v>
+        <v>0.603</v>
       </c>
       <c r="F47" t="n">
-        <v>1973509.4727</v>
+        <v>200957.7755</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6085466666666661</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6022133333333335</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,36 +2081,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6108</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6108</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6108</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6108</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>825.1790999999999</v>
+        <v>1246615.0795</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6085466666666661</v>
+        <v>13322587.1191</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6025066666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,36 +2116,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6095</v>
+        <v>0.602</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6095</v>
+        <v>0.602</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6095</v>
+        <v>0.602</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6095</v>
+        <v>0.602</v>
       </c>
       <c r="F49" t="n">
-        <v>1469388.9861</v>
+        <v>1863864.1937</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6084599999999996</v>
+        <v>15186451.3128</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6027783333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,36 +2151,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="F50" t="n">
-        <v>827.5398</v>
+        <v>1269721.6185</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6091799999999996</v>
+        <v>13916729.6943</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6030716666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,36 +2186,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6108</v>
+        <v>0.5984</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6108</v>
+        <v>0.5984</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6108</v>
+        <v>0.5984</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6108</v>
+        <v>0.5984</v>
       </c>
       <c r="F51" t="n">
-        <v>3299.3318</v>
+        <v>1969569.7056</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6091799999999996</v>
+        <v>11947159.9887</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6033483333333332</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2378,36 +2221,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6024</v>
+        <v>0.603</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6024</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6024</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6024</v>
+        <v>0.603</v>
       </c>
       <c r="F52" t="n">
-        <v>1682669.5467</v>
+        <v>3728547.4477</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6086199999999996</v>
+        <v>15675707.4364</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6034966666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,36 +2256,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6039</v>
+        <v>0.604</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6039</v>
+        <v>0.6034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6039</v>
+        <v>0.604</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6039</v>
+        <v>0.6034</v>
       </c>
       <c r="F53" t="n">
-        <v>552909.3443</v>
+        <v>539648.4659</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6081599999999996</v>
+        <v>16215355.9023</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6036749999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2454,36 +2291,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="F54" t="n">
-        <v>4110.9159</v>
+        <v>855.6217</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6073399999999995</v>
+        <v>16216211.524</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6037599999999999</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2492,36 +2326,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6017</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6017</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6017</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6017</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>2059075.3008</v>
+        <v>71452.5523</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6075666666666663</v>
+        <v>16144758.9717</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6038633333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,36 +2361,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.601</v>
+        <v>0.6002</v>
       </c>
       <c r="C56" t="n">
-        <v>0.601</v>
+        <v>0.604</v>
       </c>
       <c r="D56" t="n">
-        <v>0.601</v>
+        <v>0.604</v>
       </c>
       <c r="E56" t="n">
-        <v>0.601</v>
+        <v>0.6002</v>
       </c>
       <c r="F56" t="n">
-        <v>512651.227</v>
+        <v>1537011.6379</v>
       </c>
       <c r="G56" t="n">
-        <v>0.606913333333333</v>
+        <v>17681770.6096</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6039649999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,36 +2396,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6004</v>
+        <v>0.604</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6004</v>
+        <v>0.6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6004</v>
+        <v>0.6112</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6004</v>
+        <v>0.6</v>
       </c>
       <c r="F57" t="n">
-        <v>1450854.3884</v>
+        <v>119313.2727</v>
       </c>
       <c r="G57" t="n">
-        <v>0.6062199999999998</v>
+        <v>17562457.3369</v>
       </c>
       <c r="H57" t="n">
-        <v>0.6040466666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2606,36 +2431,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6071</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6071</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>374750.5559</v>
+        <v>1505126.8006</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6057866666666665</v>
+        <v>19067584.1375</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6040849999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2644,36 +2466,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6077</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6077</v>
       </c>
       <c r="F59" t="n">
-        <v>1310516.5957</v>
+        <v>44628.8293</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6049533333333331</v>
+        <v>19112212.9668</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6040266666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,36 +2501,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5936</v>
+        <v>0.6</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5936</v>
+        <v>0.6</v>
       </c>
       <c r="F60" t="n">
-        <v>194234.9154</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6041866666666665</v>
+        <v>19111212.9668</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6040583333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,36 +2536,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5964</v>
+        <v>0.6107</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5964</v>
+        <v>0.6107</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5964</v>
+        <v>0.6107</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5964</v>
+        <v>0.6107</v>
       </c>
       <c r="F61" t="n">
-        <v>439341.4211</v>
+        <v>846.8079</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6032266666666666</v>
+        <v>19112059.7747</v>
       </c>
       <c r="H61" t="n">
-        <v>0.604025</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,36 +2571,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F62" t="n">
-        <v>874.6102</v>
+        <v>5041.0296</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6026133333333333</v>
+        <v>19117100.8043</v>
       </c>
       <c r="H62" t="n">
-        <v>0.60395</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2796,36 +2606,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6008</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5989</v>
+        <v>0.6108</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5989</v>
+        <v>0.6108</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F63" t="n">
-        <v>28582.9756</v>
+        <v>1865841.6955</v>
       </c>
       <c r="G63" t="n">
-        <v>0.60182</v>
+        <v>19117100.8043</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6040050000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,36 +2641,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5986</v>
+        <v>0.6</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5986</v>
+        <v>0.6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5986</v>
+        <v>0.6</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5986</v>
+        <v>0.6</v>
       </c>
       <c r="F64" t="n">
-        <v>770962.5823</v>
+        <v>834</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6010933333333333</v>
+        <v>19116266.8043</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6040733333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,36 +2676,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5967</v>
+        <v>0.6108</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5967</v>
+        <v>0.6108</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5967</v>
+        <v>0.6108</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5967</v>
+        <v>0.6108</v>
       </c>
       <c r="F65" t="n">
-        <v>923775.1647</v>
+        <v>821.1061999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6001533333333333</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H65" t="n">
-        <v>0.60402</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,36 +2711,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5956</v>
+        <v>0.6039</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5955</v>
+        <v>0.6108</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5956</v>
+        <v>0.6108</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5955</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>506752.1151</v>
+        <v>475664.3388</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5991333333333333</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H66" t="n">
-        <v>0.603945</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,36 +2746,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5989</v>
+        <v>0.5984</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5989</v>
+        <v>0.6108</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5989</v>
+        <v>0.6108</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5989</v>
+        <v>0.5984</v>
       </c>
       <c r="F67" t="n">
-        <v>1306050.9242</v>
+        <v>432987.4372</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5989000000000001</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6038866666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,36 +2781,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6016</v>
+        <v>0.6106</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6016</v>
+        <v>0.6106</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6016</v>
+        <v>0.6106</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6016</v>
+        <v>0.6106</v>
       </c>
       <c r="F68" t="n">
-        <v>1352385.7244</v>
+        <v>471793.6117</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5987466666666668</v>
+        <v>18645294.2988</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6038733333333332</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,36 +2816,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6017</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1374844.9308</v>
+        <v>52239.2805</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5989733333333334</v>
+        <v>18593055.0183</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6038616666666665</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,36 +2851,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="F70" t="n">
-        <v>1854623.5131</v>
+        <v>845.7286</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5990800000000002</v>
+        <v>18593900.7469</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6038716666666665</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,36 +2886,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6011</v>
+        <v>0.603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6011</v>
+        <v>0.6108</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6011</v>
+        <v>0.6108</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6011</v>
+        <v>0.603</v>
       </c>
       <c r="F71" t="n">
-        <v>2054074.9316</v>
+        <v>1926114.2175</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5990866666666669</v>
+        <v>18593900.7469</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6038433333333332</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3138,36 +2921,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6048</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6048</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6048</v>
       </c>
       <c r="F72" t="n">
-        <v>849.3155</v>
+        <v>450812.675</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5993466666666669</v>
+        <v>18143088.0719</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6038666666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,36 +2956,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6032</v>
+        <v>0.6108</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6032</v>
+        <v>0.6108</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6032</v>
+        <v>0.6108</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6032</v>
+        <v>0.6108</v>
       </c>
       <c r="F73" t="n">
-        <v>915636.2868</v>
+        <v>855.2603</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5996733333333335</v>
+        <v>18143943.33219999</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6038699999999999</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,36 +2991,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6098</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6098</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6098</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6098</v>
       </c>
       <c r="F74" t="n">
-        <v>851.7437</v>
+        <v>1691158.6939</v>
       </c>
       <c r="G74" t="n">
-        <v>0.6000733333333336</v>
+        <v>16452784.63829999</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6038916666666665</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,36 +3026,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="F75" t="n">
-        <v>1215334.1918</v>
+        <v>859.5497</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6002200000000002</v>
+        <v>16453644.18799999</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6038499999999998</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,36 +3061,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6075</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6075</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6075</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6075</v>
       </c>
       <c r="F76" t="n">
-        <v>856.4077</v>
+        <v>1973509.4727</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6007466666666669</v>
+        <v>14480134.71529999</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6038716666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,36 +3096,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6017</v>
+        <v>0.6108</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6017</v>
+        <v>0.6108</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6017</v>
+        <v>0.6108</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6017</v>
+        <v>0.6108</v>
       </c>
       <c r="F77" t="n">
-        <v>1275673.6399</v>
+        <v>825.1790999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6009733333333335</v>
+        <v>14480959.89439999</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6038499999999998</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3366,36 +3131,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6095</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6095</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6095</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6095</v>
       </c>
       <c r="F78" t="n">
-        <v>863.3199</v>
+        <v>1469388.9861</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6013333333333334</v>
+        <v>13011570.90829999</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6038716666666665</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,36 +3166,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="F79" t="n">
-        <v>1491235.0493</v>
+        <v>827.5398</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6014266666666668</v>
+        <v>13012398.44809999</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6038499999999998</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3442,36 +3201,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6016</v>
+        <v>0.6108</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6016</v>
+        <v>0.6108</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6016</v>
+        <v>0.6108</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6016</v>
+        <v>0.6108</v>
       </c>
       <c r="F80" t="n">
-        <v>916573.8403</v>
+        <v>3299.3318</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6017533333333334</v>
+        <v>13012398.44809999</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6038433333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3480,36 +3236,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="F81" t="n">
-        <v>828.7926</v>
+        <v>1682669.5467</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6023400000000001</v>
+        <v>11329728.90139999</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6039316666666665</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,36 +3271,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6</v>
+        <v>0.6039</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6112</v>
+        <v>0.6039</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6112</v>
+        <v>0.6039</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6</v>
+        <v>0.6039</v>
       </c>
       <c r="F82" t="n">
-        <v>321015.3658</v>
+        <v>552909.3443</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6031600000000001</v>
+        <v>11882638.24569999</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6041449999999998</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,36 +3306,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6024</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6112</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6112</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6024</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1042741.2895</v>
+        <v>4110.9159</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6038000000000001</v>
+        <v>11878527.32979999</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6042766666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3594,36 +3341,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6015</v>
+        <v>0.6017</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6015</v>
+        <v>0.6017</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6015</v>
+        <v>0.6017</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6015</v>
+        <v>0.6017</v>
       </c>
       <c r="F84" t="n">
-        <v>1688595.4533</v>
+        <v>2059075.3008</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6037866666666668</v>
+        <v>13937602.63059999</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6042449999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,36 +3376,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5989</v>
+        <v>0.601</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6111</v>
+        <v>0.601</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6111</v>
+        <v>0.601</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5989</v>
+        <v>0.601</v>
       </c>
       <c r="F85" t="n">
-        <v>1294122.4343</v>
+        <v>512651.227</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6043066666666668</v>
+        <v>13424951.40359999</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6043633333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,36 +3411,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6004</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6004</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6004</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6004</v>
       </c>
       <c r="F86" t="n">
-        <v>1560208.9446</v>
+        <v>1450854.3884</v>
       </c>
       <c r="G86" t="n">
-        <v>0.6045866666666667</v>
+        <v>11974097.01519999</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6043966666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,36 +3446,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5971</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5971</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5971</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5971</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>2059425.7</v>
+        <v>374750.5559</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6041066666666667</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6042816666666666</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3746,36 +3481,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5952</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5951</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5952</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5951</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>1807248.2876</v>
+        <v>1310516.5957</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6035666666666668</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6042</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3784,36 +3516,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.611</v>
+        <v>0.5936</v>
       </c>
       <c r="C89" t="n">
-        <v>0.611</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.611</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.611</v>
+        <v>0.5936</v>
       </c>
       <c r="F89" t="n">
-        <v>1337095.2472</v>
+        <v>194234.9154</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6040133333333334</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6042649999999998</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3822,36 +3551,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.599</v>
+        <v>0.5964</v>
       </c>
       <c r="C90" t="n">
-        <v>0.599</v>
+        <v>0.5964</v>
       </c>
       <c r="D90" t="n">
-        <v>0.599</v>
+        <v>0.5964</v>
       </c>
       <c r="E90" t="n">
-        <v>0.599</v>
+        <v>0.5964</v>
       </c>
       <c r="F90" t="n">
-        <v>2082418.6352</v>
+        <v>439341.4211</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6039133333333334</v>
+        <v>11160005.03819999</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6040899999999998</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,36 +3586,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6025</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6025</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6025</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6025</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1706968.8819</v>
+        <v>874.6102</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6037933333333334</v>
+        <v>11160879.64839999</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6041316666666664</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,36 +3621,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.611</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.611</v>
+        <v>0.5989</v>
       </c>
       <c r="D92" t="n">
-        <v>0.611</v>
+        <v>0.5989</v>
       </c>
       <c r="E92" t="n">
-        <v>0.611</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>16366.61211129296</v>
+        <v>28582.9756</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6044133333333335</v>
+        <v>11189462.62399999</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6041366666666664</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3936,36 +3656,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6012</v>
+        <v>0.5986</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6012</v>
+        <v>0.5986</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6012</v>
+        <v>0.5986</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6012</v>
+        <v>0.5986</v>
       </c>
       <c r="F93" t="n">
-        <v>1973628.1758</v>
+        <v>770962.5823</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6042066666666668</v>
+        <v>10418500.04169999</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6039766666666664</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,36 +3691,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.606</v>
+        <v>0.5967</v>
       </c>
       <c r="C94" t="n">
-        <v>0.606</v>
+        <v>0.5967</v>
       </c>
       <c r="D94" t="n">
-        <v>0.606</v>
+        <v>0.5967</v>
       </c>
       <c r="E94" t="n">
-        <v>0.606</v>
+        <v>0.5967</v>
       </c>
       <c r="F94" t="n">
-        <v>1828090.5936</v>
+        <v>923775.1647</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6046066666666668</v>
+        <v>9494724.876999995</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6038966666666664</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,36 +3726,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.611</v>
+        <v>0.5956</v>
       </c>
       <c r="C95" t="n">
-        <v>0.611</v>
+        <v>0.5955</v>
       </c>
       <c r="D95" t="n">
-        <v>0.611</v>
+        <v>0.5956</v>
       </c>
       <c r="E95" t="n">
-        <v>0.611</v>
+        <v>0.5955</v>
       </c>
       <c r="F95" t="n">
-        <v>191800.081588707</v>
+        <v>506752.1151</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6052333333333336</v>
+        <v>8987972.761899995</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6040799999999997</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,36 +3761,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6111</v>
+        <v>0.5989</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6095</v>
+        <v>0.5989</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6111</v>
+        <v>0.5989</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6095</v>
+        <v>0.5989</v>
       </c>
       <c r="F96" t="n">
-        <v>2062212.6695</v>
+        <v>1306050.9242</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6055800000000002</v>
+        <v>10294023.68609999</v>
       </c>
       <c r="H96" t="n">
-        <v>0.604058333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,36 +3796,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6095</v>
+        <v>0.6016</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6095</v>
+        <v>0.6016</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6095</v>
+        <v>0.6016</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6095</v>
+        <v>0.6016</v>
       </c>
       <c r="F97" t="n">
-        <v>886034.3339</v>
+        <v>1352385.7244</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6054666666666669</v>
+        <v>11646409.4105</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6040366666666663</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,36 +3831,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.611</v>
+        <v>0.6017</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6111</v>
+        <v>0.6017</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6111</v>
+        <v>0.6017</v>
       </c>
       <c r="E98" t="n">
-        <v>0.611</v>
+        <v>0.6017</v>
       </c>
       <c r="F98" t="n">
-        <v>484836.8578</v>
+        <v>1374844.9308</v>
       </c>
       <c r="G98" t="n">
-        <v>0.6054600000000003</v>
+        <v>13021254.3413</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6040416666666665</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,36 +3866,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6107</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6107</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6107</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6107</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>1802128.2172</v>
+        <v>1854623.5131</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6060733333333336</v>
+        <v>14875877.8544</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6040433333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,36 +3901,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.611</v>
+        <v>0.6011</v>
       </c>
       <c r="C100" t="n">
-        <v>0.611</v>
+        <v>0.6011</v>
       </c>
       <c r="D100" t="n">
-        <v>0.611</v>
+        <v>0.6011</v>
       </c>
       <c r="E100" t="n">
-        <v>0.611</v>
+        <v>0.6011</v>
       </c>
       <c r="F100" t="n">
-        <v>1406373.134</v>
+        <v>2054074.9316</v>
       </c>
       <c r="G100" t="n">
-        <v>0.606066666666667</v>
+        <v>12821802.9228</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6042549999999998</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,36 +3936,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>1694.0474</v>
+        <v>849.3155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6064533333333337</v>
+        <v>12822652.2383</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6042599999999998</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,36 +3971,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6107</v>
+        <v>0.6032</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6095</v>
+        <v>0.6032</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6107</v>
+        <v>0.6032</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6095</v>
+        <v>0.6032</v>
       </c>
       <c r="F102" t="n">
-        <v>635987.7192112929</v>
+        <v>915636.2868</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6072800000000005</v>
+        <v>11907015.95149999</v>
       </c>
       <c r="H102" t="n">
-        <v>0.6042383333333331</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,36 +4006,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>847.6165999999999</v>
+        <v>851.7437</v>
       </c>
       <c r="G103" t="n">
-        <v>0.6083466666666671</v>
+        <v>11907867.69519999</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6043433333333331</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,36 +4041,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6005</v>
       </c>
       <c r="F104" t="n">
-        <v>1933787.2826</v>
+        <v>1215334.1918</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6078333333333338</v>
+        <v>10692533.50339999</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6042183333333332</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,36 +4076,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>493881.902</v>
+        <v>856.4077</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6084866666666672</v>
+        <v>10693389.91109999</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6042016666666665</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,36 +4111,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6111</v>
+        <v>0.6017</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6111</v>
+        <v>0.6017</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6111</v>
+        <v>0.6017</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6111</v>
+        <v>0.6017</v>
       </c>
       <c r="F106" t="n">
-        <v>828.4141</v>
+        <v>1275673.6399</v>
       </c>
       <c r="G106" t="n">
-        <v>0.6090600000000005</v>
+        <v>9417716.271199994</v>
       </c>
       <c r="H106" t="n">
-        <v>0.6042066666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,36 +4146,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>1366056.303</v>
+        <v>863.3199</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6084800000000004</v>
+        <v>9418579.591099994</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6041199999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,36 +4181,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F108" t="n">
-        <v>1576697.3514</v>
+        <v>1491235.0493</v>
       </c>
       <c r="G108" t="n">
-        <v>0.6090933333333337</v>
+        <v>7927344.541799994</v>
       </c>
       <c r="H108" t="n">
-        <v>0.6041133333333332</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,36 +4216,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="F109" t="n">
-        <v>1354494.287</v>
+        <v>916573.8403</v>
       </c>
       <c r="G109" t="n">
-        <v>0.6093866666666671</v>
+        <v>8843918.382099994</v>
       </c>
       <c r="H109" t="n">
-        <v>0.6041283333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,36 +4251,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6111</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>830.7834</v>
+        <v>828.7926</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6093933333333337</v>
+        <v>8844747.174699994</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6041333333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,36 +4286,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5986</v>
+        <v>0.6</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5986</v>
+        <v>0.6112</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5986</v>
+        <v>0.6112</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5986</v>
+        <v>0.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1477708.554</v>
+        <v>321015.3658</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6086666666666669</v>
+        <v>9165762.540499995</v>
       </c>
       <c r="H111" t="n">
-        <v>0.60393</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,36 +4321,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6086</v>
+        <v>0.6024</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6086</v>
+        <v>0.6112</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6086</v>
+        <v>0.6112</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6086</v>
+        <v>0.6024</v>
       </c>
       <c r="F112" t="n">
-        <v>739916.3612</v>
+        <v>1042741.2895</v>
       </c>
       <c r="G112" t="n">
-        <v>0.608606666666667</v>
+        <v>9165762.540499995</v>
       </c>
       <c r="H112" t="n">
-        <v>0.6040333333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,36 +4356,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.61</v>
+        <v>0.6015</v>
       </c>
       <c r="C113" t="n">
-        <v>0.61</v>
+        <v>0.6015</v>
       </c>
       <c r="D113" t="n">
-        <v>0.61</v>
+        <v>0.6015</v>
       </c>
       <c r="E113" t="n">
-        <v>0.61</v>
+        <v>0.6015</v>
       </c>
       <c r="F113" t="n">
-        <v>861.17</v>
+        <v>1688595.4533</v>
       </c>
       <c r="G113" t="n">
-        <v>0.6085333333333336</v>
+        <v>7477167.087199994</v>
       </c>
       <c r="H113" t="n">
-        <v>0.6041349999999999</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,36 +4391,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6067</v>
+        <v>0.5989</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6067</v>
+        <v>0.6111</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6067</v>
+        <v>0.6111</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6067</v>
+        <v>0.5989</v>
       </c>
       <c r="F114" t="n">
-        <v>1660292.0985</v>
+        <v>1294122.4343</v>
       </c>
       <c r="G114" t="n">
-        <v>0.608266666666667</v>
+        <v>8771289.521499995</v>
       </c>
       <c r="H114" t="n">
-        <v>0.6042749999999999</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,36 +4426,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6069</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6069</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6069</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6069</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>1174179.5781</v>
+        <v>1560208.9446</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6079933333333335</v>
+        <v>7211080.576899995</v>
       </c>
       <c r="H115" t="n">
-        <v>0.6043616666666666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,36 +4461,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6051</v>
+        <v>0.5971</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6051</v>
+        <v>0.5971</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6051</v>
+        <v>0.5971</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6051</v>
+        <v>0.5971</v>
       </c>
       <c r="F116" t="n">
-        <v>829783.2678</v>
+        <v>2059425.7</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6075933333333335</v>
+        <v>5151654.876899995</v>
       </c>
       <c r="H116" t="n">
-        <v>0.60443</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,36 +4496,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6057</v>
+        <v>0.5952</v>
       </c>
       <c r="C117" t="n">
-        <v>0.61</v>
+        <v>0.5951</v>
       </c>
       <c r="D117" t="n">
-        <v>0.61</v>
+        <v>0.5952</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6057</v>
+        <v>0.5951</v>
       </c>
       <c r="F117" t="n">
-        <v>1581721.0184</v>
+        <v>1807248.2876</v>
       </c>
       <c r="G117" t="n">
-        <v>0.6076266666666668</v>
+        <v>3344406.589299995</v>
       </c>
       <c r="H117" t="n">
-        <v>0.60459</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,36 +4531,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6055</v>
+        <v>0.611</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6055</v>
+        <v>0.611</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6055</v>
+        <v>0.611</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6055</v>
+        <v>0.611</v>
       </c>
       <c r="F118" t="n">
-        <v>1299940.8865</v>
+        <v>1337095.2472</v>
       </c>
       <c r="G118" t="n">
-        <v>0.6072533333333333</v>
+        <v>4681501.836499995</v>
       </c>
       <c r="H118" t="n">
-        <v>0.60471</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,36 +4566,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.605</v>
+        <v>0.599</v>
       </c>
       <c r="C119" t="n">
-        <v>0.605</v>
+        <v>0.599</v>
       </c>
       <c r="D119" t="n">
-        <v>0.605</v>
+        <v>0.599</v>
       </c>
       <c r="E119" t="n">
-        <v>0.605</v>
+        <v>0.599</v>
       </c>
       <c r="F119" t="n">
-        <v>9892.623799999999</v>
+        <v>2082418.6352</v>
       </c>
       <c r="G119" t="n">
-        <v>0.6073666666666668</v>
+        <v>2599083.201299995</v>
       </c>
       <c r="H119" t="n">
-        <v>0.6048216666666665</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,36 +4601,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.605</v>
+        <v>0.6025</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6025</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6025</v>
       </c>
       <c r="E120" t="n">
-        <v>0.605</v>
+        <v>0.6025</v>
       </c>
       <c r="F120" t="n">
-        <v>1750643.7844</v>
+        <v>1706968.8819</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6072733333333334</v>
+        <v>4306052.083199995</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6049733333333331</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,36 +4636,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6005</v>
+        <v>0.611</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6005</v>
+        <v>0.611</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6005</v>
+        <v>0.611</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6005</v>
+        <v>0.611</v>
       </c>
       <c r="F121" t="n">
-        <v>1370618.9662</v>
+        <v>16366.61211129296</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6065666666666668</v>
+        <v>4322418.695311287</v>
       </c>
       <c r="H121" t="n">
-        <v>0.6050416666666664</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,36 +4671,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6036</v>
+        <v>0.6012</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6036</v>
+        <v>0.6012</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6036</v>
+        <v>0.6012</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6036</v>
+        <v>0.6012</v>
       </c>
       <c r="F122" t="n">
-        <v>636272.7458</v>
+        <v>1973628.1758</v>
       </c>
       <c r="G122" t="n">
-        <v>0.6066533333333335</v>
+        <v>2348790.519511287</v>
       </c>
       <c r="H122" t="n">
-        <v>0.6051299999999996</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,36 +4706,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.606</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.606</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.606</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.606</v>
       </c>
       <c r="F123" t="n">
-        <v>4625.5779</v>
+        <v>1828090.5936</v>
       </c>
       <c r="G123" t="n">
-        <v>0.6064533333333334</v>
+        <v>4176881.113111287</v>
       </c>
       <c r="H123" t="n">
-        <v>0.6052716666666663</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,36 +4741,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5986</v>
+        <v>0.611</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5986</v>
+        <v>0.611</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5986</v>
+        <v>0.611</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5986</v>
+        <v>0.611</v>
       </c>
       <c r="F124" t="n">
-        <v>297651.5375</v>
+        <v>191800.081588707</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6056666666666667</v>
+        <v>4368681.194699994</v>
       </c>
       <c r="H124" t="n">
-        <v>0.6052716666666663</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5152,36 +4776,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6007</v>
+        <v>0.6111</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6007</v>
+        <v>0.6095</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6007</v>
+        <v>0.6111</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6007</v>
+        <v>0.6095</v>
       </c>
       <c r="F125" t="n">
-        <v>2052538.9809</v>
+        <v>2062212.6695</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6049733333333334</v>
+        <v>2306468.525199994</v>
       </c>
       <c r="H125" t="n">
-        <v>0.605338333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,36 +4811,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6065</v>
+        <v>0.6095</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6065</v>
+        <v>0.6095</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6065</v>
+        <v>0.6095</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6065</v>
+        <v>0.6095</v>
       </c>
       <c r="F126" t="n">
-        <v>903581.4389</v>
+        <v>886034.3339</v>
       </c>
       <c r="G126" t="n">
-        <v>0.6055</v>
+        <v>2306468.525199994</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6055216666666663</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,36 +4846,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6057</v>
+        <v>0.611</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6057</v>
+        <v>0.6111</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6057</v>
+        <v>0.6111</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6057</v>
+        <v>0.611</v>
       </c>
       <c r="F127" t="n">
-        <v>919107.6576</v>
+        <v>484836.8578</v>
       </c>
       <c r="G127" t="n">
-        <v>0.6053066666666669</v>
+        <v>2791305.382999994</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6056349999999996</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,36 +4881,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6001</v>
+        <v>0.6107</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6001</v>
+        <v>0.6107</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6001</v>
+        <v>0.6107</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6001</v>
+        <v>0.6107</v>
       </c>
       <c r="F128" t="n">
-        <v>4625.5779</v>
+        <v>1802128.2172</v>
       </c>
       <c r="G128" t="n">
-        <v>0.6046466666666669</v>
+        <v>989177.1657999943</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6056099999999996</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,36 +4916,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6002</v>
+        <v>0.611</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6002</v>
+        <v>0.611</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6002</v>
+        <v>0.611</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6002</v>
+        <v>0.611</v>
       </c>
       <c r="F129" t="n">
-        <v>749467.118</v>
+        <v>1406373.134</v>
       </c>
       <c r="G129" t="n">
-        <v>0.6042133333333335</v>
+        <v>2395550.299799995</v>
       </c>
       <c r="H129" t="n">
-        <v>0.6055849999999996</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,36 +4951,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="F130" t="n">
-        <v>4570.1189</v>
+        <v>1694.0474</v>
       </c>
       <c r="G130" t="n">
-        <v>0.6042466666666668</v>
+        <v>2397244.347199995</v>
       </c>
       <c r="H130" t="n">
-        <v>0.6056533333333329</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,36 +4986,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6006</v>
+        <v>0.6107</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6006</v>
+        <v>0.6095</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6006</v>
+        <v>0.6107</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6006</v>
+        <v>0.6095</v>
       </c>
       <c r="F131" t="n">
-        <v>682359.8053</v>
+        <v>635987.7192112929</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6039466666666669</v>
+        <v>1761256.627988702</v>
       </c>
       <c r="H131" t="n">
-        <v>0.6056449999999995</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,36 +5021,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6001</v>
+        <v>0.6111</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6001</v>
+        <v>0.6111</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6001</v>
+        <v>0.6111</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6001</v>
+        <v>0.6111</v>
       </c>
       <c r="F132" t="n">
-        <v>24636.8942</v>
+        <v>847.6165999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6032866666666669</v>
+        <v>1762104.244588702</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6055749999999995</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,36 +5056,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6014</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6014</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6014</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6014</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>1334988.9374</v>
+        <v>1933787.2826</v>
       </c>
       <c r="G133" t="n">
-        <v>0.6030133333333335</v>
+        <v>-171683.0380112983</v>
       </c>
       <c r="H133" t="n">
-        <v>0.6055449999999994</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,36 +5091,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6088</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6088</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6088</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6088</v>
       </c>
       <c r="F134" t="n">
-        <v>874.0118</v>
+        <v>493881.902</v>
       </c>
       <c r="G134" t="n">
-        <v>0.6031733333333336</v>
+        <v>322198.8639887017</v>
       </c>
       <c r="H134" t="n">
-        <v>0.605596666666666</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,36 +5126,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6041</v>
+        <v>0.6111</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6041</v>
+        <v>0.6111</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6041</v>
+        <v>0.6111</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6041</v>
+        <v>0.6111</v>
       </c>
       <c r="F135" t="n">
-        <v>843288.3522</v>
+        <v>828.4141</v>
       </c>
       <c r="G135" t="n">
-        <v>0.6029533333333336</v>
+        <v>323027.2780887017</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6056566666666662</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5570,36 +5161,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6073</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6073</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6073</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6073</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>1767180.2997</v>
+        <v>1366056.303</v>
       </c>
       <c r="G136" t="n">
-        <v>0.6034066666666669</v>
+        <v>-1043029.024911298</v>
       </c>
       <c r="H136" t="n">
-        <v>0.6057066666666662</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,36 +5196,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6039</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6039</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6039</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6039</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>2092008.8831</v>
+        <v>1576697.3514</v>
       </c>
       <c r="G137" t="n">
-        <v>0.6034266666666669</v>
+        <v>533668.3264887016</v>
       </c>
       <c r="H137" t="n">
-        <v>0.6057433333333329</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,36 +5231,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6007</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6007</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6007</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6007</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>981330.2635</v>
+        <v>1354494.287</v>
       </c>
       <c r="G138" t="n">
-        <v>0.6029800000000002</v>
+        <v>533668.3264887016</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6056833333333329</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5684,36 +5266,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="F139" t="n">
-        <v>949.6057</v>
+        <v>830.7834</v>
       </c>
       <c r="G139" t="n">
-        <v>0.6035666666666669</v>
+        <v>534499.1098887016</v>
       </c>
       <c r="H139" t="n">
-        <v>0.6058066666666662</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,36 +5301,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6002</v>
+        <v>0.5986</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6002</v>
+        <v>0.5986</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6002</v>
+        <v>0.5986</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6002</v>
+        <v>0.5986</v>
       </c>
       <c r="F140" t="n">
-        <v>17000</v>
+        <v>1477708.554</v>
       </c>
       <c r="G140" t="n">
-        <v>0.6035333333333335</v>
+        <v>-943209.4441112984</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6057833333333329</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,36 +5336,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6034</v>
+        <v>0.6086</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6034</v>
+        <v>0.6086</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6034</v>
+        <v>0.6086</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6034</v>
+        <v>0.6086</v>
       </c>
       <c r="F141" t="n">
-        <v>1690856.8146</v>
+        <v>739916.3612</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6033266666666669</v>
+        <v>-203293.0829112984</v>
       </c>
       <c r="H141" t="n">
-        <v>0.6057683333333329</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,36 +5371,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6012</v>
+        <v>0.61</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6012</v>
+        <v>0.61</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6012</v>
+        <v>0.61</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6012</v>
+        <v>0.61</v>
       </c>
       <c r="F142" t="n">
-        <v>1810761.8624</v>
+        <v>861.17</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6030266666666668</v>
+        <v>-202431.9129112984</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6056016666666663</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5836,36 +5406,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6067</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6067</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6067</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6067</v>
       </c>
       <c r="F143" t="n">
-        <v>884.1248000000001</v>
+        <v>1660292.0985</v>
       </c>
       <c r="G143" t="n">
-        <v>0.6035133333333336</v>
+        <v>-1862724.011411299</v>
       </c>
       <c r="H143" t="n">
-        <v>0.605538333333333</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,36 +5441,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6068</v>
+        <v>0.6069</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6068</v>
+        <v>0.6069</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6068</v>
+        <v>0.6069</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6068</v>
+        <v>0.6069</v>
       </c>
       <c r="F144" t="n">
-        <v>1308307.835</v>
+        <v>1174179.5781</v>
       </c>
       <c r="G144" t="n">
-        <v>0.6039533333333336</v>
+        <v>-688544.4333112985</v>
       </c>
       <c r="H144" t="n">
-        <v>0.6056266666666662</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,36 +5476,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6051</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6051</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6051</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6051</v>
       </c>
       <c r="F145" t="n">
-        <v>473757.9768</v>
+        <v>829783.2678</v>
       </c>
       <c r="G145" t="n">
-        <v>0.6039533333333336</v>
+        <v>-1518327.701111299</v>
       </c>
       <c r="H145" t="n">
-        <v>0.6055649999999996</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,36 +5511,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.608</v>
+        <v>0.6057</v>
       </c>
       <c r="C146" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="D146" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="E146" t="n">
-        <v>0.608</v>
+        <v>0.6057</v>
       </c>
       <c r="F146" t="n">
-        <v>1087413.1185</v>
+        <v>1581721.0184</v>
       </c>
       <c r="G146" t="n">
-        <v>0.6044466666666669</v>
+        <v>63393.31728870142</v>
       </c>
       <c r="H146" t="n">
-        <v>0.6056099999999994</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5988,36 +5546,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6082</v>
+        <v>0.6055</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6082</v>
+        <v>0.6055</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6082</v>
+        <v>0.6055</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6082</v>
+        <v>0.6055</v>
       </c>
       <c r="F147" t="n">
-        <v>857337.9578</v>
+        <v>1299940.8865</v>
       </c>
       <c r="G147" t="n">
-        <v>0.604986666666667</v>
+        <v>-1236547.569211299</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6057949999999994</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,36 +5581,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="E148" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.605</v>
       </c>
       <c r="F148" t="n">
-        <v>982027.7688</v>
+        <v>9892.623799999999</v>
       </c>
       <c r="G148" t="n">
-        <v>0.6055200000000004</v>
+        <v>-1246440.193011299</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6060333333333328</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,36 +5616,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6088</v>
+        <v>0.605</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6088</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6088</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6088</v>
+        <v>0.605</v>
       </c>
       <c r="F149" t="n">
-        <v>731688.5696</v>
+        <v>1750643.7844</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6056133333333338</v>
+        <v>504203.5913887015</v>
       </c>
       <c r="H149" t="n">
-        <v>0.6059966666666662</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6102,36 +5651,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6093</v>
+        <v>0.6005</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6093</v>
+        <v>0.6005</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6093</v>
+        <v>0.6005</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6093</v>
+        <v>0.6005</v>
       </c>
       <c r="F150" t="n">
-        <v>1142886.6734</v>
+        <v>1370618.9662</v>
       </c>
       <c r="G150" t="n">
-        <v>0.6059600000000003</v>
+        <v>-866415.3748112984</v>
       </c>
       <c r="H150" t="n">
-        <v>0.6061683333333329</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6140,36 +5686,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6079</v>
+        <v>0.6036</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6079</v>
+        <v>0.6036</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6079</v>
+        <v>0.6036</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6079</v>
+        <v>0.6036</v>
       </c>
       <c r="F151" t="n">
-        <v>1598241.1297</v>
+        <v>636272.7458</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6060000000000003</v>
+        <v>-230142.6290112984</v>
       </c>
       <c r="H151" t="n">
-        <v>0.6062583333333329</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6178,36 +5721,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.61</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6145</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6145</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>0.61</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>252259.6444</v>
+        <v>4625.5779</v>
       </c>
       <c r="G152" t="n">
-        <v>0.6067066666666671</v>
+        <v>-225517.0511112984</v>
       </c>
       <c r="H152" t="n">
-        <v>0.6063166666666663</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6216,36 +5756,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6152</v>
+        <v>0.5986</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6152</v>
+        <v>0.5986</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6152</v>
+        <v>0.5986</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6152</v>
+        <v>0.5986</v>
       </c>
       <c r="F153" t="n">
-        <v>1421963.3502</v>
+        <v>297651.5375</v>
       </c>
       <c r="G153" t="n">
-        <v>0.6076733333333337</v>
+        <v>-523168.5886112984</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6065499999999997</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,36 +5791,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6145</v>
+        <v>0.6007</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6145</v>
+        <v>0.6007</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6145</v>
+        <v>0.6007</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6145</v>
+        <v>0.6007</v>
       </c>
       <c r="F154" t="n">
-        <v>195526.7092</v>
+        <v>2052538.9809</v>
       </c>
       <c r="G154" t="n">
-        <v>0.6081466666666669</v>
+        <v>1529370.392288702</v>
       </c>
       <c r="H154" t="n">
-        <v>0.6066916666666663</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,36 +5826,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6065</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6065</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6065</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6065</v>
       </c>
       <c r="F155" t="n">
-        <v>783001.1219</v>
+        <v>903581.4389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6091600000000004</v>
+        <v>2432951.831188702</v>
       </c>
       <c r="H155" t="n">
-        <v>0.6067649999999997</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6330,36 +5861,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.615</v>
+        <v>0.6057</v>
       </c>
       <c r="C156" t="n">
-        <v>0.615</v>
+        <v>0.6057</v>
       </c>
       <c r="D156" t="n">
-        <v>0.615</v>
+        <v>0.6057</v>
       </c>
       <c r="E156" t="n">
-        <v>0.615</v>
+        <v>0.6057</v>
       </c>
       <c r="F156" t="n">
-        <v>447237.9204</v>
+        <v>919107.6576</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6099333333333337</v>
+        <v>1513844.173588702</v>
       </c>
       <c r="H156" t="n">
-        <v>0.6068566666666665</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6368,36 +5896,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6157</v>
+        <v>0.6001</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6157</v>
+        <v>0.6001</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6157</v>
+        <v>0.6001</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6157</v>
+        <v>0.6001</v>
       </c>
       <c r="F157" t="n">
-        <v>1597668.1743</v>
+        <v>4625.5779</v>
       </c>
       <c r="G157" t="n">
-        <v>0.6109000000000003</v>
+        <v>1509218.595688702</v>
       </c>
       <c r="H157" t="n">
-        <v>0.6069599999999997</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6406,36 +5931,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6159</v>
+        <v>0.6002</v>
       </c>
       <c r="C158" t="n">
-        <v>0.65</v>
+        <v>0.6002</v>
       </c>
       <c r="D158" t="n">
-        <v>0.65</v>
+        <v>0.6002</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6159</v>
+        <v>0.6002</v>
       </c>
       <c r="F158" t="n">
-        <v>6843141.469112077</v>
+        <v>749467.118</v>
       </c>
       <c r="G158" t="n">
-        <v>0.6137400000000003</v>
+        <v>2258685.713688701</v>
       </c>
       <c r="H158" t="n">
-        <v>0.6076083333333331</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6444,36 +5966,33 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.65</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>0.64</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>0.65</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>2631489.782397303</v>
+        <v>4570.1189</v>
       </c>
       <c r="G159" t="n">
-        <v>0.6159533333333337</v>
+        <v>2263255.832588702</v>
       </c>
       <c r="H159" t="n">
-        <v>0.6080966666666664</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6482,36 +6001,33 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.64</v>
+        <v>0.6006</v>
       </c>
       <c r="C160" t="n">
-        <v>0.64</v>
+        <v>0.6006</v>
       </c>
       <c r="D160" t="n">
-        <v>0.64</v>
+        <v>0.6006</v>
       </c>
       <c r="E160" t="n">
-        <v>0.64</v>
+        <v>0.6006</v>
       </c>
       <c r="F160" t="n">
-        <v>27927.8029</v>
+        <v>682359.8053</v>
       </c>
       <c r="G160" t="n">
-        <v>0.618126666666667</v>
+        <v>1580896.027288701</v>
       </c>
       <c r="H160" t="n">
-        <v>0.6085799999999998</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>1</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6520,36 +6036,33 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.64</v>
+        <v>0.6001</v>
       </c>
       <c r="C161" t="n">
-        <v>0.64</v>
+        <v>0.6001</v>
       </c>
       <c r="D161" t="n">
-        <v>0.64</v>
+        <v>0.6001</v>
       </c>
       <c r="E161" t="n">
-        <v>0.64</v>
+        <v>0.6001</v>
       </c>
       <c r="F161" t="n">
-        <v>1704076.3806</v>
+        <v>24636.8942</v>
       </c>
       <c r="G161" t="n">
-        <v>0.6202600000000004</v>
+        <v>1556259.133088701</v>
       </c>
       <c r="H161" t="n">
-        <v>0.6090616666666665</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>1</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,36 +6071,33 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6014</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6014</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6014</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6014</v>
       </c>
       <c r="F162" t="n">
-        <v>50000</v>
+        <v>1334988.9374</v>
       </c>
       <c r="G162" t="n">
-        <v>0.6214800000000004</v>
+        <v>2891248.070488702</v>
       </c>
       <c r="H162" t="n">
-        <v>0.6093449999999998</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>1</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6596,36 +6106,33 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F163" t="n">
-        <v>1472588.5887</v>
+        <v>874.0118</v>
       </c>
       <c r="G163" t="n">
-        <v>0.6227533333333337</v>
+        <v>2892122.082288702</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6096349999999998</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6634,36 +6141,33 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6397</v>
+        <v>0.6041</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6397</v>
+        <v>0.6041</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6397</v>
+        <v>0.6041</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6397</v>
+        <v>0.6041</v>
       </c>
       <c r="F164" t="n">
-        <v>858.3902</v>
+        <v>843288.3522</v>
       </c>
       <c r="G164" t="n">
-        <v>0.6248133333333337</v>
+        <v>2048833.730088701</v>
       </c>
       <c r="H164" t="n">
-        <v>0.6102416666666666</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6672,36 +6176,33 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6397</v>
+        <v>0.6073</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6397</v>
+        <v>0.6073</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6397</v>
+        <v>0.6073</v>
       </c>
       <c r="E165" t="n">
-        <v>0.6397</v>
+        <v>0.6073</v>
       </c>
       <c r="F165" t="n">
-        <v>886.8184</v>
+        <v>1767180.2997</v>
       </c>
       <c r="G165" t="n">
-        <v>0.6268400000000003</v>
+        <v>3816014.029788702</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6107566666666665</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6710,36 +6211,33 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6321</v>
+        <v>0.6039</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6321</v>
+        <v>0.6039</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6321</v>
+        <v>0.6039</v>
       </c>
       <c r="E166" t="n">
-        <v>0.6321</v>
+        <v>0.6039</v>
       </c>
       <c r="F166" t="n">
-        <v>1226123.061</v>
+        <v>2092008.8831</v>
       </c>
       <c r="G166" t="n">
-        <v>0.6284533333333335</v>
+        <v>1724005.146688702</v>
       </c>
       <c r="H166" t="n">
-        <v>0.6111066666666665</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>1</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,36 +6246,33 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6335</v>
+        <v>0.6007</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6335</v>
+        <v>0.6007</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6335</v>
+        <v>0.6007</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6335</v>
+        <v>0.6007</v>
       </c>
       <c r="F167" t="n">
-        <v>1448643.2394</v>
+        <v>981330.2635</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6297200000000003</v>
+        <v>742674.8831887018</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6116266666666664</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>1</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6786,36 +6281,33 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6301</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6301</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6301</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>0.6301</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>1508622.641</v>
+        <v>949.6057</v>
       </c>
       <c r="G168" t="n">
-        <v>0.6307133333333337</v>
+        <v>743624.4888887018</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6119549999999998</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>1</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6824,36 +6316,33 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6002</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6002</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6002</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6002</v>
       </c>
       <c r="F169" t="n">
-        <v>1380514.6556</v>
+        <v>17000</v>
       </c>
       <c r="G169" t="n">
-        <v>0.6317800000000003</v>
+        <v>726624.4888887018</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6122899999999998</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>1</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6862,36 +6351,37 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.636</v>
+        <v>0.6034</v>
       </c>
       <c r="C170" t="n">
-        <v>0.636</v>
+        <v>0.6034</v>
       </c>
       <c r="D170" t="n">
-        <v>0.636</v>
+        <v>0.6034</v>
       </c>
       <c r="E170" t="n">
-        <v>0.636</v>
+        <v>0.6034</v>
       </c>
       <c r="F170" t="n">
-        <v>1442220.7378</v>
+        <v>1690856.8146</v>
       </c>
       <c r="G170" t="n">
-        <v>0.6331533333333337</v>
+        <v>2417481.303488702</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6127049999999998</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+        <v>0.6002</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.6002</v>
+      </c>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6900,36 +6390,39 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6012</v>
       </c>
       <c r="C171" t="n">
-        <v>0.62</v>
+        <v>0.6012</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6012</v>
       </c>
       <c r="E171" t="n">
-        <v>0.62</v>
+        <v>0.6012</v>
       </c>
       <c r="F171" t="n">
-        <v>564533.1161</v>
+        <v>1810761.8624</v>
       </c>
       <c r="G171" t="n">
-        <v>0.6334866666666669</v>
+        <v>606719.4410887016</v>
       </c>
       <c r="H171" t="n">
-        <v>0.6130616666666665</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>1</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6938,36 +6431,39 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6177</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6171</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6177</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E172" t="n">
-        <v>0.6171</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>297651.5375</v>
+        <v>884.1248000000001</v>
       </c>
       <c r="G172" t="n">
-        <v>0.6335800000000003</v>
+        <v>607603.5658887016</v>
       </c>
       <c r="H172" t="n">
-        <v>0.6132033333333331</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>1</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,36 +6472,1048 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.62</v>
+        <v>0.6068</v>
       </c>
       <c r="C173" t="n">
-        <v>0.62</v>
+        <v>0.6068</v>
       </c>
       <c r="D173" t="n">
-        <v>0.62</v>
+        <v>0.6068</v>
       </c>
       <c r="E173" t="n">
-        <v>0.62</v>
+        <v>0.6068</v>
       </c>
       <c r="F173" t="n">
-        <v>1098782.8234</v>
+        <v>1308307.835</v>
       </c>
       <c r="G173" t="n">
-        <v>0.6315800000000001</v>
+        <v>-700704.2691112984</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6133699999999997</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>1</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>473757.9768</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-226946.2923112984</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1087413.1185</v>
+      </c>
+      <c r="G175" t="n">
+        <v>860466.8261887017</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="F176" t="n">
+        <v>857337.9578</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1717804.783988702</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>982027.7688</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2699832.552788702</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="F178" t="n">
+        <v>731688.5696</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1968143.983188702</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1142886.6734</v>
+      </c>
+      <c r="G179" t="n">
+        <v>3111030.656588702</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1598241.1297</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1512789.526888702</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F181" t="n">
+        <v>252259.6444</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1765049.171288702</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1421963.3502</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3187012.521488702</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="F183" t="n">
+        <v>195526.7092</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2991485.812288702</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>783001.1219</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3774486.934188702</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F185" t="n">
+        <v>447237.9204</v>
+      </c>
+      <c r="G185" t="n">
+        <v>3327249.013788702</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1597668.1743</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4924917.188088702</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6843141.469112077</v>
+      </c>
+      <c r="G187" t="n">
+        <v>11768058.65720078</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2631489.782397303</v>
+      </c>
+      <c r="G188" t="n">
+        <v>9136568.874803476</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F189" t="n">
+        <v>27927.8029</v>
+      </c>
+      <c r="G189" t="n">
+        <v>9136568.874803476</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1704076.3806</v>
+      </c>
+      <c r="G190" t="n">
+        <v>9136568.874803476</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="F191" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>9086568.874803476</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1472588.5887</v>
+      </c>
+      <c r="G192" t="n">
+        <v>10559157.46350348</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="F193" t="n">
+        <v>858.3902</v>
+      </c>
+      <c r="G193" t="n">
+        <v>10560015.85370348</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="F194" t="n">
+        <v>886.8184</v>
+      </c>
+      <c r="G194" t="n">
+        <v>10560015.85370348</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1226123.061</v>
+      </c>
+      <c r="G195" t="n">
+        <v>9333892.792703476</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1448643.2394</v>
+      </c>
+      <c r="G196" t="n">
+        <v>10782536.03210348</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1508622.641</v>
+      </c>
+      <c r="G197" t="n">
+        <v>9273913.391103474</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1380514.6556</v>
+      </c>
+      <c r="G198" t="n">
+        <v>10654428.04670347</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1442220.7378</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12096648.78450347</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F200" t="n">
+        <v>564533.1161</v>
+      </c>
+      <c r="G200" t="n">
+        <v>11532115.66840347</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="F201" t="n">
+        <v>297651.5375</v>
+      </c>
+      <c r="G201" t="n">
+        <v>11234464.13090347</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1098782.8234</v>
+      </c>
+      <c r="G202" t="n">
+        <v>12333246.95430348</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5965</v>
+        <v>0.603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5965</v>
+        <v>0.603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5965</v>
+        <v>0.603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5965</v>
+        <v>0.603</v>
       </c>
       <c r="F2" t="n">
-        <v>638513.4954</v>
+        <v>2735.7311</v>
       </c>
       <c r="G2" t="n">
-        <v>4271489.448199998</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,378 +467,453 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5999</v>
+        <v>0.603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5999</v>
+        <v>0.603</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5999</v>
+        <v>0.603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5999</v>
+        <v>0.603</v>
       </c>
       <c r="F3" t="n">
-        <v>1353012.5004</v>
+        <v>205309.5122</v>
       </c>
       <c r="G3" t="n">
-        <v>5624501.948599998</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.603</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6012</v>
+        <v>0.603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6012</v>
+        <v>0.603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6012</v>
+        <v>0.603</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6012</v>
+        <v>0.603</v>
       </c>
       <c r="F4" t="n">
-        <v>741210.028</v>
+        <v>209351.0502</v>
       </c>
       <c r="G4" t="n">
-        <v>6365711.976599998</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5933</v>
+        <v>0.603</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5933</v>
+        <v>0.603</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="F5" t="n">
-        <v>1401808.7099</v>
+        <v>200957.7755</v>
       </c>
       <c r="G5" t="n">
-        <v>4963903.266699998</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5933</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5933</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>2877986.3401</v>
+        <v>1246615.0795</v>
       </c>
       <c r="G6" t="n">
-        <v>4963903.266699998</v>
+        <v>13322587.1191</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.603</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5959</v>
+        <v>0.602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5959</v>
+        <v>0.602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5959</v>
+        <v>0.602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5959</v>
+        <v>0.602</v>
       </c>
       <c r="F7" t="n">
-        <v>1560116.4089</v>
+        <v>1863864.1937</v>
       </c>
       <c r="G7" t="n">
-        <v>6524019.675599998</v>
+        <v>15186451.3128</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5933</v>
+        <v>0.599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5933</v>
+        <v>0.599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5933</v>
+        <v>0.599</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5933</v>
+        <v>0.599</v>
       </c>
       <c r="F8" t="n">
-        <v>400000</v>
+        <v>1269721.6185</v>
       </c>
       <c r="G8" t="n">
-        <v>6124019.675599998</v>
+        <v>13916729.6943</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5933</v>
+        <v>0.5984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5933</v>
+        <v>0.5984</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5933</v>
+        <v>0.5984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5933</v>
+        <v>0.5984</v>
       </c>
       <c r="F9" t="n">
-        <v>200000</v>
+        <v>1969569.7056</v>
       </c>
       <c r="G9" t="n">
-        <v>6124019.675599998</v>
+        <v>11947159.9887</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.599</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5933</v>
+        <v>0.603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5933</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5933</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5933</v>
+        <v>0.603</v>
       </c>
       <c r="F10" t="n">
-        <v>394113.2594</v>
+        <v>3728547.4477</v>
       </c>
       <c r="G10" t="n">
-        <v>6124019.675599998</v>
+        <v>15675707.4364</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5933</v>
+        <v>0.604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6018</v>
+        <v>0.6034</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6018</v>
+        <v>0.604</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5933</v>
+        <v>0.6034</v>
       </c>
       <c r="F11" t="n">
-        <v>926418.3773000001</v>
+        <v>539648.4659</v>
       </c>
       <c r="G11" t="n">
-        <v>7050438.052899998</v>
+        <v>16215355.9023</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="F12" t="n">
-        <v>200000</v>
+        <v>855.6217</v>
       </c>
       <c r="G12" t="n">
-        <v>6850438.052899998</v>
+        <v>16216211.524</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.6034</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>1245269.9125</v>
+        <v>71452.5523</v>
       </c>
       <c r="G13" t="n">
-        <v>8095707.965399997</v>
+        <v>16144758.9717</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,115 +922,124 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5946</v>
+        <v>0.6002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5946</v>
+        <v>0.604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5946</v>
+        <v>0.604</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5946</v>
+        <v>0.6002</v>
       </c>
       <c r="F14" t="n">
-        <v>552946.9799</v>
+        <v>1537011.6379</v>
       </c>
       <c r="G14" t="n">
-        <v>7542760.985499998</v>
+        <v>17681770.6096</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.5953000000000001</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>0.6034</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5971</v>
+        <v>0.604</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5971</v>
+        <v>0.6</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5971</v>
+        <v>0.6112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5971</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
-        <v>1587990.1228</v>
+        <v>119313.2727</v>
       </c>
       <c r="G15" t="n">
-        <v>9130751.108299997</v>
+        <v>17562457.3369</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.5946</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.6034</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5976</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5976</v>
+        <v>0.6071</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5976</v>
+        <v>0.6071</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5976</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>936545.3644</v>
+        <v>1505126.8006</v>
       </c>
       <c r="G16" t="n">
-        <v>10067296.4727</v>
+        <v>19067584.1375</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -959,41 +1048,42 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5971</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5953000000000001</v>
+        <v>0.6034</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6077</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6095</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6095</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6077</v>
       </c>
       <c r="F17" t="n">
-        <v>200000</v>
+        <v>44628.8293</v>
       </c>
       <c r="G17" t="n">
-        <v>9867296.472699996</v>
+        <v>19112212.9668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,33 +1092,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F18" t="n">
-        <v>200000</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>9867296.472699996</v>
+        <v>19111212.9668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,33 +1134,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6107</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6107</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6107</v>
       </c>
       <c r="F19" t="n">
-        <v>16879.2245</v>
+        <v>846.8079</v>
       </c>
       <c r="G19" t="n">
-        <v>9867296.472699996</v>
+        <v>19112059.7747</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1072,33 +1176,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5942</v>
+        <v>0.6</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5942</v>
+        <v>0.6108</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5942</v>
+        <v>0.6108</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5942</v>
+        <v>0.6</v>
       </c>
       <c r="F20" t="n">
-        <v>2140218.0927</v>
+        <v>5041.0296</v>
       </c>
       <c r="G20" t="n">
-        <v>12007514.5654</v>
+        <v>19117100.8043</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,33 +1218,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5935</v>
+        <v>0.6008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5935</v>
+        <v>0.6108</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5935</v>
+        <v>0.6108</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5935</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
-        <v>506291.7849</v>
+        <v>1865841.6955</v>
       </c>
       <c r="G21" t="n">
-        <v>11501222.7805</v>
+        <v>19117100.8043</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1142,115 +1260,124 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F22" t="n">
-        <v>200000</v>
+        <v>834</v>
       </c>
       <c r="G22" t="n">
-        <v>11301222.7805</v>
+        <v>19116266.8043</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.5935</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+        <v>0.6034</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="F23" t="n">
-        <v>3357727.382</v>
+        <v>821.1061999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>11301222.7805</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.5931999999999999</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>0.5935</v>
+        <v>0.6034</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5955</v>
+        <v>0.6039</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5955</v>
+        <v>0.6108</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5955</v>
+        <v>0.6108</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5955</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>2104150.141</v>
+        <v>475664.3388</v>
       </c>
       <c r="G24" t="n">
-        <v>13405372.9215</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1260,38 +1387,39 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0.5935</v>
+        <v>0.6034</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5949</v>
+        <v>0.5984</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5949</v>
+        <v>0.6108</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5949</v>
+        <v>0.6108</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5949</v>
+        <v>0.5984</v>
       </c>
       <c r="F25" t="n">
-        <v>2064543.1308</v>
+        <v>432987.4372</v>
       </c>
       <c r="G25" t="n">
-        <v>11340829.7907</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1300,33 +1428,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5955</v>
+        <v>0.6106</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5955</v>
+        <v>0.6106</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5955</v>
+        <v>0.6106</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5955</v>
+        <v>0.6106</v>
       </c>
       <c r="F26" t="n">
-        <v>1995671.2962</v>
+        <v>471793.6117</v>
       </c>
       <c r="G26" t="n">
-        <v>13336501.0869</v>
+        <v>18645294.2988</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1335,33 +1470,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.596</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.596</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.596</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.596</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>483863.2636</v>
+        <v>52239.2805</v>
       </c>
       <c r="G27" t="n">
-        <v>13820364.3505</v>
+        <v>18593055.0183</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1370,33 +1512,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6018</v>
+        <v>0.6108</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6018</v>
+        <v>0.6108</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6018</v>
+        <v>0.6108</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6018</v>
+        <v>0.6108</v>
       </c>
       <c r="F28" t="n">
-        <v>854.6952</v>
+        <v>845.7286</v>
       </c>
       <c r="G28" t="n">
-        <v>13821219.0457</v>
+        <v>18593900.7469</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1405,33 +1554,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5964</v>
+        <v>0.603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5964</v>
+        <v>0.6108</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5964</v>
+        <v>0.6108</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5964</v>
+        <v>0.603</v>
       </c>
       <c r="F29" t="n">
-        <v>1130707.1425</v>
+        <v>1926114.2175</v>
       </c>
       <c r="G29" t="n">
-        <v>12690511.9032</v>
+        <v>18593900.7469</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1440,33 +1596,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5984</v>
+        <v>0.6048</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5984</v>
+        <v>0.6048</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5984</v>
+        <v>0.6048</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5984</v>
+        <v>0.6048</v>
       </c>
       <c r="F30" t="n">
-        <v>1399980.303</v>
+        <v>450812.675</v>
       </c>
       <c r="G30" t="n">
-        <v>14090492.2062</v>
+        <v>18143088.0719</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1475,33 +1638,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6018</v>
+        <v>0.6108</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6028</v>
+        <v>0.6108</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6028</v>
+        <v>0.6108</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6018</v>
+        <v>0.6108</v>
       </c>
       <c r="F31" t="n">
-        <v>5204.7347</v>
+        <v>855.2603</v>
       </c>
       <c r="G31" t="n">
-        <v>14095696.9409</v>
+        <v>18143943.33219999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1510,33 +1680,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5956</v>
+        <v>0.6098</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5956</v>
+        <v>0.6098</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5956</v>
+        <v>0.6098</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5956</v>
+        <v>0.6098</v>
       </c>
       <c r="F32" t="n">
-        <v>1382632.1318</v>
+        <v>1691158.6939</v>
       </c>
       <c r="G32" t="n">
-        <v>12713064.8091</v>
+        <v>16452784.63829999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1545,33 +1722,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5945</v>
+        <v>0.6108</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5945</v>
+        <v>0.6108</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5945</v>
+        <v>0.6108</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5945</v>
+        <v>0.6108</v>
       </c>
       <c r="F33" t="n">
-        <v>1558610.7223</v>
+        <v>859.5497</v>
       </c>
       <c r="G33" t="n">
-        <v>11154454.0868</v>
+        <v>16453644.18799999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1580,33 +1764,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5999</v>
+        <v>0.6075</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5999</v>
+        <v>0.6075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5999</v>
+        <v>0.6075</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5999</v>
+        <v>0.6075</v>
       </c>
       <c r="F34" t="n">
-        <v>1067798.7773</v>
+        <v>1973509.4727</v>
       </c>
       <c r="G34" t="n">
-        <v>12222252.8641</v>
+        <v>14480134.71529999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,33 +1806,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.6108</v>
       </c>
       <c r="F35" t="n">
-        <v>437270.7523</v>
+        <v>825.1790999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>12659523.6164</v>
+        <v>14480959.89439999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,33 +1848,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6024</v>
+        <v>0.6095</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6024</v>
+        <v>0.6095</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6024</v>
+        <v>0.6095</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6024</v>
+        <v>0.6095</v>
       </c>
       <c r="F36" t="n">
-        <v>854.6015</v>
+        <v>1469388.9861</v>
       </c>
       <c r="G36" t="n">
-        <v>12660378.2179</v>
+        <v>13011570.90829999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1685,33 +1890,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6019</v>
+        <v>0.6108</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6019</v>
+        <v>0.6108</v>
       </c>
       <c r="F37" t="n">
-        <v>1391424.4827</v>
+        <v>827.5398</v>
       </c>
       <c r="G37" t="n">
-        <v>12660378.2179</v>
+        <v>13012398.44809999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1720,33 +1932,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6024</v>
+        <v>0.6108</v>
       </c>
       <c r="F38" t="n">
-        <v>1712162.3563</v>
+        <v>3299.3318</v>
       </c>
       <c r="G38" t="n">
-        <v>12660378.2179</v>
+        <v>13012398.44809999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1755,11 +1974,18 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1769,19 +1995,19 @@
         <v>0.6024</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6027</v>
+        <v>0.6024</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6027</v>
+        <v>0.6024</v>
       </c>
       <c r="E39" t="n">
         <v>0.6024</v>
       </c>
       <c r="F39" t="n">
-        <v>1426853.4357</v>
+        <v>1682669.5467</v>
       </c>
       <c r="G39" t="n">
-        <v>14087231.6536</v>
+        <v>11329728.90139999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1790,33 +2016,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6028</v>
+        <v>0.6039</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6028</v>
+        <v>0.6039</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6028</v>
+        <v>0.6039</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6028</v>
+        <v>0.6039</v>
       </c>
       <c r="F40" t="n">
-        <v>270217.3505</v>
+        <v>552909.3443</v>
       </c>
       <c r="G40" t="n">
-        <v>14357449.0041</v>
+        <v>11882638.24569999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1825,33 +2058,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6029</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6029</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6029</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6029</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>210903.2514</v>
+        <v>4110.9159</v>
       </c>
       <c r="G41" t="n">
-        <v>14568352.2555</v>
+        <v>11878527.32979999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1860,33 +2100,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.603</v>
+        <v>0.6017</v>
       </c>
       <c r="C42" t="n">
-        <v>0.603</v>
+        <v>0.6017</v>
       </c>
       <c r="D42" t="n">
-        <v>0.603</v>
+        <v>0.6017</v>
       </c>
       <c r="E42" t="n">
-        <v>0.603</v>
+        <v>0.6017</v>
       </c>
       <c r="F42" t="n">
-        <v>849.9431</v>
+        <v>2059075.3008</v>
       </c>
       <c r="G42" t="n">
-        <v>14569202.1986</v>
+        <v>13937602.63059999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1895,33 +2142,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.603</v>
+        <v>0.601</v>
       </c>
       <c r="C43" t="n">
-        <v>0.603</v>
+        <v>0.601</v>
       </c>
       <c r="D43" t="n">
-        <v>0.603</v>
+        <v>0.601</v>
       </c>
       <c r="E43" t="n">
-        <v>0.603</v>
+        <v>0.601</v>
       </c>
       <c r="F43" t="n">
-        <v>1097024.4537</v>
+        <v>512651.227</v>
       </c>
       <c r="G43" t="n">
-        <v>14569202.1986</v>
+        <v>13424951.40359999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1930,33 +2184,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.603</v>
+        <v>0.6004</v>
       </c>
       <c r="C44" t="n">
-        <v>0.603</v>
+        <v>0.6004</v>
       </c>
       <c r="D44" t="n">
-        <v>0.603</v>
+        <v>0.6004</v>
       </c>
       <c r="E44" t="n">
-        <v>0.603</v>
+        <v>0.6004</v>
       </c>
       <c r="F44" t="n">
-        <v>2735.7311</v>
+        <v>1450854.3884</v>
       </c>
       <c r="G44" t="n">
-        <v>14569202.1986</v>
+        <v>11974097.01519999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1965,33 +2226,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>205309.5122</v>
+        <v>374750.5559</v>
       </c>
       <c r="G45" t="n">
-        <v>14569202.1986</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2000,33 +2268,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>209351.0502</v>
+        <v>1310516.5957</v>
       </c>
       <c r="G46" t="n">
-        <v>14569202.1986</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2035,33 +2310,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.603</v>
+        <v>0.5936</v>
       </c>
       <c r="C47" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.603</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>0.603</v>
+        <v>0.5936</v>
       </c>
       <c r="F47" t="n">
-        <v>200957.7755</v>
+        <v>194234.9154</v>
       </c>
       <c r="G47" t="n">
-        <v>14569202.1986</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2070,33 +2352,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5964</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5964</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5964</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.5964</v>
       </c>
       <c r="F48" t="n">
-        <v>1246615.0795</v>
+        <v>439341.4211</v>
       </c>
       <c r="G48" t="n">
-        <v>13322587.1191</v>
+        <v>11160005.03819999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2105,173 +2394,216 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.602</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.602</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.602</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.602</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>1863864.1937</v>
+        <v>874.6102</v>
       </c>
       <c r="G49" t="n">
-        <v>15186451.3128</v>
+        <v>11160879.64839999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.5964</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.599</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.599</v>
+        <v>0.5989</v>
       </c>
       <c r="D50" t="n">
-        <v>0.599</v>
+        <v>0.5989</v>
       </c>
       <c r="E50" t="n">
-        <v>0.599</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>1269721.6185</v>
+        <v>28582.9756</v>
       </c>
       <c r="G50" t="n">
-        <v>13916729.6943</v>
+        <v>11189462.62399999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.5983000000000001</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5984</v>
+        <v>0.5986</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5984</v>
+        <v>0.5986</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5984</v>
+        <v>0.5986</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5984</v>
+        <v>0.5986</v>
       </c>
       <c r="F51" t="n">
-        <v>1969569.7056</v>
+        <v>770962.5823</v>
       </c>
       <c r="G51" t="n">
-        <v>11947159.9887</v>
+        <v>10418500.04169999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.603</v>
+        <v>0.5967</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5967</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5967</v>
       </c>
       <c r="E52" t="n">
-        <v>0.603</v>
+        <v>0.5967</v>
       </c>
       <c r="F52" t="n">
-        <v>3728547.4477</v>
+        <v>923775.1647</v>
       </c>
       <c r="G52" t="n">
-        <v>15675707.4364</v>
+        <v>9494724.876999995</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.604</v>
+        <v>0.5956</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6034</v>
+        <v>0.5955</v>
       </c>
       <c r="D53" t="n">
-        <v>0.604</v>
+        <v>0.5956</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6034</v>
+        <v>0.5955</v>
       </c>
       <c r="F53" t="n">
-        <v>539648.4659</v>
+        <v>506752.1151</v>
       </c>
       <c r="G53" t="n">
-        <v>16215355.9023</v>
+        <v>8987972.761899995</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2280,68 +2612,84 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.604</v>
+        <v>0.5989</v>
       </c>
       <c r="C54" t="n">
-        <v>0.604</v>
+        <v>0.5989</v>
       </c>
       <c r="D54" t="n">
-        <v>0.604</v>
+        <v>0.5989</v>
       </c>
       <c r="E54" t="n">
-        <v>0.604</v>
+        <v>0.5989</v>
       </c>
       <c r="F54" t="n">
-        <v>855.6217</v>
+        <v>1306050.9242</v>
       </c>
       <c r="G54" t="n">
-        <v>16216211.524</v>
+        <v>10294023.68609999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6016</v>
       </c>
       <c r="F55" t="n">
-        <v>71452.5523</v>
+        <v>1352385.7244</v>
       </c>
       <c r="G55" t="n">
-        <v>16144758.9717</v>
+        <v>11646409.4105</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2350,68 +2698,84 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6002</v>
+        <v>0.6017</v>
       </c>
       <c r="C56" t="n">
-        <v>0.604</v>
+        <v>0.6017</v>
       </c>
       <c r="D56" t="n">
-        <v>0.604</v>
+        <v>0.6017</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6002</v>
+        <v>0.6017</v>
       </c>
       <c r="F56" t="n">
-        <v>1537011.6379</v>
+        <v>1374844.9308</v>
       </c>
       <c r="G56" t="n">
-        <v>17681770.6096</v>
+        <v>13021254.3413</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.604</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6112</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>119313.2727</v>
+        <v>1854623.5131</v>
       </c>
       <c r="G57" t="n">
-        <v>17562457.3369</v>
+        <v>14875877.8544</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2420,138 +2784,172 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6011</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6071</v>
+        <v>0.6011</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6071</v>
+        <v>0.6011</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6011</v>
       </c>
       <c r="F58" t="n">
-        <v>1505126.8006</v>
+        <v>2054074.9316</v>
       </c>
       <c r="G58" t="n">
-        <v>19067584.1375</v>
+        <v>12821802.9228</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6077</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6095</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6095</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6077</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>44628.8293</v>
+        <v>849.3155</v>
       </c>
       <c r="G59" t="n">
-        <v>19112212.9668</v>
+        <v>12822652.2383</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.6011</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6</v>
+        <v>0.6032</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6</v>
+        <v>0.6032</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6</v>
+        <v>0.6032</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6</v>
+        <v>0.6032</v>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>915636.2868</v>
       </c>
       <c r="G60" t="n">
-        <v>19111212.9668</v>
+        <v>11907015.95149999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.6042999999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6107</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6107</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6107</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6107</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>846.8079</v>
+        <v>851.7437</v>
       </c>
       <c r="G61" t="n">
-        <v>19112059.7747</v>
+        <v>11907867.69519999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2560,68 +2958,84 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6108</v>
+        <v>0.6005</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6108</v>
+        <v>0.6005</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="F62" t="n">
-        <v>5041.0296</v>
+        <v>1215334.1918</v>
       </c>
       <c r="G62" t="n">
-        <v>19117100.8043</v>
+        <v>10692533.50339999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.6042999999999999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6008</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6108</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6108</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>1865841.6955</v>
+        <v>856.4077</v>
       </c>
       <c r="G63" t="n">
-        <v>19117100.8043</v>
+        <v>10693389.91109999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2630,33 +3044,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6</v>
+        <v>0.6017</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6</v>
+        <v>0.6017</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6</v>
+        <v>0.6017</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6</v>
+        <v>0.6017</v>
       </c>
       <c r="F64" t="n">
-        <v>834</v>
+        <v>1275673.6399</v>
       </c>
       <c r="G64" t="n">
-        <v>19116266.8043</v>
+        <v>9417716.271199994</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2665,33 +3086,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6108</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6108</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6108</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6108</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>821.1061999999999</v>
+        <v>863.3199</v>
       </c>
       <c r="G65" t="n">
-        <v>19117087.91049999</v>
+        <v>9418579.591099994</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2700,33 +3128,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6039</v>
+        <v>0.6</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6108</v>
+        <v>0.6</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6108</v>
+        <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F66" t="n">
-        <v>475664.3388</v>
+        <v>1491235.0493</v>
       </c>
       <c r="G66" t="n">
-        <v>19117087.91049999</v>
+        <v>7927344.541799994</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2735,33 +3170,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5984</v>
+        <v>0.6016</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6108</v>
+        <v>0.6016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6108</v>
+        <v>0.6016</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5984</v>
+        <v>0.6016</v>
       </c>
       <c r="F67" t="n">
-        <v>432987.4372</v>
+        <v>916573.8403</v>
       </c>
       <c r="G67" t="n">
-        <v>19117087.91049999</v>
+        <v>8843918.382099994</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2770,33 +3212,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6106</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6106</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6106</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6106</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>471793.6117</v>
+        <v>828.7926</v>
       </c>
       <c r="G68" t="n">
-        <v>18645294.2988</v>
+        <v>8844747.174699994</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2805,33 +3254,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6112</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6112</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F69" t="n">
-        <v>52239.2805</v>
+        <v>321015.3658</v>
       </c>
       <c r="G69" t="n">
-        <v>18593055.0183</v>
+        <v>9165762.540499995</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2840,33 +3296,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6108</v>
+        <v>0.6112</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6108</v>
+        <v>0.6112</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="F70" t="n">
-        <v>845.7286</v>
+        <v>1042741.2895</v>
       </c>
       <c r="G70" t="n">
-        <v>18593900.7469</v>
+        <v>9165762.540499995</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2875,33 +3338,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.603</v>
+        <v>0.6015</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6108</v>
+        <v>0.6015</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6108</v>
+        <v>0.6015</v>
       </c>
       <c r="E71" t="n">
-        <v>0.603</v>
+        <v>0.6015</v>
       </c>
       <c r="F71" t="n">
-        <v>1926114.2175</v>
+        <v>1688595.4533</v>
       </c>
       <c r="G71" t="n">
-        <v>18593900.7469</v>
+        <v>7477167.087199994</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2910,33 +3380,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6048</v>
+        <v>0.5989</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6048</v>
+        <v>0.6111</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6048</v>
+        <v>0.6111</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6048</v>
+        <v>0.5989</v>
       </c>
       <c r="F72" t="n">
-        <v>450812.675</v>
+        <v>1294122.4343</v>
       </c>
       <c r="G72" t="n">
-        <v>18143088.0719</v>
+        <v>8771289.521499995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2945,33 +3422,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6108</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6108</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6108</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6108</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>855.2603</v>
+        <v>1560208.9446</v>
       </c>
       <c r="G73" t="n">
-        <v>18143943.33219999</v>
+        <v>7211080.576899995</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2980,33 +3464,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6098</v>
+        <v>0.5971</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6098</v>
+        <v>0.5971</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6098</v>
+        <v>0.5971</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6098</v>
+        <v>0.5971</v>
       </c>
       <c r="F74" t="n">
-        <v>1691158.6939</v>
+        <v>2059425.7</v>
       </c>
       <c r="G74" t="n">
-        <v>16452784.63829999</v>
+        <v>5151654.876899995</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3015,138 +3506,166 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6108</v>
+        <v>0.5952</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6108</v>
+        <v>0.5951</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6108</v>
+        <v>0.5952</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6108</v>
+        <v>0.5951</v>
       </c>
       <c r="F75" t="n">
-        <v>859.5497</v>
+        <v>1807248.2876</v>
       </c>
       <c r="G75" t="n">
-        <v>16453644.18799999</v>
+        <v>3344406.589299995</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6075</v>
+        <v>0.611</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6075</v>
+        <v>0.611</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6075</v>
+        <v>0.611</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6075</v>
+        <v>0.611</v>
       </c>
       <c r="F76" t="n">
-        <v>1973509.4727</v>
+        <v>1337095.2472</v>
       </c>
       <c r="G76" t="n">
-        <v>14480134.71529999</v>
+        <v>4681501.836499995</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6108</v>
+        <v>0.599</v>
       </c>
       <c r="F77" t="n">
-        <v>825.1790999999999</v>
+        <v>2082418.6352</v>
       </c>
       <c r="G77" t="n">
-        <v>14480959.89439999</v>
+        <v>2599083.201299995</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6095</v>
+        <v>0.6025</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6095</v>
+        <v>0.6025</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6095</v>
+        <v>0.6025</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6095</v>
+        <v>0.6025</v>
       </c>
       <c r="F78" t="n">
-        <v>1469388.9861</v>
+        <v>1706968.8819</v>
       </c>
       <c r="G78" t="n">
-        <v>13011570.90829999</v>
+        <v>4306052.083199995</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3155,208 +3674,250 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6108</v>
+        <v>0.611</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6108</v>
+        <v>0.611</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6108</v>
+        <v>0.611</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6108</v>
+        <v>0.611</v>
       </c>
       <c r="F79" t="n">
-        <v>827.5398</v>
+        <v>16366.61211129296</v>
       </c>
       <c r="G79" t="n">
-        <v>13012398.44809999</v>
+        <v>4322418.695311287</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="F80" t="n">
-        <v>3299.3318</v>
+        <v>1973628.1758</v>
       </c>
       <c r="G80" t="n">
-        <v>13012398.44809999</v>
+        <v>2348790.519511287</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6024</v>
+        <v>0.606</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6024</v>
+        <v>0.606</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6024</v>
+        <v>0.606</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6024</v>
+        <v>0.606</v>
       </c>
       <c r="F81" t="n">
-        <v>1682669.5467</v>
+        <v>1828090.5936</v>
       </c>
       <c r="G81" t="n">
-        <v>11329728.90139999</v>
+        <v>4176881.113111287</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6039</v>
+        <v>0.611</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6039</v>
+        <v>0.611</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6039</v>
+        <v>0.611</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6039</v>
+        <v>0.611</v>
       </c>
       <c r="F82" t="n">
-        <v>552909.3443</v>
+        <v>191800.081588707</v>
       </c>
       <c r="G82" t="n">
-        <v>11882638.24569999</v>
+        <v>4368681.194699994</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="F83" t="n">
-        <v>4110.9159</v>
+        <v>2062212.6695</v>
       </c>
       <c r="G83" t="n">
-        <v>11878527.32979999</v>
+        <v>2306468.525199994</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6017</v>
+        <v>0.6095</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6017</v>
+        <v>0.6095</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6017</v>
+        <v>0.6095</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6017</v>
+        <v>0.6095</v>
       </c>
       <c r="F84" t="n">
-        <v>2059075.3008</v>
+        <v>886034.3339</v>
       </c>
       <c r="G84" t="n">
-        <v>13937602.63059999</v>
+        <v>2306468.525199994</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3365,33 +3926,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.601</v>
+        <v>0.611</v>
       </c>
       <c r="C85" t="n">
-        <v>0.601</v>
+        <v>0.6111</v>
       </c>
       <c r="D85" t="n">
-        <v>0.601</v>
+        <v>0.6111</v>
       </c>
       <c r="E85" t="n">
-        <v>0.601</v>
+        <v>0.611</v>
       </c>
       <c r="F85" t="n">
-        <v>512651.227</v>
+        <v>484836.8578</v>
       </c>
       <c r="G85" t="n">
-        <v>13424951.40359999</v>
+        <v>2791305.382999994</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3400,33 +3968,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6004</v>
+        <v>0.6107</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6004</v>
+        <v>0.6107</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6004</v>
+        <v>0.6107</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6004</v>
+        <v>0.6107</v>
       </c>
       <c r="F86" t="n">
-        <v>1450854.3884</v>
+        <v>1802128.2172</v>
       </c>
       <c r="G86" t="n">
-        <v>11974097.01519999</v>
+        <v>989177.1657999943</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3435,33 +4010,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="F87" t="n">
-        <v>374750.5559</v>
+        <v>1406373.134</v>
       </c>
       <c r="G87" t="n">
-        <v>11599346.45929999</v>
+        <v>2395550.299799995</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3470,33 +4052,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6111</v>
       </c>
       <c r="F88" t="n">
-        <v>1310516.5957</v>
+        <v>1694.0474</v>
       </c>
       <c r="G88" t="n">
-        <v>11599346.45929999</v>
+        <v>2397244.347199995</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3505,33 +4094,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5936</v>
+        <v>0.6107</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6107</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5936</v>
+        <v>0.6095</v>
       </c>
       <c r="F89" t="n">
-        <v>194234.9154</v>
+        <v>635987.7192112929</v>
       </c>
       <c r="G89" t="n">
-        <v>11599346.45929999</v>
+        <v>1761256.627988702</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3540,103 +4136,124 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5964</v>
+        <v>0.6111</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5964</v>
+        <v>0.6111</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5964</v>
+        <v>0.6111</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5964</v>
+        <v>0.6111</v>
       </c>
       <c r="F90" t="n">
-        <v>439341.4211</v>
+        <v>847.6165999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>11160005.03819999</v>
+        <v>1762104.244588702</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>874.6102</v>
+        <v>1933787.2826</v>
       </c>
       <c r="G91" t="n">
-        <v>11160879.64839999</v>
+        <v>-171683.0380112983</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6088</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5989</v>
+        <v>0.6088</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5989</v>
+        <v>0.6088</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6088</v>
       </c>
       <c r="F92" t="n">
-        <v>28582.9756</v>
+        <v>493881.902</v>
       </c>
       <c r="G92" t="n">
-        <v>11189462.62399999</v>
+        <v>322198.8639887017</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3645,68 +4262,82 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5986</v>
+        <v>0.6111</v>
       </c>
       <c r="F93" t="n">
-        <v>770962.5823</v>
+        <v>828.4141</v>
       </c>
       <c r="G93" t="n">
-        <v>10418500.04169999</v>
+        <v>323027.2780887017</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5967</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5967</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5967</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5967</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>923775.1647</v>
+        <v>1366056.303</v>
       </c>
       <c r="G94" t="n">
-        <v>9494724.876999995</v>
+        <v>-1043029.024911298</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3715,33 +4346,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5956</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5955</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5956</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5955</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>506752.1151</v>
+        <v>1576697.3514</v>
       </c>
       <c r="G95" t="n">
-        <v>8987972.761899995</v>
+        <v>533668.3264887016</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3750,33 +4388,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5989</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5989</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5989</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5989</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>1306050.9242</v>
+        <v>1354494.287</v>
       </c>
       <c r="G96" t="n">
-        <v>10294023.68609999</v>
+        <v>533668.3264887016</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3785,33 +4430,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6016</v>
+        <v>0.6111</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6016</v>
+        <v>0.6111</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6016</v>
+        <v>0.6111</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6016</v>
+        <v>0.6111</v>
       </c>
       <c r="F97" t="n">
-        <v>1352385.7244</v>
+        <v>830.7834</v>
       </c>
       <c r="G97" t="n">
-        <v>11646409.4105</v>
+        <v>534499.1098887016</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3820,33 +4472,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6017</v>
+        <v>0.5986</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6017</v>
+        <v>0.5986</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6017</v>
+        <v>0.5986</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6017</v>
+        <v>0.5986</v>
       </c>
       <c r="F98" t="n">
-        <v>1374844.9308</v>
+        <v>1477708.554</v>
       </c>
       <c r="G98" t="n">
-        <v>13021254.3413</v>
+        <v>-943209.4441112984</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3855,33 +4514,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6086</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6086</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6086</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6086</v>
       </c>
       <c r="F99" t="n">
-        <v>1854623.5131</v>
+        <v>739916.3612</v>
       </c>
       <c r="G99" t="n">
-        <v>14875877.8544</v>
+        <v>-203293.0829112984</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3890,33 +4556,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6011</v>
+        <v>0.61</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6011</v>
+        <v>0.61</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6011</v>
+        <v>0.61</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6011</v>
+        <v>0.61</v>
       </c>
       <c r="F100" t="n">
-        <v>2054074.9316</v>
+        <v>861.17</v>
       </c>
       <c r="G100" t="n">
-        <v>12821802.9228</v>
+        <v>-202431.9129112984</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3925,33 +4598,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6067</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6067</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6067</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6067</v>
       </c>
       <c r="F101" t="n">
-        <v>849.3155</v>
+        <v>1660292.0985</v>
       </c>
       <c r="G101" t="n">
-        <v>12822652.2383</v>
+        <v>-1862724.011411299</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3960,33 +4640,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6032</v>
+        <v>0.6069</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6032</v>
+        <v>0.6069</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6032</v>
+        <v>0.6069</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6032</v>
+        <v>0.6069</v>
       </c>
       <c r="F102" t="n">
-        <v>915636.2868</v>
+        <v>1174179.5781</v>
       </c>
       <c r="G102" t="n">
-        <v>11907015.95149999</v>
+        <v>-688544.4333112985</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3995,33 +4682,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6051</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6051</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6051</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6051</v>
       </c>
       <c r="F103" t="n">
-        <v>851.7437</v>
+        <v>829783.2678</v>
       </c>
       <c r="G103" t="n">
-        <v>11907867.69519999</v>
+        <v>-1518327.701111299</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4030,33 +4724,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6005</v>
+        <v>0.6057</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6005</v>
+        <v>0.61</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6005</v>
+        <v>0.61</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6005</v>
+        <v>0.6057</v>
       </c>
       <c r="F104" t="n">
-        <v>1215334.1918</v>
+        <v>1581721.0184</v>
       </c>
       <c r="G104" t="n">
-        <v>10692533.50339999</v>
+        <v>63393.31728870142</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4065,33 +4766,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6055</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6055</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6055</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6055</v>
       </c>
       <c r="F105" t="n">
-        <v>856.4077</v>
+        <v>1299940.8865</v>
       </c>
       <c r="G105" t="n">
-        <v>10693389.91109999</v>
+        <v>-1236547.569211299</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4100,68 +4808,82 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6017</v>
+        <v>0.605</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6017</v>
+        <v>0.605</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6017</v>
+        <v>0.605</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6017</v>
+        <v>0.605</v>
       </c>
       <c r="F106" t="n">
-        <v>1275673.6399</v>
+        <v>9892.623799999999</v>
       </c>
       <c r="G106" t="n">
-        <v>9417716.271199994</v>
+        <v>-1246440.193011299</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.605</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.605</v>
       </c>
       <c r="F107" t="n">
-        <v>863.3199</v>
+        <v>1750643.7844</v>
       </c>
       <c r="G107" t="n">
-        <v>9418579.591099994</v>
+        <v>504203.5913887015</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4170,33 +4892,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6</v>
+        <v>0.6005</v>
       </c>
       <c r="F108" t="n">
-        <v>1491235.0493</v>
+        <v>1370618.9662</v>
       </c>
       <c r="G108" t="n">
-        <v>7927344.541799994</v>
+        <v>-866415.3748112984</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4205,33 +4934,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6016</v>
+        <v>0.6036</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6016</v>
+        <v>0.6036</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6016</v>
+        <v>0.6036</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6016</v>
+        <v>0.6036</v>
       </c>
       <c r="F109" t="n">
-        <v>916573.8403</v>
+        <v>636272.7458</v>
       </c>
       <c r="G109" t="n">
-        <v>8843918.382099994</v>
+        <v>-230142.6290112984</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4240,33 +4976,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>828.7926</v>
+        <v>4625.5779</v>
       </c>
       <c r="G110" t="n">
-        <v>8844747.174699994</v>
+        <v>-225517.0511112984</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4275,33 +5018,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6</v>
+        <v>0.5986</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6112</v>
+        <v>0.5986</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6112</v>
+        <v>0.5986</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6</v>
+        <v>0.5986</v>
       </c>
       <c r="F111" t="n">
-        <v>321015.3658</v>
+        <v>297651.5375</v>
       </c>
       <c r="G111" t="n">
-        <v>9165762.540499995</v>
+        <v>-523168.5886112984</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4310,33 +5060,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6024</v>
+        <v>0.6007</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6112</v>
+        <v>0.6007</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6112</v>
+        <v>0.6007</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6024</v>
+        <v>0.6007</v>
       </c>
       <c r="F112" t="n">
-        <v>1042741.2895</v>
+        <v>2052538.9809</v>
       </c>
       <c r="G112" t="n">
-        <v>9165762.540499995</v>
+        <v>1529370.392288702</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4345,68 +5102,82 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6015</v>
+        <v>0.6065</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6015</v>
+        <v>0.6065</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6015</v>
+        <v>0.6065</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6015</v>
+        <v>0.6065</v>
       </c>
       <c r="F113" t="n">
-        <v>1688595.4533</v>
+        <v>903581.4389</v>
       </c>
       <c r="G113" t="n">
-        <v>7477167.087199994</v>
+        <v>2432951.831188702</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5989</v>
+        <v>0.6057</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6111</v>
+        <v>0.6057</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6111</v>
+        <v>0.6057</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5989</v>
+        <v>0.6057</v>
       </c>
       <c r="F114" t="n">
-        <v>1294122.4343</v>
+        <v>919107.6576</v>
       </c>
       <c r="G114" t="n">
-        <v>8771289.521499995</v>
+        <v>1513844.173588702</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4415,33 +5186,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.6001</v>
       </c>
       <c r="F115" t="n">
-        <v>1560208.9446</v>
+        <v>4625.5779</v>
       </c>
       <c r="G115" t="n">
-        <v>7211080.576899995</v>
+        <v>1509218.595688702</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4450,33 +5228,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5971</v>
+        <v>0.6002</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5971</v>
+        <v>0.6002</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5971</v>
+        <v>0.6002</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5971</v>
+        <v>0.6002</v>
       </c>
       <c r="F116" t="n">
-        <v>2059425.7</v>
+        <v>749467.118</v>
       </c>
       <c r="G116" t="n">
-        <v>5151654.876899995</v>
+        <v>2258685.713688701</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4485,33 +5270,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5952</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5951</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5952</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5951</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>1807248.2876</v>
+        <v>4570.1189</v>
       </c>
       <c r="G117" t="n">
-        <v>3344406.589299995</v>
+        <v>2263255.832588702</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4520,33 +5312,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.611</v>
+        <v>0.6006</v>
       </c>
       <c r="C118" t="n">
-        <v>0.611</v>
+        <v>0.6006</v>
       </c>
       <c r="D118" t="n">
-        <v>0.611</v>
+        <v>0.6006</v>
       </c>
       <c r="E118" t="n">
-        <v>0.611</v>
+        <v>0.6006</v>
       </c>
       <c r="F118" t="n">
-        <v>1337095.2472</v>
+        <v>682359.8053</v>
       </c>
       <c r="G118" t="n">
-        <v>4681501.836499995</v>
+        <v>1580896.027288701</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4555,33 +5354,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.599</v>
+        <v>0.6001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.599</v>
+        <v>0.6001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.599</v>
+        <v>0.6001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.599</v>
+        <v>0.6001</v>
       </c>
       <c r="F119" t="n">
-        <v>2082418.6352</v>
+        <v>24636.8942</v>
       </c>
       <c r="G119" t="n">
-        <v>2599083.201299995</v>
+        <v>1556259.133088701</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4590,33 +5396,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6025</v>
+        <v>0.6014</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6025</v>
+        <v>0.6014</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6025</v>
+        <v>0.6014</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6025</v>
+        <v>0.6014</v>
       </c>
       <c r="F120" t="n">
-        <v>1706968.8819</v>
+        <v>1334988.9374</v>
       </c>
       <c r="G120" t="n">
-        <v>4306052.083199995</v>
+        <v>2891248.070488702</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4625,33 +5438,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.611</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.611</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.611</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.611</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>16366.61211129296</v>
+        <v>874.0118</v>
       </c>
       <c r="G121" t="n">
-        <v>4322418.695311287</v>
+        <v>2892122.082288702</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4660,33 +5480,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6012</v>
+        <v>0.6041</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6012</v>
+        <v>0.6041</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6012</v>
+        <v>0.6041</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6012</v>
+        <v>0.6041</v>
       </c>
       <c r="F122" t="n">
-        <v>1973628.1758</v>
+        <v>843288.3522</v>
       </c>
       <c r="G122" t="n">
-        <v>2348790.519511287</v>
+        <v>2048833.730088701</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4695,33 +5522,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.606</v>
+        <v>0.6073</v>
       </c>
       <c r="C123" t="n">
-        <v>0.606</v>
+        <v>0.6073</v>
       </c>
       <c r="D123" t="n">
-        <v>0.606</v>
+        <v>0.6073</v>
       </c>
       <c r="E123" t="n">
-        <v>0.606</v>
+        <v>0.6073</v>
       </c>
       <c r="F123" t="n">
-        <v>1828090.5936</v>
+        <v>1767180.2997</v>
       </c>
       <c r="G123" t="n">
-        <v>4176881.113111287</v>
+        <v>3816014.029788702</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4730,33 +5564,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.611</v>
+        <v>0.6039</v>
       </c>
       <c r="C124" t="n">
-        <v>0.611</v>
+        <v>0.6039</v>
       </c>
       <c r="D124" t="n">
-        <v>0.611</v>
+        <v>0.6039</v>
       </c>
       <c r="E124" t="n">
-        <v>0.611</v>
+        <v>0.6039</v>
       </c>
       <c r="F124" t="n">
-        <v>191800.081588707</v>
+        <v>2092008.8831</v>
       </c>
       <c r="G124" t="n">
-        <v>4368681.194699994</v>
+        <v>1724005.146688702</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4765,33 +5606,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6111</v>
+        <v>0.6007</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6095</v>
+        <v>0.6007</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6111</v>
+        <v>0.6007</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6095</v>
+        <v>0.6007</v>
       </c>
       <c r="F125" t="n">
-        <v>2062212.6695</v>
+        <v>981330.2635</v>
       </c>
       <c r="G125" t="n">
-        <v>2306468.525199994</v>
+        <v>742674.8831887018</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4800,33 +5648,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6095</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6095</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6095</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6095</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>886034.3339</v>
+        <v>949.6057</v>
       </c>
       <c r="G126" t="n">
-        <v>2306468.525199994</v>
+        <v>743624.4888887018</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4835,33 +5690,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.611</v>
+        <v>0.6002</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6111</v>
+        <v>0.6002</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6111</v>
+        <v>0.6002</v>
       </c>
       <c r="E127" t="n">
-        <v>0.611</v>
+        <v>0.6002</v>
       </c>
       <c r="F127" t="n">
-        <v>484836.8578</v>
+        <v>17000</v>
       </c>
       <c r="G127" t="n">
-        <v>2791305.382999994</v>
+        <v>726624.4888887018</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4870,33 +5732,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6107</v>
+        <v>0.6034</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6107</v>
+        <v>0.6034</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6107</v>
+        <v>0.6034</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6107</v>
+        <v>0.6034</v>
       </c>
       <c r="F128" t="n">
-        <v>1802128.2172</v>
+        <v>1690856.8146</v>
       </c>
       <c r="G128" t="n">
-        <v>989177.1657999943</v>
+        <v>2417481.303488702</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4905,33 +5774,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.611</v>
+        <v>0.6012</v>
       </c>
       <c r="C129" t="n">
-        <v>0.611</v>
+        <v>0.6012</v>
       </c>
       <c r="D129" t="n">
-        <v>0.611</v>
+        <v>0.6012</v>
       </c>
       <c r="E129" t="n">
-        <v>0.611</v>
+        <v>0.6012</v>
       </c>
       <c r="F129" t="n">
-        <v>1406373.134</v>
+        <v>1810761.8624</v>
       </c>
       <c r="G129" t="n">
-        <v>2395550.299799995</v>
+        <v>606719.4410887016</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4940,33 +5816,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>1694.0474</v>
+        <v>884.1248000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>2397244.347199995</v>
+        <v>607603.5658887016</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4975,33 +5858,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6107</v>
+        <v>0.6068</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6095</v>
+        <v>0.6068</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6107</v>
+        <v>0.6068</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6095</v>
+        <v>0.6068</v>
       </c>
       <c r="F131" t="n">
-        <v>635987.7192112929</v>
+        <v>1308307.835</v>
       </c>
       <c r="G131" t="n">
-        <v>1761256.627988702</v>
+        <v>-700704.2691112984</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5010,33 +5900,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6111</v>
+        <v>0.6074000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>847.6165999999999</v>
+        <v>473757.9768</v>
       </c>
       <c r="G132" t="n">
-        <v>1762104.244588702</v>
+        <v>-226946.2923112984</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5045,33 +5942,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.608</v>
       </c>
       <c r="F133" t="n">
-        <v>1933787.2826</v>
+        <v>1087413.1185</v>
       </c>
       <c r="G133" t="n">
-        <v>-171683.0380112983</v>
+        <v>860466.8261887017</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5080,33 +5984,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6088</v>
+        <v>0.6082</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6088</v>
+        <v>0.6082</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6088</v>
+        <v>0.6082</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6088</v>
+        <v>0.6082</v>
       </c>
       <c r="F134" t="n">
-        <v>493881.902</v>
+        <v>857337.9578</v>
       </c>
       <c r="G134" t="n">
-        <v>322198.8639887017</v>
+        <v>1717804.783988702</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5115,243 +6026,304 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6111</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6111</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6111</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6111</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>828.4141</v>
+        <v>982027.7688</v>
       </c>
       <c r="G135" t="n">
-        <v>323027.2780887017</v>
+        <v>2699832.552788702</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6088</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6088</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6088</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6088</v>
       </c>
       <c r="F136" t="n">
-        <v>1366056.303</v>
+        <v>731688.5696</v>
       </c>
       <c r="G136" t="n">
-        <v>-1043029.024911298</v>
+        <v>1968143.983188702</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6093</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6093</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6093</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6093</v>
       </c>
       <c r="F137" t="n">
-        <v>1576697.3514</v>
+        <v>1142886.6734</v>
       </c>
       <c r="G137" t="n">
-        <v>533668.3264887016</v>
+        <v>3111030.656588702</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6079</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6079</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6079</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6079</v>
       </c>
       <c r="F138" t="n">
-        <v>1354494.287</v>
+        <v>1598241.1297</v>
       </c>
       <c r="G138" t="n">
-        <v>533668.3264887016</v>
+        <v>1512789.526888702</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6111</v>
+        <v>0.61</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6111</v>
+        <v>0.6145</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6111</v>
+        <v>0.6145</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6111</v>
+        <v>0.61</v>
       </c>
       <c r="F139" t="n">
-        <v>830.7834</v>
+        <v>252259.6444</v>
       </c>
       <c r="G139" t="n">
-        <v>534499.1098887016</v>
+        <v>1765049.171288702</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5986</v>
+        <v>0.6152</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5986</v>
+        <v>0.6152</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5986</v>
+        <v>0.6152</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5986</v>
+        <v>0.6152</v>
       </c>
       <c r="F140" t="n">
-        <v>1477708.554</v>
+        <v>1421963.3502</v>
       </c>
       <c r="G140" t="n">
-        <v>-943209.4441112984</v>
+        <v>3187012.521488702</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6086</v>
+        <v>0.6145</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6086</v>
+        <v>0.6145</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6086</v>
+        <v>0.6145</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6086</v>
+        <v>0.6145</v>
       </c>
       <c r="F141" t="n">
-        <v>739916.3612</v>
+        <v>195526.7092</v>
       </c>
       <c r="G141" t="n">
-        <v>-203293.0829112984</v>
+        <v>2991485.812288702</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5360,33 +6332,40 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.61</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.61</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.61</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.61</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>861.17</v>
+        <v>783001.1219</v>
       </c>
       <c r="G142" t="n">
-        <v>-202431.9129112984</v>
+        <v>3774486.934188702</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5395,33 +6374,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.6067</v>
+        <v>0.615</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6067</v>
+        <v>0.615</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6067</v>
+        <v>0.615</v>
       </c>
       <c r="E143" t="n">
-        <v>0.6067</v>
+        <v>0.615</v>
       </c>
       <c r="F143" t="n">
-        <v>1660292.0985</v>
+        <v>447237.9204</v>
       </c>
       <c r="G143" t="n">
-        <v>-1862724.011411299</v>
+        <v>3327249.013788702</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5430,33 +6416,40 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6069</v>
+        <v>0.6157</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6069</v>
+        <v>0.6157</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6069</v>
+        <v>0.6157</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6069</v>
+        <v>0.6157</v>
       </c>
       <c r="F144" t="n">
-        <v>1174179.5781</v>
+        <v>1597668.1743</v>
       </c>
       <c r="G144" t="n">
-        <v>-688544.4333112985</v>
+        <v>4924917.188088702</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5465,33 +6458,40 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6051</v>
+        <v>0.6159</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6051</v>
+        <v>0.65</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6051</v>
+        <v>0.65</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6051</v>
+        <v>0.6159</v>
       </c>
       <c r="F145" t="n">
-        <v>829783.2678</v>
+        <v>6843141.469112077</v>
       </c>
       <c r="G145" t="n">
-        <v>-1518327.701111299</v>
+        <v>11768058.65720078</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5500,33 +6500,40 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.6057</v>
+        <v>0.65</v>
       </c>
       <c r="C146" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="D146" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6057</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>1581721.0184</v>
+        <v>2631489.782397303</v>
       </c>
       <c r="G146" t="n">
-        <v>63393.31728870142</v>
+        <v>9136568.874803476</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5535,33 +6542,40 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6055</v>
+        <v>0.64</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6055</v>
+        <v>0.64</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6055</v>
+        <v>0.64</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6055</v>
+        <v>0.64</v>
       </c>
       <c r="F147" t="n">
-        <v>1299940.8865</v>
+        <v>27927.8029</v>
       </c>
       <c r="G147" t="n">
-        <v>-1236547.569211299</v>
+        <v>9136568.874803476</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5570,33 +6584,40 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.605</v>
+        <v>0.64</v>
       </c>
       <c r="C148" t="n">
-        <v>0.605</v>
+        <v>0.64</v>
       </c>
       <c r="D148" t="n">
-        <v>0.605</v>
+        <v>0.64</v>
       </c>
       <c r="E148" t="n">
-        <v>0.605</v>
+        <v>0.64</v>
       </c>
       <c r="F148" t="n">
-        <v>9892.623799999999</v>
+        <v>1704076.3806</v>
       </c>
       <c r="G148" t="n">
-        <v>-1246440.193011299</v>
+        <v>9136568.874803476</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5605,33 +6626,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.605</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>0.605</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="F149" t="n">
-        <v>1750643.7844</v>
+        <v>50000</v>
       </c>
       <c r="G149" t="n">
-        <v>504203.5913887015</v>
+        <v>9086568.874803476</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5640,33 +6668,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6005</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6005</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6005</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6005</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="F150" t="n">
-        <v>1370618.9662</v>
+        <v>1472588.5887</v>
       </c>
       <c r="G150" t="n">
-        <v>-866415.3748112984</v>
+        <v>10559157.46350348</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5675,33 +6710,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6036</v>
+        <v>0.6397</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6036</v>
+        <v>0.6397</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6036</v>
+        <v>0.6397</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6036</v>
+        <v>0.6397</v>
       </c>
       <c r="F151" t="n">
-        <v>636272.7458</v>
+        <v>858.3902</v>
       </c>
       <c r="G151" t="n">
-        <v>-230142.6290112984</v>
+        <v>10560015.85370348</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5710,33 +6752,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6397</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6397</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6397</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6397</v>
       </c>
       <c r="F152" t="n">
-        <v>4625.5779</v>
+        <v>886.8184</v>
       </c>
       <c r="G152" t="n">
-        <v>-225517.0511112984</v>
+        <v>10560015.85370348</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5745,74 +6794,88 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5986</v>
+        <v>0.6321</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5986</v>
+        <v>0.6321</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5986</v>
+        <v>0.6321</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5986</v>
+        <v>0.6321</v>
       </c>
       <c r="F153" t="n">
-        <v>297651.5375</v>
+        <v>1226123.061</v>
       </c>
       <c r="G153" t="n">
-        <v>-523168.5886112984</v>
+        <v>9333892.792703476</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M153" t="n">
-        <v>1</v>
-      </c>
+        <v>1.042563805104408</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6007</v>
+        <v>0.6335</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6007</v>
+        <v>0.6335</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6007</v>
+        <v>0.6335</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6007</v>
+        <v>0.6335</v>
       </c>
       <c r="F154" t="n">
-        <v>2052538.9809</v>
+        <v>1448643.2394</v>
       </c>
       <c r="G154" t="n">
-        <v>1529370.392288702</v>
+        <v>10782536.03210348</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5820,34 +6883,35 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6065</v>
+        <v>0.6301</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6065</v>
+        <v>0.6301</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6065</v>
+        <v>0.6301</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6065</v>
+        <v>0.6301</v>
       </c>
       <c r="F155" t="n">
-        <v>903581.4389</v>
+        <v>1508622.641</v>
       </c>
       <c r="G155" t="n">
-        <v>2432951.831188702</v>
+        <v>9273913.391103474</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5855,34 +6919,35 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6057</v>
+        <v>0.6304999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6057</v>
+        <v>0.6304999999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6057</v>
+        <v>0.6304999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6057</v>
+        <v>0.6304999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>919107.6576</v>
+        <v>1380514.6556</v>
       </c>
       <c r="G156" t="n">
-        <v>1513844.173588702</v>
+        <v>10654428.04670347</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -5890,34 +6955,35 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6001</v>
+        <v>0.636</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6001</v>
+        <v>0.636</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6001</v>
+        <v>0.636</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6001</v>
+        <v>0.636</v>
       </c>
       <c r="F157" t="n">
-        <v>4625.5779</v>
+        <v>1442220.7378</v>
       </c>
       <c r="G157" t="n">
-        <v>1509218.595688702</v>
+        <v>12096648.78450347</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -5925,34 +6991,35 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6002</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6002</v>
+        <v>0.62</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6002</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6002</v>
+        <v>0.62</v>
       </c>
       <c r="F158" t="n">
-        <v>749467.118</v>
+        <v>564533.1161</v>
       </c>
       <c r="G158" t="n">
-        <v>2258685.713688701</v>
+        <v>11532115.66840347</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -5960,34 +7027,35 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6177</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6171</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6177</v>
       </c>
       <c r="E159" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6171</v>
       </c>
       <c r="F159" t="n">
-        <v>4570.1189</v>
+        <v>297651.5375</v>
       </c>
       <c r="G159" t="n">
-        <v>2263255.832588702</v>
+        <v>11234464.13090347</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -5995,28 +7063,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.6006</v>
+        <v>0.62</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6006</v>
+        <v>0.62</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6006</v>
+        <v>0.62</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6006</v>
+        <v>0.62</v>
       </c>
       <c r="F160" t="n">
-        <v>682359.8053</v>
+        <v>1098782.8234</v>
       </c>
       <c r="G160" t="n">
-        <v>1580896.027288701</v>
+        <v>12333246.95430348</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6030,1492 +7099,7 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.6001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.6001</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.6001</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.6001</v>
-      </c>
-      <c r="F161" t="n">
-        <v>24636.8942</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1556259.133088701</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.6014</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1334988.9374</v>
-      </c>
-      <c r="G162" t="n">
-        <v>2891248.070488702</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="F163" t="n">
-        <v>874.0118</v>
-      </c>
-      <c r="G163" t="n">
-        <v>2892122.082288702</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.6041</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.6041</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.6041</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.6041</v>
-      </c>
-      <c r="F164" t="n">
-        <v>843288.3522</v>
-      </c>
-      <c r="G164" t="n">
-        <v>2048833.730088701</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.6073</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.6073</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.6073</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.6073</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1767180.2997</v>
-      </c>
-      <c r="G165" t="n">
-        <v>3816014.029788702</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.6039</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.6039</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.6039</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.6039</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2092008.8831</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1724005.146688702</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.6007</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.6007</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.6007</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.6007</v>
-      </c>
-      <c r="F167" t="n">
-        <v>981330.2635</v>
-      </c>
-      <c r="G167" t="n">
-        <v>742674.8831887018</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="F168" t="n">
-        <v>949.6057</v>
-      </c>
-      <c r="G168" t="n">
-        <v>743624.4888887018</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="F169" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>726624.4888887018</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1690856.8146</v>
-      </c>
-      <c r="G170" t="n">
-        <v>2417481.303488702</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1810761.8624</v>
-      </c>
-      <c r="G171" t="n">
-        <v>606719.4410887016</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="F172" t="n">
-        <v>884.1248000000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>607603.5658887016</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.6002</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.6068</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.6068</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.6068</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.6068</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1308307.835</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-700704.2691112984</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.6074000000000001</v>
-      </c>
-      <c r="F174" t="n">
-        <v>473757.9768</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-226946.2923112984</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="C175" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.608</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1087413.1185</v>
-      </c>
-      <c r="G175" t="n">
-        <v>860466.8261887017</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.6082</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.6082</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.6082</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.6082</v>
-      </c>
-      <c r="F176" t="n">
-        <v>857337.9578</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1717804.783988702</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.6094000000000001</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.6094000000000001</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.6094000000000001</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.6094000000000001</v>
-      </c>
-      <c r="F177" t="n">
-        <v>982027.7688</v>
-      </c>
-      <c r="G177" t="n">
-        <v>2699832.552788702</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.6088</v>
-      </c>
-      <c r="F178" t="n">
-        <v>731688.5696</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1968143.983188702</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.6093</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1142886.6734</v>
-      </c>
-      <c r="G179" t="n">
-        <v>3111030.656588702</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>0.6079</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.6079</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0.6079</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.6079</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1598241.1297</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1512789.526888702</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F181" t="n">
-        <v>252259.6444</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1765049.171288702</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.6152</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.6152</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0.6152</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.6152</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1421963.3502</v>
-      </c>
-      <c r="G182" t="n">
-        <v>3187012.521488702</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.6145</v>
-      </c>
-      <c r="F183" t="n">
-        <v>195526.7092</v>
-      </c>
-      <c r="G183" t="n">
-        <v>2991485.812288702</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.6153999999999999</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.6153999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.6153999999999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.6153999999999999</v>
-      </c>
-      <c r="F184" t="n">
-        <v>783001.1219</v>
-      </c>
-      <c r="G184" t="n">
-        <v>3774486.934188702</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="F185" t="n">
-        <v>447237.9204</v>
-      </c>
-      <c r="G185" t="n">
-        <v>3327249.013788702</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.6157</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1597668.1743</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4924917.188088702</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.6159</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6843141.469112077</v>
-      </c>
-      <c r="G187" t="n">
-        <v>11768058.65720078</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.6153999999999999</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2631489.782397303</v>
-      </c>
-      <c r="G188" t="n">
-        <v>9136568.874803476</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F189" t="n">
-        <v>27927.8029</v>
-      </c>
-      <c r="G189" t="n">
-        <v>9136568.874803476</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1704076.3806</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9136568.874803476</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="F191" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9086568.874803476</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>0.6284999999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.6284999999999999</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0.6284999999999999</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.6284999999999999</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1472588.5887</v>
-      </c>
-      <c r="G192" t="n">
-        <v>10559157.46350348</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="F193" t="n">
-        <v>858.3902</v>
-      </c>
-      <c r="G193" t="n">
-        <v>10560015.85370348</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="F194" t="n">
-        <v>886.8184</v>
-      </c>
-      <c r="G194" t="n">
-        <v>10560015.85370348</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>0.6321</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.6321</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.6321</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.6321</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1226123.061</v>
-      </c>
-      <c r="G195" t="n">
-        <v>9333892.792703476</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>0.6335</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.6335</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.6335</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.6335</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1448643.2394</v>
-      </c>
-      <c r="G196" t="n">
-        <v>10782536.03210348</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>0.6301</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.6301</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.6301</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0.6301</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1508622.641</v>
-      </c>
-      <c r="G197" t="n">
-        <v>9273913.391103474</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>0.6304999999999999</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.6304999999999999</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.6304999999999999</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.6304999999999999</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1380514.6556</v>
-      </c>
-      <c r="G198" t="n">
-        <v>10654428.04670347</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1442220.7378</v>
-      </c>
-      <c r="G199" t="n">
-        <v>12096648.78450347</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.6264999999999999</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F200" t="n">
-        <v>564533.1161</v>
-      </c>
-      <c r="G200" t="n">
-        <v>11532115.66840347</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>0.6177</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.6171</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0.6177</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.6171</v>
-      </c>
-      <c r="F201" t="n">
-        <v>297651.5375</v>
-      </c>
-      <c r="G201" t="n">
-        <v>11234464.13090347</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1098782.8234</v>
-      </c>
-      <c r="G202" t="n">
-        <v>12333246.95430348</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="D2" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.603</v>
+        <v>0.6029</v>
       </c>
       <c r="F2" t="n">
-        <v>2735.7311</v>
+        <v>1746113.0516</v>
       </c>
       <c r="G2" t="n">
-        <v>14569202.1986</v>
+        <v>7038433.644799998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.603</v>
+        <v>0.5998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.603</v>
+        <v>0.5998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.603</v>
+        <v>0.5998</v>
       </c>
       <c r="E3" t="n">
-        <v>0.603</v>
+        <v>0.5998</v>
       </c>
       <c r="F3" t="n">
-        <v>205309.5122</v>
+        <v>1966174.514</v>
       </c>
       <c r="G3" t="n">
-        <v>14569202.1986</v>
+        <v>5072259.130799998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.603</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.603</v>
+        <v>0.5931</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603</v>
+        <v>0.5931</v>
       </c>
       <c r="D4" t="n">
-        <v>0.603</v>
+        <v>0.5931</v>
       </c>
       <c r="E4" t="n">
-        <v>0.603</v>
+        <v>0.5931</v>
       </c>
       <c r="F4" t="n">
-        <v>209351.0502</v>
+        <v>211458.8255</v>
       </c>
       <c r="G4" t="n">
-        <v>14569202.1986</v>
+        <v>4860800.305299997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.603</v>
+        <v>0.593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.603</v>
+        <v>0.593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.603</v>
+        <v>0.593</v>
       </c>
       <c r="E5" t="n">
-        <v>0.603</v>
+        <v>0.593</v>
       </c>
       <c r="F5" t="n">
-        <v>200957.7755</v>
+        <v>2036283.0867</v>
       </c>
       <c r="G5" t="n">
-        <v>14569202.1986</v>
+        <v>2824517.218599997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.593</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.593</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.593</v>
       </c>
       <c r="F6" t="n">
-        <v>1246615.0795</v>
+        <v>211458.8255</v>
       </c>
       <c r="G6" t="n">
-        <v>13322587.1191</v>
+        <v>2824517.218599997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.603</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.602</v>
+        <v>0.5931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.602</v>
+        <v>0.5931</v>
       </c>
       <c r="D7" t="n">
-        <v>0.602</v>
+        <v>0.5931</v>
       </c>
       <c r="E7" t="n">
-        <v>0.602</v>
+        <v>0.5931</v>
       </c>
       <c r="F7" t="n">
-        <v>1863864.1937</v>
+        <v>241947.0881</v>
       </c>
       <c r="G7" t="n">
-        <v>15186451.3128</v>
+        <v>3066464.306699997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.6012999999999999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.599</v>
+        <v>0.5931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.599</v>
+        <v>0.5931</v>
       </c>
       <c r="D8" t="n">
-        <v>0.599</v>
+        <v>0.5931</v>
       </c>
       <c r="E8" t="n">
-        <v>0.599</v>
+        <v>0.5931</v>
       </c>
       <c r="F8" t="n">
-        <v>1269721.6185</v>
+        <v>49872.689</v>
       </c>
       <c r="G8" t="n">
-        <v>13916729.6943</v>
+        <v>3066464.306699997</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -710,16 +678,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.602</v>
+        <v>0.5931</v>
       </c>
       <c r="K8" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5931</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,22 +694,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5984</v>
+        <v>0.5942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5984</v>
+        <v>0.5942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5984</v>
+        <v>0.5942</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5984</v>
+        <v>0.5942</v>
       </c>
       <c r="F9" t="n">
-        <v>1969569.7056</v>
+        <v>794293.8724</v>
       </c>
       <c r="G9" t="n">
-        <v>11947159.9887</v>
+        <v>3860758.179099998</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -754,12 +718,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.599</v>
+        <v>0.5931</v>
       </c>
       <c r="K9" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>0.5931</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -770,22 +738,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.603</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.603</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>3728547.4477</v>
+        <v>1208195.4068</v>
       </c>
       <c r="G10" t="n">
-        <v>15675707.4364</v>
+        <v>5068953.585899998</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -794,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5984</v>
+        <v>0.5942</v>
       </c>
       <c r="K10" t="n">
-        <v>0.599</v>
+        <v>0.5931</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -814,22 +782,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.604</v>
+        <v>0.6022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6034</v>
+        <v>0.6022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.604</v>
+        <v>0.6022</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6034</v>
+        <v>0.6022</v>
       </c>
       <c r="F11" t="n">
-        <v>539648.4659</v>
+        <v>505751.6841</v>
       </c>
       <c r="G11" t="n">
-        <v>16215355.9023</v>
+        <v>5574705.269999998</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -838,16 +806,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -858,22 +822,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.604</v>
+        <v>0.5947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.604</v>
+        <v>0.5947</v>
       </c>
       <c r="D12" t="n">
-        <v>0.604</v>
+        <v>0.5947</v>
       </c>
       <c r="E12" t="n">
-        <v>0.604</v>
+        <v>0.5947</v>
       </c>
       <c r="F12" t="n">
-        <v>855.6217</v>
+        <v>1337881.5814</v>
       </c>
       <c r="G12" t="n">
-        <v>16216211.524</v>
+        <v>4236823.688599998</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -882,12 +846,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6034</v>
+        <v>0.6022</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -898,32 +866,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="F13" t="n">
-        <v>71452.5523</v>
+        <v>997506.1124</v>
       </c>
       <c r="G13" t="n">
-        <v>16144758.9717</v>
+        <v>5234329.800999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.5947</v>
+      </c>
       <c r="K13" t="n">
-        <v>0.6034</v>
+        <v>0.5993000000000001</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -940,22 +910,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6002</v>
+        <v>0.5954</v>
       </c>
       <c r="C14" t="n">
-        <v>0.604</v>
+        <v>0.5954</v>
       </c>
       <c r="D14" t="n">
-        <v>0.604</v>
+        <v>0.5954</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6002</v>
+        <v>0.5954</v>
       </c>
       <c r="F14" t="n">
-        <v>1537011.6379</v>
+        <v>1681404.9331</v>
       </c>
       <c r="G14" t="n">
-        <v>17681770.6096</v>
+        <v>3552924.867899998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -964,14 +934,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -982,22 +946,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604</v>
+        <v>0.5931</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6112</v>
+        <v>0.5931</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="F15" t="n">
-        <v>119313.2727</v>
+        <v>268801.0603</v>
       </c>
       <c r="G15" t="n">
-        <v>17562457.3369</v>
+        <v>3284123.807599998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1006,14 +970,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1024,22 +982,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6071</v>
+        <v>0.6026</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6071</v>
+        <v>0.6026</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6026</v>
       </c>
       <c r="F16" t="n">
-        <v>1505126.8006</v>
+        <v>704148.4545</v>
       </c>
       <c r="G16" t="n">
-        <v>19067584.1375</v>
+        <v>3988272.262099998</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1048,16 +1006,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.593</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1068,36 +1022,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6077</v>
+        <v>0.6008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6095</v>
+        <v>0.6008</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6095</v>
+        <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6077</v>
+        <v>0.6008</v>
       </c>
       <c r="F17" t="n">
-        <v>44628.8293</v>
+        <v>1071311.0234</v>
       </c>
       <c r="G17" t="n">
-        <v>19112212.9668</v>
+        <v>2916961.238699998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.6026</v>
+      </c>
       <c r="K17" t="n">
-        <v>0.6034</v>
+        <v>0.593</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1110,22 +1066,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6</v>
+        <v>0.5946</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0.5946</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6</v>
+        <v>0.5946</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6</v>
+        <v>0.5946</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>1460601.3646</v>
       </c>
       <c r="G18" t="n">
-        <v>19111212.9668</v>
+        <v>1456359.874099998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1135,11 +1091,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>0.6034</v>
+        <v>0.593</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1152,38 +1108,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6107</v>
+        <v>0.5987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6107</v>
+        <v>0.5987</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6107</v>
+        <v>0.5987</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6107</v>
+        <v>0.5987</v>
       </c>
       <c r="F19" t="n">
-        <v>846.8079</v>
+        <v>1209764.4542</v>
       </c>
       <c r="G19" t="n">
-        <v>19112059.7747</v>
+        <v>2666124.328299998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.5946</v>
+      </c>
       <c r="K19" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.5946</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1194,36 +1148,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6108</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6108</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>5041.0296</v>
+        <v>1319491.8816</v>
       </c>
       <c r="G20" t="n">
-        <v>19117100.8043</v>
+        <v>1346632.446699998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.5987</v>
+      </c>
       <c r="K20" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1236,36 +1192,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6008</v>
+        <v>0.5984</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6108</v>
+        <v>0.5984</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6108</v>
+        <v>0.5984</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>0.5984</v>
       </c>
       <c r="F21" t="n">
-        <v>1865841.6955</v>
+        <v>1467820.2155</v>
       </c>
       <c r="G21" t="n">
-        <v>19117100.8043</v>
+        <v>2814452.662199998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.5943000000000001</v>
+      </c>
       <c r="K21" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1278,36 +1236,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6</v>
+        <v>0.6012</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.6012</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>834</v>
+        <v>884267.8269</v>
       </c>
       <c r="G22" t="n">
-        <v>19116266.8043</v>
+        <v>1930184.835299998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K22" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1320,32 +1280,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6108</v>
+        <v>0.5977</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6108</v>
+        <v>0.5977</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6108</v>
+        <v>0.5977</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6108</v>
+        <v>0.5977</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1061999999999</v>
+        <v>1829958.2377</v>
       </c>
       <c r="G23" t="n">
-        <v>19117087.91049999</v>
+        <v>3760143.072999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
       <c r="K23" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1362,22 +1324,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6039</v>
+        <v>0.6028</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6108</v>
+        <v>0.6029</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6108</v>
+        <v>0.6029</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.6028</v>
       </c>
       <c r="F24" t="n">
-        <v>475664.3388</v>
+        <v>297651.5375</v>
       </c>
       <c r="G24" t="n">
-        <v>19117087.91049999</v>
+        <v>4057794.610499998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1387,7 +1349,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1404,22 +1366,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5984</v>
+        <v>0.5955</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6108</v>
+        <v>0.5955</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6108</v>
+        <v>0.5955</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5984</v>
+        <v>0.5955</v>
       </c>
       <c r="F25" t="n">
-        <v>432987.4372</v>
+        <v>1846569.0737</v>
       </c>
       <c r="G25" t="n">
-        <v>19117087.91049999</v>
+        <v>2211225.536799998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1429,7 +1391,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1446,22 +1408,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6106</v>
+        <v>0.5976</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6106</v>
+        <v>0.5976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6106</v>
+        <v>0.5976</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6106</v>
+        <v>0.5976</v>
       </c>
       <c r="F26" t="n">
-        <v>471793.6117</v>
+        <v>1422054.9008</v>
       </c>
       <c r="G26" t="n">
-        <v>18645294.2988</v>
+        <v>3633280.437599998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1471,7 +1433,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1488,22 +1450,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5992</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5992</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5992</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5992</v>
       </c>
       <c r="F27" t="n">
-        <v>52239.2805</v>
+        <v>789420.9409</v>
       </c>
       <c r="G27" t="n">
-        <v>18593055.0183</v>
+        <v>4422701.378499998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1513,7 +1475,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1530,22 +1492,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6108</v>
+        <v>0.6024</v>
       </c>
       <c r="F28" t="n">
-        <v>845.7286</v>
+        <v>841.5779</v>
       </c>
       <c r="G28" t="n">
-        <v>18593900.7469</v>
+        <v>4423542.956399998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1555,7 +1517,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1572,22 +1534,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.603</v>
+        <v>0.5971</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6108</v>
+        <v>0.5971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6108</v>
+        <v>0.5971</v>
       </c>
       <c r="E29" t="n">
-        <v>0.603</v>
+        <v>0.5971</v>
       </c>
       <c r="F29" t="n">
-        <v>1926114.2175</v>
+        <v>786567.0036000001</v>
       </c>
       <c r="G29" t="n">
-        <v>18593900.7469</v>
+        <v>3636975.952799998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1597,7 +1559,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1614,22 +1576,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6048</v>
+        <v>0.6024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6048</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6048</v>
+        <v>0.6024</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6048</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>450812.675</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="n">
-        <v>18143088.0719</v>
+        <v>3632975.952799998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1639,7 +1601,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1656,22 +1618,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6108</v>
+        <v>0.5965</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6108</v>
+        <v>0.5965</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6108</v>
+        <v>0.5965</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6108</v>
+        <v>0.5965</v>
       </c>
       <c r="F31" t="n">
-        <v>855.2603</v>
+        <v>638513.4954</v>
       </c>
       <c r="G31" t="n">
-        <v>18143943.33219999</v>
+        <v>4271489.448199998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1681,7 +1643,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1698,22 +1660,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6098</v>
+        <v>0.5999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6098</v>
+        <v>0.5999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6098</v>
+        <v>0.5999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6098</v>
+        <v>0.5999</v>
       </c>
       <c r="F32" t="n">
-        <v>1691158.6939</v>
+        <v>1353012.5004</v>
       </c>
       <c r="G32" t="n">
-        <v>16452784.63829999</v>
+        <v>5624501.948599998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1723,7 +1685,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1740,22 +1702,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6108</v>
+        <v>0.6012</v>
       </c>
       <c r="F33" t="n">
-        <v>859.5497</v>
+        <v>741210.028</v>
       </c>
       <c r="G33" t="n">
-        <v>16453644.18799999</v>
+        <v>6365711.976599998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1765,7 +1727,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1782,22 +1744,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6075</v>
+        <v>0.5933</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6075</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6075</v>
+        <v>0.5933</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6075</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>1973509.4727</v>
+        <v>1401808.7099</v>
       </c>
       <c r="G34" t="n">
-        <v>14480134.71529999</v>
+        <v>4963903.266699998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1807,7 +1769,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1824,22 +1786,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6108</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6108</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>825.1790999999999</v>
+        <v>2877986.3401</v>
       </c>
       <c r="G35" t="n">
-        <v>14480959.89439999</v>
+        <v>4963903.266699998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1849,7 +1811,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1866,22 +1828,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6095</v>
+        <v>0.5959</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6095</v>
+        <v>0.5959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6095</v>
+        <v>0.5959</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6095</v>
+        <v>0.5959</v>
       </c>
       <c r="F36" t="n">
-        <v>1469388.9861</v>
+        <v>1560116.4089</v>
       </c>
       <c r="G36" t="n">
-        <v>13011570.90829999</v>
+        <v>6524019.675599998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1891,7 +1853,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1908,32 +1870,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="F37" t="n">
-        <v>827.5398</v>
+        <v>400000</v>
       </c>
       <c r="G37" t="n">
-        <v>13012398.44809999</v>
+        <v>6124019.675599998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.5959</v>
+      </c>
       <c r="K37" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1950,32 +1914,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6108</v>
+        <v>0.5933</v>
       </c>
       <c r="F38" t="n">
-        <v>3299.3318</v>
+        <v>200000</v>
       </c>
       <c r="G38" t="n">
-        <v>13012398.44809999</v>
+        <v>6124019.675599998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.5933</v>
+      </c>
       <c r="K38" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1992,32 +1958,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6024</v>
+        <v>0.5933</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6024</v>
+        <v>0.5933</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6024</v>
+        <v>0.5933</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6024</v>
+        <v>0.5933</v>
       </c>
       <c r="F39" t="n">
-        <v>1682669.5467</v>
+        <v>394113.2594</v>
       </c>
       <c r="G39" t="n">
-        <v>11329728.90139999</v>
+        <v>6124019.675599998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.5933</v>
+      </c>
       <c r="K39" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2034,32 +2002,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6039</v>
+        <v>0.5933</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6039</v>
+        <v>0.6018</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6039</v>
+        <v>0.6018</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6039</v>
+        <v>0.5933</v>
       </c>
       <c r="F40" t="n">
-        <v>552909.3443</v>
+        <v>926418.3773000001</v>
       </c>
       <c r="G40" t="n">
-        <v>11882638.24569999</v>
+        <v>7050438.052899998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.5933</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2076,32 +2046,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>4110.9159</v>
+        <v>200000</v>
       </c>
       <c r="G41" t="n">
-        <v>11878527.32979999</v>
+        <v>6850438.052899998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.6018</v>
+      </c>
       <c r="K41" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2118,32 +2090,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6017</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6017</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6017</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6017</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>2059075.3008</v>
+        <v>1245269.9125</v>
       </c>
       <c r="G42" t="n">
-        <v>13937602.63059999</v>
+        <v>8095707.965399997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.5931999999999999</v>
+      </c>
       <c r="K42" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2160,32 +2134,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.601</v>
+        <v>0.5946</v>
       </c>
       <c r="C43" t="n">
-        <v>0.601</v>
+        <v>0.5946</v>
       </c>
       <c r="D43" t="n">
-        <v>0.601</v>
+        <v>0.5946</v>
       </c>
       <c r="E43" t="n">
-        <v>0.601</v>
+        <v>0.5946</v>
       </c>
       <c r="F43" t="n">
-        <v>512651.227</v>
+        <v>552946.9799</v>
       </c>
       <c r="G43" t="n">
-        <v>13424951.40359999</v>
+        <v>7542760.985499998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.5953000000000001</v>
+      </c>
       <c r="K43" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2202,32 +2178,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6004</v>
+        <v>0.5971</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6004</v>
+        <v>0.5971</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6004</v>
+        <v>0.5971</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6004</v>
+        <v>0.5971</v>
       </c>
       <c r="F44" t="n">
-        <v>1450854.3884</v>
+        <v>1587990.1228</v>
       </c>
       <c r="G44" t="n">
-        <v>11974097.01519999</v>
+        <v>9130751.108299997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.5946</v>
+      </c>
       <c r="K44" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2244,32 +2222,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5976</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5976</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5976</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5976</v>
       </c>
       <c r="F45" t="n">
-        <v>374750.5559</v>
+        <v>936545.3644</v>
       </c>
       <c r="G45" t="n">
-        <v>11599346.45929999</v>
+        <v>10067296.4727</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.5971</v>
+      </c>
       <c r="K45" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2286,32 +2266,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>1310516.5957</v>
+        <v>200000</v>
       </c>
       <c r="G46" t="n">
-        <v>11599346.45929999</v>
+        <v>9867296.472699996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.5976</v>
+      </c>
       <c r="K46" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2328,32 +2310,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5936</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5936</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>194234.9154</v>
+        <v>200000</v>
       </c>
       <c r="G47" t="n">
-        <v>11599346.45929999</v>
+        <v>9867296.472699996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
       <c r="K47" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2370,32 +2354,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5964</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5964</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5964</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5964</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>439341.4211</v>
+        <v>16879.2245</v>
       </c>
       <c r="G48" t="n">
-        <v>11160005.03819999</v>
+        <v>9867296.472699996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
       <c r="K48" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2412,22 +2398,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5942</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5942</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5942</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5942</v>
       </c>
       <c r="F49" t="n">
-        <v>874.6102</v>
+        <v>2140218.0927</v>
       </c>
       <c r="G49" t="n">
-        <v>11160879.64839999</v>
+        <v>12007514.5654</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2436,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5964</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2456,22 +2442,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5935</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5989</v>
+        <v>0.5935</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5989</v>
+        <v>0.5935</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5935</v>
       </c>
       <c r="F50" t="n">
-        <v>28582.9756</v>
+        <v>506291.7849</v>
       </c>
       <c r="G50" t="n">
-        <v>11189462.62399999</v>
+        <v>11501222.7805</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2480,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5983000000000001</v>
+        <v>0.5942</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2500,22 +2486,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5986</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5986</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5986</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5986</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>770962.5823</v>
+        <v>200000</v>
       </c>
       <c r="G51" t="n">
-        <v>10418500.04169999</v>
+        <v>11301222.7805</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2524,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5989</v>
+        <v>0.5935</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2544,22 +2530,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5967</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5967</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5967</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5967</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>923775.1647</v>
+        <v>3357727.382</v>
       </c>
       <c r="G52" t="n">
-        <v>9494724.876999995</v>
+        <v>11301222.7805</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2568,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5986</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2588,32 +2574,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5956</v>
+        <v>0.5955</v>
       </c>
       <c r="C53" t="n">
         <v>0.5955</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5956</v>
+        <v>0.5955</v>
       </c>
       <c r="E53" t="n">
         <v>0.5955</v>
       </c>
       <c r="F53" t="n">
-        <v>506752.1151</v>
+        <v>2104150.141</v>
       </c>
       <c r="G53" t="n">
-        <v>8987972.761899995</v>
+        <v>13405372.9215</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.5931999999999999</v>
+      </c>
       <c r="K53" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2630,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5989</v>
+        <v>0.5949</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5989</v>
+        <v>0.5949</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5989</v>
+        <v>0.5949</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5989</v>
+        <v>0.5949</v>
       </c>
       <c r="F54" t="n">
-        <v>1306050.9242</v>
+        <v>2064543.1308</v>
       </c>
       <c r="G54" t="n">
-        <v>10294023.68609999</v>
+        <v>11340829.7907</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2657,7 +2645,7 @@
         <v>0.5955</v>
       </c>
       <c r="K54" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2674,32 +2662,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6016</v>
+        <v>0.5955</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6016</v>
+        <v>0.5955</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6016</v>
+        <v>0.5955</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6016</v>
+        <v>0.5955</v>
       </c>
       <c r="F55" t="n">
-        <v>1352385.7244</v>
+        <v>1995671.2962</v>
       </c>
       <c r="G55" t="n">
-        <v>11646409.4105</v>
+        <v>13336501.0869</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.5949</v>
+      </c>
       <c r="K55" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2716,22 +2706,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6017</v>
+        <v>0.596</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6017</v>
+        <v>0.596</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6017</v>
+        <v>0.596</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6017</v>
+        <v>0.596</v>
       </c>
       <c r="F56" t="n">
-        <v>1374844.9308</v>
+        <v>483863.2636</v>
       </c>
       <c r="G56" t="n">
-        <v>13021254.3413</v>
+        <v>13820364.3505</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2740,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6016</v>
+        <v>0.5955</v>
       </c>
       <c r="K56" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2760,32 +2750,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6018</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6018</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6018</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6018</v>
       </c>
       <c r="F57" t="n">
-        <v>1854623.5131</v>
+        <v>854.6952</v>
       </c>
       <c r="G57" t="n">
-        <v>14875877.8544</v>
+        <v>13821219.0457</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.596</v>
+      </c>
       <c r="K57" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2802,22 +2794,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6011</v>
+        <v>0.5964</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6011</v>
+        <v>0.5964</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6011</v>
+        <v>0.5964</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6011</v>
+        <v>0.5964</v>
       </c>
       <c r="F58" t="n">
-        <v>2054074.9316</v>
+        <v>1130707.1425</v>
       </c>
       <c r="G58" t="n">
-        <v>12821802.9228</v>
+        <v>12690511.9032</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -2826,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6018</v>
       </c>
       <c r="K58" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2846,22 +2838,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="F59" t="n">
-        <v>849.3155</v>
+        <v>1399980.303</v>
       </c>
       <c r="G59" t="n">
-        <v>12822652.2383</v>
+        <v>14090492.2062</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -2870,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6011</v>
+        <v>0.5964</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2890,22 +2882,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6032</v>
+        <v>0.6018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6032</v>
+        <v>0.6028</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6032</v>
+        <v>0.6028</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6032</v>
+        <v>0.6018</v>
       </c>
       <c r="F60" t="n">
-        <v>915636.2868</v>
+        <v>5204.7347</v>
       </c>
       <c r="G60" t="n">
-        <v>11907015.95149999</v>
+        <v>14095696.9409</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -2914,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2934,32 +2926,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5956</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5956</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5956</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5956</v>
       </c>
       <c r="F61" t="n">
-        <v>851.7437</v>
+        <v>1382632.1318</v>
       </c>
       <c r="G61" t="n">
-        <v>11907867.69519999</v>
+        <v>12713064.8091</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.6028</v>
+      </c>
       <c r="K61" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2976,34 +2970,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6005</v>
+        <v>0.5945</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6005</v>
+        <v>0.5945</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6005</v>
+        <v>0.5945</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6005</v>
+        <v>0.5945</v>
       </c>
       <c r="F62" t="n">
-        <v>1215334.1918</v>
+        <v>1558610.7223</v>
       </c>
       <c r="G62" t="n">
-        <v>10692533.50339999</v>
+        <v>11154454.0868</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0.6042999999999999</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3020,32 +3012,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.5999</v>
       </c>
       <c r="F63" t="n">
-        <v>856.4077</v>
+        <v>1067798.7773</v>
       </c>
       <c r="G63" t="n">
-        <v>10693389.91109999</v>
+        <v>12222252.8641</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.5945</v>
+      </c>
       <c r="K63" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3062,22 +3056,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6017</v>
+        <v>0.6</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6017</v>
+        <v>0.6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6017</v>
+        <v>0.6</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6017</v>
+        <v>0.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1275673.6399</v>
+        <v>437270.7523</v>
       </c>
       <c r="G64" t="n">
-        <v>9417716.271199994</v>
+        <v>12659523.6164</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3087,7 +3081,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3104,22 +3098,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="F65" t="n">
-        <v>863.3199</v>
+        <v>854.6015</v>
       </c>
       <c r="G65" t="n">
-        <v>9418579.591099994</v>
+        <v>12660378.2179</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3129,7 +3123,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3146,22 +3140,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6</v>
+        <v>0.6019</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6</v>
+        <v>0.6024</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6</v>
+        <v>0.6024</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6</v>
+        <v>0.6019</v>
       </c>
       <c r="F66" t="n">
-        <v>1491235.0493</v>
+        <v>1391424.4827</v>
       </c>
       <c r="G66" t="n">
-        <v>7927344.541799994</v>
+        <v>12660378.2179</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3171,7 +3165,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3188,22 +3182,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6016</v>
+        <v>0.6024</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6016</v>
+        <v>0.6024</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6016</v>
+        <v>0.6024</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6016</v>
+        <v>0.6024</v>
       </c>
       <c r="F67" t="n">
-        <v>916573.8403</v>
+        <v>1712162.3563</v>
       </c>
       <c r="G67" t="n">
-        <v>8843918.382099994</v>
+        <v>12660378.2179</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3213,7 +3207,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3230,22 +3224,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6027</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6027</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6042999999999999</v>
+        <v>0.6024</v>
       </c>
       <c r="F68" t="n">
-        <v>828.7926</v>
+        <v>1426853.4357</v>
       </c>
       <c r="G68" t="n">
-        <v>8844747.174699994</v>
+        <v>14087231.6536</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3255,7 +3249,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3272,22 +3266,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6</v>
+        <v>0.6028</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6112</v>
+        <v>0.6028</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6112</v>
+        <v>0.6028</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6</v>
+        <v>0.6028</v>
       </c>
       <c r="F69" t="n">
-        <v>321015.3658</v>
+        <v>270217.3505</v>
       </c>
       <c r="G69" t="n">
-        <v>9165762.540499995</v>
+        <v>14357449.0041</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3297,7 +3291,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3314,22 +3308,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6024</v>
+        <v>0.6029</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6112</v>
+        <v>0.6029</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6112</v>
+        <v>0.6029</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6024</v>
+        <v>0.6029</v>
       </c>
       <c r="F70" t="n">
-        <v>1042741.2895</v>
+        <v>210903.2514</v>
       </c>
       <c r="G70" t="n">
-        <v>9165762.540499995</v>
+        <v>14568352.2555</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3339,7 +3333,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3356,22 +3350,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6015</v>
+        <v>0.603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6015</v>
+        <v>0.603</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6015</v>
+        <v>0.603</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6015</v>
+        <v>0.603</v>
       </c>
       <c r="F71" t="n">
-        <v>1688595.4533</v>
+        <v>849.9431</v>
       </c>
       <c r="G71" t="n">
-        <v>7477167.087199994</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3381,7 +3375,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3398,22 +3392,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5989</v>
+        <v>0.603</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6111</v>
+        <v>0.603</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6111</v>
+        <v>0.603</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5989</v>
+        <v>0.603</v>
       </c>
       <c r="F72" t="n">
-        <v>1294122.4343</v>
+        <v>1097024.4537</v>
       </c>
       <c r="G72" t="n">
-        <v>8771289.521499995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3423,7 +3417,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3440,22 +3434,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="F73" t="n">
-        <v>1560208.9446</v>
+        <v>2735.7311</v>
       </c>
       <c r="G73" t="n">
-        <v>7211080.576899995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3465,7 +3459,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3482,22 +3476,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5971</v>
+        <v>0.603</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5971</v>
+        <v>0.603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5971</v>
+        <v>0.603</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5971</v>
+        <v>0.603</v>
       </c>
       <c r="F74" t="n">
-        <v>2059425.7</v>
+        <v>205309.5122</v>
       </c>
       <c r="G74" t="n">
-        <v>5151654.876899995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3507,7 +3501,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3524,22 +3518,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5952</v>
+        <v>0.603</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5951</v>
+        <v>0.603</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5952</v>
+        <v>0.603</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5951</v>
+        <v>0.603</v>
       </c>
       <c r="F75" t="n">
-        <v>1807248.2876</v>
+        <v>209351.0502</v>
       </c>
       <c r="G75" t="n">
-        <v>3344406.589299995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3549,7 +3543,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3566,22 +3560,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.611</v>
+        <v>0.603</v>
       </c>
       <c r="C76" t="n">
-        <v>0.611</v>
+        <v>0.603</v>
       </c>
       <c r="D76" t="n">
-        <v>0.611</v>
+        <v>0.603</v>
       </c>
       <c r="E76" t="n">
-        <v>0.611</v>
+        <v>0.603</v>
       </c>
       <c r="F76" t="n">
-        <v>1337095.2472</v>
+        <v>200957.7755</v>
       </c>
       <c r="G76" t="n">
-        <v>4681501.836499995</v>
+        <v>14569202.1986</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3591,7 +3585,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3608,22 +3602,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.599</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.599</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.599</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>0.599</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>2082418.6352</v>
+        <v>1246615.0795</v>
       </c>
       <c r="G77" t="n">
-        <v>2599083.201299995</v>
+        <v>13322587.1191</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3633,7 +3627,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3650,22 +3644,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6025</v>
+        <v>0.602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6025</v>
+        <v>0.602</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6025</v>
+        <v>0.602</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6025</v>
+        <v>0.602</v>
       </c>
       <c r="F78" t="n">
-        <v>1706968.8819</v>
+        <v>1863864.1937</v>
       </c>
       <c r="G78" t="n">
-        <v>4306052.083199995</v>
+        <v>15186451.3128</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3675,7 +3669,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3692,22 +3686,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.611</v>
+        <v>0.599</v>
       </c>
       <c r="C79" t="n">
-        <v>0.611</v>
+        <v>0.599</v>
       </c>
       <c r="D79" t="n">
-        <v>0.611</v>
+        <v>0.599</v>
       </c>
       <c r="E79" t="n">
-        <v>0.611</v>
+        <v>0.599</v>
       </c>
       <c r="F79" t="n">
-        <v>16366.61211129296</v>
+        <v>1269721.6185</v>
       </c>
       <c r="G79" t="n">
-        <v>4322418.695311287</v>
+        <v>13916729.6943</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3717,7 +3711,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3734,22 +3728,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6012</v>
+        <v>0.5984</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6012</v>
+        <v>0.5984</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6012</v>
+        <v>0.5984</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6012</v>
+        <v>0.5984</v>
       </c>
       <c r="F80" t="n">
-        <v>1973628.1758</v>
+        <v>1969569.7056</v>
       </c>
       <c r="G80" t="n">
-        <v>2348790.519511287</v>
+        <v>11947159.9887</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3759,7 +3753,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3776,22 +3770,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.606</v>
+        <v>0.603</v>
       </c>
       <c r="C81" t="n">
-        <v>0.606</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.606</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.606</v>
+        <v>0.603</v>
       </c>
       <c r="F81" t="n">
-        <v>1828090.5936</v>
+        <v>3728547.4477</v>
       </c>
       <c r="G81" t="n">
-        <v>4176881.113111287</v>
+        <v>15675707.4364</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3801,7 +3795,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3818,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="C82" t="n">
-        <v>0.611</v>
+        <v>0.6034</v>
       </c>
       <c r="D82" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="E82" t="n">
-        <v>0.611</v>
+        <v>0.6034</v>
       </c>
       <c r="F82" t="n">
-        <v>191800.081588707</v>
+        <v>539648.4659</v>
       </c>
       <c r="G82" t="n">
-        <v>4368681.194699994</v>
+        <v>16215355.9023</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3843,7 +3837,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3860,22 +3854,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6111</v>
+        <v>0.604</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6095</v>
+        <v>0.604</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6111</v>
+        <v>0.604</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6095</v>
+        <v>0.604</v>
       </c>
       <c r="F83" t="n">
-        <v>2062212.6695</v>
+        <v>855.6217</v>
       </c>
       <c r="G83" t="n">
-        <v>2306468.525199994</v>
+        <v>16216211.524</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3885,7 +3879,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3902,22 +3896,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6095</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6095</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6095</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6095</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>886034.3339</v>
+        <v>71452.5523</v>
       </c>
       <c r="G84" t="n">
-        <v>2306468.525199994</v>
+        <v>16144758.9717</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3927,7 +3921,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3944,22 +3938,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.611</v>
+        <v>0.6002</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6111</v>
+        <v>0.604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6111</v>
+        <v>0.604</v>
       </c>
       <c r="E85" t="n">
-        <v>0.611</v>
+        <v>0.6002</v>
       </c>
       <c r="F85" t="n">
-        <v>484836.8578</v>
+        <v>1537011.6379</v>
       </c>
       <c r="G85" t="n">
-        <v>2791305.382999994</v>
+        <v>17681770.6096</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3969,7 +3963,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3986,22 +3980,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6107</v>
+        <v>0.604</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6107</v>
+        <v>0.6112</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="F86" t="n">
-        <v>1802128.2172</v>
+        <v>119313.2727</v>
       </c>
       <c r="G86" t="n">
-        <v>989177.1657999943</v>
+        <v>17562457.3369</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4011,7 +4005,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4028,22 +4022,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.611</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.611</v>
+        <v>0.6071</v>
       </c>
       <c r="D87" t="n">
-        <v>0.611</v>
+        <v>0.6071</v>
       </c>
       <c r="E87" t="n">
-        <v>0.611</v>
+        <v>0.6022999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>1406373.134</v>
+        <v>1505126.8006</v>
       </c>
       <c r="G87" t="n">
-        <v>2395550.299799995</v>
+        <v>19067584.1375</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4053,7 +4047,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4070,22 +4064,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6111</v>
+        <v>0.6077</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6111</v>
+        <v>0.6095</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6111</v>
+        <v>0.6095</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6111</v>
+        <v>0.6077</v>
       </c>
       <c r="F88" t="n">
-        <v>1694.0474</v>
+        <v>44628.8293</v>
       </c>
       <c r="G88" t="n">
-        <v>2397244.347199995</v>
+        <v>19112212.9668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4095,7 +4089,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4112,22 +4106,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6095</v>
+        <v>0.6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6107</v>
+        <v>0.6</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6095</v>
+        <v>0.6</v>
       </c>
       <c r="F89" t="n">
-        <v>635987.7192112929</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>1761256.627988702</v>
+        <v>19111212.9668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4137,7 +4131,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4154,22 +4148,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6111</v>
+        <v>0.6107</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6111</v>
+        <v>0.6107</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6111</v>
+        <v>0.6107</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6111</v>
+        <v>0.6107</v>
       </c>
       <c r="F90" t="n">
-        <v>847.6165999999999</v>
+        <v>846.8079</v>
       </c>
       <c r="G90" t="n">
-        <v>1762104.244588702</v>
+        <v>19112059.7747</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4179,7 +4173,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4196,22 +4190,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F91" t="n">
-        <v>1933787.2826</v>
+        <v>5041.0296</v>
       </c>
       <c r="G91" t="n">
-        <v>-171683.0380112983</v>
+        <v>19117100.8043</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4221,7 +4215,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4238,22 +4232,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6088</v>
+        <v>0.6008</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6088</v>
+        <v>0.6108</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6088</v>
+        <v>0.6108</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6088</v>
+        <v>0.6</v>
       </c>
       <c r="F92" t="n">
-        <v>493881.902</v>
+        <v>1865841.6955</v>
       </c>
       <c r="G92" t="n">
-        <v>322198.8639887017</v>
+        <v>19117100.8043</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4263,7 +4257,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4280,22 +4274,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6111</v>
+        <v>0.6</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6111</v>
+        <v>0.6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6111</v>
+        <v>0.6</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6111</v>
+        <v>0.6</v>
       </c>
       <c r="F93" t="n">
-        <v>828.4141</v>
+        <v>834</v>
       </c>
       <c r="G93" t="n">
-        <v>323027.2780887017</v>
+        <v>19116266.8043</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4305,7 +4299,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4322,22 +4316,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.6108</v>
       </c>
       <c r="F94" t="n">
-        <v>1366056.303</v>
+        <v>821.1061999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-1043029.024911298</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4347,7 +4341,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4364,22 +4358,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6039</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1576697.3514</v>
+        <v>475664.3388</v>
       </c>
       <c r="G95" t="n">
-        <v>533668.3264887016</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4389,7 +4383,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4406,22 +4400,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.5984</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.6108</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6104000000000001</v>
+        <v>0.5984</v>
       </c>
       <c r="F96" t="n">
-        <v>1354494.287</v>
+        <v>432987.4372</v>
       </c>
       <c r="G96" t="n">
-        <v>533668.3264887016</v>
+        <v>19117087.91049999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4431,7 +4425,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4448,22 +4442,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6111</v>
+        <v>0.6106</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6111</v>
+        <v>0.6106</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6111</v>
+        <v>0.6106</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6111</v>
+        <v>0.6106</v>
       </c>
       <c r="F97" t="n">
-        <v>830.7834</v>
+        <v>471793.6117</v>
       </c>
       <c r="G97" t="n">
-        <v>534499.1098887016</v>
+        <v>18645294.2988</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4473,7 +4467,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4490,22 +4484,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5986</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5986</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5986</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5986</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>1477708.554</v>
+        <v>52239.2805</v>
       </c>
       <c r="G98" t="n">
-        <v>-943209.4441112984</v>
+        <v>18593055.0183</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4515,7 +4509,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4532,22 +4526,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6086</v>
+        <v>0.6108</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6086</v>
+        <v>0.6108</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6086</v>
+        <v>0.6108</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6086</v>
+        <v>0.6108</v>
       </c>
       <c r="F99" t="n">
-        <v>739916.3612</v>
+        <v>845.7286</v>
       </c>
       <c r="G99" t="n">
-        <v>-203293.0829112984</v>
+        <v>18593900.7469</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4557,7 +4551,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4574,22 +4568,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="C100" t="n">
-        <v>0.61</v>
+        <v>0.6108</v>
       </c>
       <c r="D100" t="n">
-        <v>0.61</v>
+        <v>0.6108</v>
       </c>
       <c r="E100" t="n">
-        <v>0.61</v>
+        <v>0.603</v>
       </c>
       <c r="F100" t="n">
-        <v>861.17</v>
+        <v>1926114.2175</v>
       </c>
       <c r="G100" t="n">
-        <v>-202431.9129112984</v>
+        <v>18593900.7469</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4599,7 +4593,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4616,22 +4610,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6067</v>
+        <v>0.6048</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6067</v>
+        <v>0.6048</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6067</v>
+        <v>0.6048</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6067</v>
+        <v>0.6048</v>
       </c>
       <c r="F101" t="n">
-        <v>1660292.0985</v>
+        <v>450812.675</v>
       </c>
       <c r="G101" t="n">
-        <v>-1862724.011411299</v>
+        <v>18143088.0719</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4641,7 +4635,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4658,22 +4652,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6069</v>
+        <v>0.6108</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6069</v>
+        <v>0.6108</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6069</v>
+        <v>0.6108</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6069</v>
+        <v>0.6108</v>
       </c>
       <c r="F102" t="n">
-        <v>1174179.5781</v>
+        <v>855.2603</v>
       </c>
       <c r="G102" t="n">
-        <v>-688544.4333112985</v>
+        <v>18143943.33219999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4683,7 +4677,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4700,22 +4694,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6051</v>
+        <v>0.6098</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6051</v>
+        <v>0.6098</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6051</v>
+        <v>0.6098</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6051</v>
+        <v>0.6098</v>
       </c>
       <c r="F103" t="n">
-        <v>829783.2678</v>
+        <v>1691158.6939</v>
       </c>
       <c r="G103" t="n">
-        <v>-1518327.701111299</v>
+        <v>16452784.63829999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4725,7 +4719,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4742,22 +4736,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6057</v>
+        <v>0.6108</v>
       </c>
       <c r="C104" t="n">
-        <v>0.61</v>
+        <v>0.6108</v>
       </c>
       <c r="D104" t="n">
-        <v>0.61</v>
+        <v>0.6108</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6057</v>
+        <v>0.6108</v>
       </c>
       <c r="F104" t="n">
-        <v>1581721.0184</v>
+        <v>859.5497</v>
       </c>
       <c r="G104" t="n">
-        <v>63393.31728870142</v>
+        <v>16453644.18799999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4767,7 +4761,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4784,22 +4778,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6055</v>
+        <v>0.6075</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6055</v>
+        <v>0.6075</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6055</v>
+        <v>0.6075</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6055</v>
+        <v>0.6075</v>
       </c>
       <c r="F105" t="n">
-        <v>1299940.8865</v>
+        <v>1973509.4727</v>
       </c>
       <c r="G105" t="n">
-        <v>-1236547.569211299</v>
+        <v>14480134.71529999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4809,7 +4803,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4826,22 +4820,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.605</v>
+        <v>0.6108</v>
       </c>
       <c r="C106" t="n">
-        <v>0.605</v>
+        <v>0.6108</v>
       </c>
       <c r="D106" t="n">
-        <v>0.605</v>
+        <v>0.6108</v>
       </c>
       <c r="E106" t="n">
-        <v>0.605</v>
+        <v>0.6108</v>
       </c>
       <c r="F106" t="n">
-        <v>9892.623799999999</v>
+        <v>825.1790999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-1246440.193011299</v>
+        <v>14480959.89439999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4851,7 +4845,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4868,22 +4862,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.605</v>
+        <v>0.6095</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6095</v>
       </c>
       <c r="E107" t="n">
-        <v>0.605</v>
+        <v>0.6095</v>
       </c>
       <c r="F107" t="n">
-        <v>1750643.7844</v>
+        <v>1469388.9861</v>
       </c>
       <c r="G107" t="n">
-        <v>504203.5913887015</v>
+        <v>13011570.90829999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4893,7 +4887,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4910,22 +4904,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6005</v>
+        <v>0.6108</v>
       </c>
       <c r="F108" t="n">
-        <v>1370618.9662</v>
+        <v>827.5398</v>
       </c>
       <c r="G108" t="n">
-        <v>-866415.3748112984</v>
+        <v>13012398.44809999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4935,7 +4929,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4952,22 +4946,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6036</v>
+        <v>0.6108</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6036</v>
+        <v>0.6108</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6036</v>
+        <v>0.6108</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6036</v>
+        <v>0.6108</v>
       </c>
       <c r="F109" t="n">
-        <v>636272.7458</v>
+        <v>3299.3318</v>
       </c>
       <c r="G109" t="n">
-        <v>-230142.6290112984</v>
+        <v>13012398.44809999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4977,7 +4971,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4994,22 +4988,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6024</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6024</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6024</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6024</v>
       </c>
       <c r="F110" t="n">
-        <v>4625.5779</v>
+        <v>1682669.5467</v>
       </c>
       <c r="G110" t="n">
-        <v>-225517.0511112984</v>
+        <v>11329728.90139999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5019,7 +5013,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5036,22 +5030,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5986</v>
+        <v>0.6039</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5986</v>
+        <v>0.6039</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5986</v>
+        <v>0.6039</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5986</v>
+        <v>0.6039</v>
       </c>
       <c r="F111" t="n">
-        <v>297651.5375</v>
+        <v>552909.3443</v>
       </c>
       <c r="G111" t="n">
-        <v>-523168.5886112984</v>
+        <v>11882638.24569999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5061,7 +5055,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5078,22 +5072,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6007</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6007</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6007</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6007</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>2052538.9809</v>
+        <v>4110.9159</v>
       </c>
       <c r="G112" t="n">
-        <v>1529370.392288702</v>
+        <v>11878527.32979999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5103,7 +5097,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5120,22 +5114,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6065</v>
+        <v>0.6017</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6065</v>
+        <v>0.6017</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6065</v>
+        <v>0.6017</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6065</v>
+        <v>0.6017</v>
       </c>
       <c r="F113" t="n">
-        <v>903581.4389</v>
+        <v>2059075.3008</v>
       </c>
       <c r="G113" t="n">
-        <v>2432951.831188702</v>
+        <v>13937602.63059999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5145,7 +5139,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5162,22 +5156,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6057</v>
+        <v>0.601</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6057</v>
+        <v>0.601</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6057</v>
+        <v>0.601</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6057</v>
+        <v>0.601</v>
       </c>
       <c r="F114" t="n">
-        <v>919107.6576</v>
+        <v>512651.227</v>
       </c>
       <c r="G114" t="n">
-        <v>1513844.173588702</v>
+        <v>13424951.40359999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5187,7 +5181,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5204,22 +5198,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6001</v>
+        <v>0.6004</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6001</v>
+        <v>0.6004</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6001</v>
+        <v>0.6004</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6001</v>
+        <v>0.6004</v>
       </c>
       <c r="F115" t="n">
-        <v>4625.5779</v>
+        <v>1450854.3884</v>
       </c>
       <c r="G115" t="n">
-        <v>1509218.595688702</v>
+        <v>11974097.01519999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5229,7 +5223,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5246,22 +5240,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6002</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6002</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6002</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6002</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>749467.118</v>
+        <v>374750.5559</v>
       </c>
       <c r="G116" t="n">
-        <v>2258685.713688701</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5271,7 +5265,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5288,22 +5282,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>4570.1189</v>
+        <v>1310516.5957</v>
       </c>
       <c r="G117" t="n">
-        <v>2263255.832588702</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5313,7 +5307,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5330,22 +5324,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6006</v>
+        <v>0.5936</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6006</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6006</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6006</v>
+        <v>0.5936</v>
       </c>
       <c r="F118" t="n">
-        <v>682359.8053</v>
+        <v>194234.9154</v>
       </c>
       <c r="G118" t="n">
-        <v>1580896.027288701</v>
+        <v>11599346.45929999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5355,7 +5349,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5372,22 +5366,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6001</v>
+        <v>0.5964</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6001</v>
+        <v>0.5964</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6001</v>
+        <v>0.5964</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6001</v>
+        <v>0.5964</v>
       </c>
       <c r="F119" t="n">
-        <v>24636.8942</v>
+        <v>439341.4211</v>
       </c>
       <c r="G119" t="n">
-        <v>1556259.133088701</v>
+        <v>11160005.03819999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5397,7 +5391,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5414,22 +5408,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6014</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>1334988.9374</v>
+        <v>874.6102</v>
       </c>
       <c r="G120" t="n">
-        <v>2891248.070488702</v>
+        <v>11160879.64839999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5439,7 +5433,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5456,22 +5450,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5989</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5989</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.5983000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>874.0118</v>
+        <v>28582.9756</v>
       </c>
       <c r="G121" t="n">
-        <v>2892122.082288702</v>
+        <v>11189462.62399999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5481,7 +5475,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5498,22 +5492,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6041</v>
+        <v>0.5986</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6041</v>
+        <v>0.5986</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6041</v>
+        <v>0.5986</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6041</v>
+        <v>0.5986</v>
       </c>
       <c r="F122" t="n">
-        <v>843288.3522</v>
+        <v>770962.5823</v>
       </c>
       <c r="G122" t="n">
-        <v>2048833.730088701</v>
+        <v>10418500.04169999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5523,7 +5517,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5540,22 +5534,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6073</v>
+        <v>0.5967</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6073</v>
+        <v>0.5967</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6073</v>
+        <v>0.5967</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6073</v>
+        <v>0.5967</v>
       </c>
       <c r="F123" t="n">
-        <v>1767180.2997</v>
+        <v>923775.1647</v>
       </c>
       <c r="G123" t="n">
-        <v>3816014.029788702</v>
+        <v>9494724.876999995</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5565,7 +5559,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5582,22 +5576,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.6039</v>
+        <v>0.5956</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6039</v>
+        <v>0.5955</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6039</v>
+        <v>0.5956</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6039</v>
+        <v>0.5955</v>
       </c>
       <c r="F124" t="n">
-        <v>2092008.8831</v>
+        <v>506752.1151</v>
       </c>
       <c r="G124" t="n">
-        <v>1724005.146688702</v>
+        <v>8987972.761899995</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5607,7 +5601,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5624,22 +5618,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.6007</v>
+        <v>0.5989</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6007</v>
+        <v>0.5989</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6007</v>
+        <v>0.5989</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6007</v>
+        <v>0.5989</v>
       </c>
       <c r="F125" t="n">
-        <v>981330.2635</v>
+        <v>1306050.9242</v>
       </c>
       <c r="G125" t="n">
-        <v>742674.8831887018</v>
+        <v>10294023.68609999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5649,7 +5643,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5666,22 +5660,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6016</v>
       </c>
       <c r="F126" t="n">
-        <v>949.6057</v>
+        <v>1352385.7244</v>
       </c>
       <c r="G126" t="n">
-        <v>743624.4888887018</v>
+        <v>11646409.4105</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5691,7 +5685,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5708,22 +5702,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6002</v>
+        <v>0.6017</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6002</v>
+        <v>0.6017</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6002</v>
+        <v>0.6017</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6002</v>
+        <v>0.6017</v>
       </c>
       <c r="F127" t="n">
-        <v>17000</v>
+        <v>1374844.9308</v>
       </c>
       <c r="G127" t="n">
-        <v>726624.4888887018</v>
+        <v>13021254.3413</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5733,7 +5727,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5750,22 +5744,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6034</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6034</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6034</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6034</v>
+        <v>0.6032999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>1690856.8146</v>
+        <v>1854623.5131</v>
       </c>
       <c r="G128" t="n">
-        <v>2417481.303488702</v>
+        <v>14875877.8544</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5775,7 +5769,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5792,22 +5786,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6012</v>
+        <v>0.6011</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6012</v>
+        <v>0.6011</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6012</v>
+        <v>0.6011</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6012</v>
+        <v>0.6011</v>
       </c>
       <c r="F129" t="n">
-        <v>1810761.8624</v>
+        <v>2054074.9316</v>
       </c>
       <c r="G129" t="n">
-        <v>606719.4410887016</v>
+        <v>12821802.9228</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5817,7 +5811,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5834,22 +5828,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>884.1248000000001</v>
+        <v>849.3155</v>
       </c>
       <c r="G130" t="n">
-        <v>607603.5658887016</v>
+        <v>12822652.2383</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5859,7 +5853,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5876,22 +5870,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6068</v>
+        <v>0.6032</v>
       </c>
       <c r="C131" t="n">
-        <v>0.6068</v>
+        <v>0.6032</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6068</v>
+        <v>0.6032</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6068</v>
+        <v>0.6032</v>
       </c>
       <c r="F131" t="n">
-        <v>1308307.835</v>
+        <v>915636.2868</v>
       </c>
       <c r="G131" t="n">
-        <v>-700704.2691112984</v>
+        <v>11907015.95149999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5901,7 +5895,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5918,22 +5912,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6074000000000001</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>473757.9768</v>
+        <v>851.7437</v>
       </c>
       <c r="G132" t="n">
-        <v>-226946.2923112984</v>
+        <v>11907867.69519999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5943,7 +5937,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5960,22 +5954,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.608</v>
+        <v>0.6005</v>
       </c>
       <c r="C133" t="n">
-        <v>0.608</v>
+        <v>0.6005</v>
       </c>
       <c r="D133" t="n">
-        <v>0.608</v>
+        <v>0.6005</v>
       </c>
       <c r="E133" t="n">
-        <v>0.608</v>
+        <v>0.6005</v>
       </c>
       <c r="F133" t="n">
-        <v>1087413.1185</v>
+        <v>1215334.1918</v>
       </c>
       <c r="G133" t="n">
-        <v>860466.8261887017</v>
+        <v>10692533.50339999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5985,7 +5979,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6002,22 +5996,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.6082</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6082</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6082</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6082</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>857337.9578</v>
+        <v>856.4077</v>
       </c>
       <c r="G134" t="n">
-        <v>1717804.783988702</v>
+        <v>10693389.91109999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -6027,7 +6021,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6044,34 +6038,32 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6017</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6017</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6017</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.6017</v>
       </c>
       <c r="F135" t="n">
-        <v>982027.7688</v>
+        <v>1275673.6399</v>
       </c>
       <c r="G135" t="n">
-        <v>2699832.552788702</v>
+        <v>9417716.271199994</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.6082</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6088,34 +6080,32 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.6088</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>731688.5696</v>
+        <v>863.3199</v>
       </c>
       <c r="G136" t="n">
-        <v>1968143.983188702</v>
+        <v>9418579.591099994</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.6094000000000001</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6132,34 +6122,32 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6093</v>
+        <v>0.6</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6093</v>
+        <v>0.6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6093</v>
+        <v>0.6</v>
       </c>
       <c r="E137" t="n">
-        <v>0.6093</v>
+        <v>0.6</v>
       </c>
       <c r="F137" t="n">
-        <v>1142886.6734</v>
+        <v>1491235.0493</v>
       </c>
       <c r="G137" t="n">
-        <v>3111030.656588702</v>
+        <v>7927344.541799994</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.6088</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6176,34 +6164,32 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6079</v>
+        <v>0.6016</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6079</v>
+        <v>0.6016</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6079</v>
+        <v>0.6016</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6079</v>
+        <v>0.6016</v>
       </c>
       <c r="F138" t="n">
-        <v>1598241.1297</v>
+        <v>916573.8403</v>
       </c>
       <c r="G138" t="n">
-        <v>1512789.526888702</v>
+        <v>8843918.382099994</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.6093</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6220,34 +6206,32 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.61</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6145</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6145</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.61</v>
+        <v>0.6042999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>252259.6444</v>
+        <v>828.7926</v>
       </c>
       <c r="G139" t="n">
-        <v>1765049.171288702</v>
+        <v>8844747.174699994</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.6079</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6264,34 +6248,32 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6152</v>
+        <v>0.6</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6152</v>
+        <v>0.6112</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6152</v>
+        <v>0.6112</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6152</v>
+        <v>0.6</v>
       </c>
       <c r="F140" t="n">
-        <v>1421963.3502</v>
+        <v>321015.3658</v>
       </c>
       <c r="G140" t="n">
-        <v>3187012.521488702</v>
+        <v>9165762.540499995</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.6145</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6308,22 +6290,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6145</v>
+        <v>0.6024</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6145</v>
+        <v>0.6112</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6145</v>
+        <v>0.6112</v>
       </c>
       <c r="E141" t="n">
-        <v>0.6145</v>
+        <v>0.6024</v>
       </c>
       <c r="F141" t="n">
-        <v>195526.7092</v>
+        <v>1042741.2895</v>
       </c>
       <c r="G141" t="n">
-        <v>2991485.812288702</v>
+        <v>9165762.540499995</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6333,7 +6315,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6350,22 +6332,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6015</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6015</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6015</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6015</v>
       </c>
       <c r="F142" t="n">
-        <v>783001.1219</v>
+        <v>1688595.4533</v>
       </c>
       <c r="G142" t="n">
-        <v>3774486.934188702</v>
+        <v>7477167.087199994</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6375,7 +6357,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6392,22 +6374,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.615</v>
+        <v>0.5989</v>
       </c>
       <c r="C143" t="n">
-        <v>0.615</v>
+        <v>0.6111</v>
       </c>
       <c r="D143" t="n">
-        <v>0.615</v>
+        <v>0.6111</v>
       </c>
       <c r="E143" t="n">
-        <v>0.615</v>
+        <v>0.5989</v>
       </c>
       <c r="F143" t="n">
-        <v>447237.9204</v>
+        <v>1294122.4343</v>
       </c>
       <c r="G143" t="n">
-        <v>3327249.013788702</v>
+        <v>8771289.521499995</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6417,7 +6399,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6434,22 +6416,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6157</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6157</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6157</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6157</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>1597668.1743</v>
+        <v>1560208.9446</v>
       </c>
       <c r="G144" t="n">
-        <v>4924917.188088702</v>
+        <v>7211080.576899995</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6459,7 +6441,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6476,22 +6458,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6159</v>
+        <v>0.5971</v>
       </c>
       <c r="C145" t="n">
-        <v>0.65</v>
+        <v>0.5971</v>
       </c>
       <c r="D145" t="n">
-        <v>0.65</v>
+        <v>0.5971</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6159</v>
+        <v>0.5971</v>
       </c>
       <c r="F145" t="n">
-        <v>6843141.469112077</v>
+        <v>2059425.7</v>
       </c>
       <c r="G145" t="n">
-        <v>11768058.65720078</v>
+        <v>5151654.876899995</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6501,7 +6483,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6518,22 +6500,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.65</v>
+        <v>0.5952</v>
       </c>
       <c r="C146" t="n">
-        <v>0.64</v>
+        <v>0.5951</v>
       </c>
       <c r="D146" t="n">
-        <v>0.65</v>
+        <v>0.5952</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5951</v>
       </c>
       <c r="F146" t="n">
-        <v>2631489.782397303</v>
+        <v>1807248.2876</v>
       </c>
       <c r="G146" t="n">
-        <v>9136568.874803476</v>
+        <v>3344406.589299995</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6543,7 +6525,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6560,22 +6542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.64</v>
+        <v>0.611</v>
       </c>
       <c r="C147" t="n">
-        <v>0.64</v>
+        <v>0.611</v>
       </c>
       <c r="D147" t="n">
-        <v>0.64</v>
+        <v>0.611</v>
       </c>
       <c r="E147" t="n">
-        <v>0.64</v>
+        <v>0.611</v>
       </c>
       <c r="F147" t="n">
-        <v>27927.8029</v>
+        <v>1337095.2472</v>
       </c>
       <c r="G147" t="n">
-        <v>9136568.874803476</v>
+        <v>4681501.836499995</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6585,7 +6567,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6602,22 +6584,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.64</v>
+        <v>0.599</v>
       </c>
       <c r="C148" t="n">
-        <v>0.64</v>
+        <v>0.599</v>
       </c>
       <c r="D148" t="n">
-        <v>0.64</v>
+        <v>0.599</v>
       </c>
       <c r="E148" t="n">
-        <v>0.64</v>
+        <v>0.599</v>
       </c>
       <c r="F148" t="n">
-        <v>1704076.3806</v>
+        <v>2082418.6352</v>
       </c>
       <c r="G148" t="n">
-        <v>9136568.874803476</v>
+        <v>2599083.201299995</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6627,7 +6609,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6644,22 +6626,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6025</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6025</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6025</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.6025</v>
       </c>
       <c r="F149" t="n">
-        <v>50000</v>
+        <v>1706968.8819</v>
       </c>
       <c r="G149" t="n">
-        <v>9086568.874803476</v>
+        <v>4306052.083199995</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6669,7 +6651,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6686,22 +6668,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="F150" t="n">
-        <v>1472588.5887</v>
+        <v>16366.61211129296</v>
       </c>
       <c r="G150" t="n">
-        <v>10559157.46350348</v>
+        <v>4322418.695311287</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6711,7 +6693,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6728,22 +6710,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6397</v>
+        <v>0.6012</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6397</v>
+        <v>0.6012</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6397</v>
+        <v>0.6012</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6397</v>
+        <v>0.6012</v>
       </c>
       <c r="F151" t="n">
-        <v>858.3902</v>
+        <v>1973628.1758</v>
       </c>
       <c r="G151" t="n">
-        <v>10560015.85370348</v>
+        <v>2348790.519511287</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6753,7 +6735,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6770,22 +6752,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6397</v>
+        <v>0.606</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6397</v>
+        <v>0.606</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6397</v>
+        <v>0.606</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6397</v>
+        <v>0.606</v>
       </c>
       <c r="F152" t="n">
-        <v>886.8184</v>
+        <v>1828090.5936</v>
       </c>
       <c r="G152" t="n">
-        <v>10560015.85370348</v>
+        <v>4176881.113111287</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6795,7 +6777,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6812,40 +6794,40 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6321</v>
+        <v>0.611</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6321</v>
+        <v>0.611</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6321</v>
+        <v>0.611</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6321</v>
+        <v>0.611</v>
       </c>
       <c r="F153" t="n">
-        <v>1226123.061</v>
+        <v>191800.081588707</v>
       </c>
       <c r="G153" t="n">
-        <v>9333892.792703476</v>
+        <v>4368681.194699994</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0.6034</v>
+        <v>0.5946</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>1.042563805104408</v>
+        <v>1</v>
       </c>
       <c r="N153" t="inlineStr"/>
     </row>
@@ -6854,32 +6836,38 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6335</v>
+        <v>0.6111</v>
       </c>
       <c r="C154" t="n">
-        <v>0.6335</v>
+        <v>0.6095</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6335</v>
+        <v>0.6111</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6335</v>
+        <v>0.6095</v>
       </c>
       <c r="F154" t="n">
-        <v>1448643.2394</v>
+        <v>2062212.6695</v>
       </c>
       <c r="G154" t="n">
-        <v>10782536.03210348</v>
+        <v>2306468.525199994</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6890,32 +6878,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6301</v>
+        <v>0.6095</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6301</v>
+        <v>0.6095</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6301</v>
+        <v>0.6095</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6301</v>
+        <v>0.6095</v>
       </c>
       <c r="F155" t="n">
-        <v>1508622.641</v>
+        <v>886034.3339</v>
       </c>
       <c r="G155" t="n">
-        <v>9273913.391103474</v>
+        <v>2306468.525199994</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6926,32 +6920,38 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.6111</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6304999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="F156" t="n">
-        <v>1380514.6556</v>
+        <v>484836.8578</v>
       </c>
       <c r="G156" t="n">
-        <v>10654428.04670347</v>
+        <v>2791305.382999994</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6962,32 +6962,38 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.636</v>
+        <v>0.6107</v>
       </c>
       <c r="C157" t="n">
-        <v>0.636</v>
+        <v>0.6107</v>
       </c>
       <c r="D157" t="n">
-        <v>0.636</v>
+        <v>0.6107</v>
       </c>
       <c r="E157" t="n">
-        <v>0.636</v>
+        <v>0.6107</v>
       </c>
       <c r="F157" t="n">
-        <v>1442220.7378</v>
+        <v>1802128.2172</v>
       </c>
       <c r="G157" t="n">
-        <v>12096648.78450347</v>
+        <v>989177.1657999943</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6998,32 +7004,38 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="C158" t="n">
-        <v>0.62</v>
+        <v>0.611</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6264999999999999</v>
+        <v>0.611</v>
       </c>
       <c r="E158" t="n">
-        <v>0.62</v>
+        <v>0.611</v>
       </c>
       <c r="F158" t="n">
-        <v>564533.1161</v>
+        <v>1406373.134</v>
       </c>
       <c r="G158" t="n">
-        <v>11532115.66840347</v>
+        <v>2395550.299799995</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7034,32 +7046,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6177</v>
+        <v>0.6111</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6171</v>
+        <v>0.6111</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6177</v>
+        <v>0.6111</v>
       </c>
       <c r="E159" t="n">
-        <v>0.6171</v>
+        <v>0.6111</v>
       </c>
       <c r="F159" t="n">
-        <v>297651.5375</v>
+        <v>1694.0474</v>
       </c>
       <c r="G159" t="n">
-        <v>11234464.13090347</v>
+        <v>2397244.347199995</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7070,36 +7088,2984 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>0.6107</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.6095</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6107</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.6095</v>
+      </c>
+      <c r="F160" t="n">
+        <v>635987.7192112929</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1761256.627988702</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="F161" t="n">
+        <v>847.6165999999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1762104.244588702</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1933787.2826</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-171683.0380112983</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="F163" t="n">
+        <v>493881.902</v>
+      </c>
+      <c r="G163" t="n">
+        <v>322198.8639887017</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="F164" t="n">
+        <v>828.4141</v>
+      </c>
+      <c r="G164" t="n">
+        <v>323027.2780887017</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6022999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1366056.303</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1043029.024911298</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1576697.3514</v>
+      </c>
+      <c r="G166" t="n">
+        <v>533668.3264887016</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1354494.287</v>
+      </c>
+      <c r="G167" t="n">
+        <v>533668.3264887016</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.6111</v>
+      </c>
+      <c r="F168" t="n">
+        <v>830.7834</v>
+      </c>
+      <c r="G168" t="n">
+        <v>534499.1098887016</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1477708.554</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-943209.4441112984</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.6086</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6086</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.6086</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.6086</v>
+      </c>
+      <c r="F170" t="n">
+        <v>739916.3612</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-203293.0829112984</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F171" t="n">
+        <v>861.17</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-202431.9129112984</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.6067</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.6067</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6067</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6067</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1660292.0985</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1862724.011411299</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.6069</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.6069</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6069</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.6069</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1174179.5781</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-688544.4333112985</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="F174" t="n">
+        <v>829783.2678</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1518327.701111299</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.6057</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.6057</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1581721.0184</v>
+      </c>
+      <c r="G175" t="n">
+        <v>63393.31728870142</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.6055</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1299940.8865</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1236547.569211299</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F177" t="n">
+        <v>9892.623799999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1246440.193011299</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1750643.7844</v>
+      </c>
+      <c r="G178" t="n">
+        <v>504203.5913887015</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.6005</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6005</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.6005</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.6005</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1370618.9662</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-866415.3748112984</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="F180" t="n">
+        <v>636272.7458</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-230142.6290112984</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4625.5779</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-225517.0511112984</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.5986</v>
+      </c>
+      <c r="F182" t="n">
+        <v>297651.5375</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-523168.5886112984</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2052538.9809</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1529370.392288702</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.6065</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6065</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.6065</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.6065</v>
+      </c>
+      <c r="F184" t="n">
+        <v>903581.4389</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2432951.831188702</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6057</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.6057</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.6057</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.6057</v>
+      </c>
+      <c r="F185" t="n">
+        <v>919107.6576</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1513844.173588702</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4625.5779</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1509218.595688702</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="F187" t="n">
+        <v>749467.118</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2258685.713688701</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4570.1189</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2263255.832588702</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.6006</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.6006</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.6006</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.6006</v>
+      </c>
+      <c r="F189" t="n">
+        <v>682359.8053</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1580896.027288701</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24636.8942</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1556259.133088701</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.6014</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1334988.9374</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2891248.070488702</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>874.0118</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2892122.082288702</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.6041</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.6041</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.6041</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.6041</v>
+      </c>
+      <c r="F193" t="n">
+        <v>843288.3522</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2048833.730088701</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.6073</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.6073</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.6073</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.6073</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1767180.2997</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3816014.029788702</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2092008.8831</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1724005.146688702</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="F196" t="n">
+        <v>981330.2635</v>
+      </c>
+      <c r="G196" t="n">
+        <v>742674.8831887018</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>949.6057</v>
+      </c>
+      <c r="G197" t="n">
+        <v>743624.4888887018</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="F198" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>726624.4888887018</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1690856.8146</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2417481.303488702</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1810761.8624</v>
+      </c>
+      <c r="G200" t="n">
+        <v>606719.4410887016</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F201" t="n">
+        <v>884.1248000000001</v>
+      </c>
+      <c r="G201" t="n">
+        <v>607603.5658887016</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1308307.835</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-700704.2691112984</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="F203" t="n">
+        <v>473757.9768</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-226946.2923112984</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1087413.1185</v>
+      </c>
+      <c r="G204" t="n">
+        <v>860466.8261887017</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="F205" t="n">
+        <v>857337.9578</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1717804.783988702</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.6094000000000001</v>
+      </c>
+      <c r="F206" t="n">
+        <v>982027.7688</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2699832.552788702</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.6088</v>
+      </c>
+      <c r="F207" t="n">
+        <v>731688.5696</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1968143.983188702</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.6093</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1142886.6734</v>
+      </c>
+      <c r="G208" t="n">
+        <v>3111030.656588702</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.6079</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1598241.1297</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1512789.526888702</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F210" t="n">
+        <v>252259.6444</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1765049.171288702</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.6152</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1421963.3502</v>
+      </c>
+      <c r="G211" t="n">
+        <v>3187012.521488702</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.6145</v>
+      </c>
+      <c r="F212" t="n">
+        <v>195526.7092</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2991485.812288702</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="F213" t="n">
+        <v>783001.1219</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3774486.934188702</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F214" t="n">
+        <v>447237.9204</v>
+      </c>
+      <c r="G214" t="n">
+        <v>3327249.013788702</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.6157</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1597668.1743</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4924917.188088702</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="F216" t="n">
+        <v>6843141.469112077</v>
+      </c>
+      <c r="G216" t="n">
+        <v>11768058.65720078</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2631489.782397303</v>
+      </c>
+      <c r="G217" t="n">
+        <v>9136568.874803476</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F218" t="n">
+        <v>27927.8029</v>
+      </c>
+      <c r="G218" t="n">
+        <v>9136568.874803476</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1704076.3806</v>
+      </c>
+      <c r="G219" t="n">
+        <v>9136568.874803476</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="F220" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>9086568.874803476</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.6284999999999999</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1472588.5887</v>
+      </c>
+      <c r="G221" t="n">
+        <v>10559157.46350348</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="F222" t="n">
+        <v>858.3902</v>
+      </c>
+      <c r="G222" t="n">
+        <v>10560015.85370348</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="F223" t="n">
+        <v>886.8184</v>
+      </c>
+      <c r="G223" t="n">
+        <v>10560015.85370348</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1226123.061</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9333892.792703476</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1.058067608476287</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.016694772344014</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.6335</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1448643.2394</v>
+      </c>
+      <c r="G225" t="n">
+        <v>10782536.03210348</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.6301</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1508622.641</v>
+      </c>
+      <c r="G226" t="n">
+        <v>9273913.391103474</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1380514.6556</v>
+      </c>
+      <c r="G227" t="n">
+        <v>10654428.04670347</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1442220.7378</v>
+      </c>
+      <c r="G228" t="n">
+        <v>12096648.78450347</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="C229" t="n">
         <v>0.62</v>
       </c>
-      <c r="C160" t="n">
+      <c r="D229" t="n">
+        <v>0.6264999999999999</v>
+      </c>
+      <c r="E229" t="n">
         <v>0.62</v>
       </c>
-      <c r="D160" t="n">
+      <c r="F229" t="n">
+        <v>564533.1161</v>
+      </c>
+      <c r="G229" t="n">
+        <v>11532115.66840347</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.6171</v>
+      </c>
+      <c r="F230" t="n">
+        <v>297651.5375</v>
+      </c>
+      <c r="G230" t="n">
+        <v>11234464.13090347</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
         <v>0.62</v>
       </c>
-      <c r="E160" t="n">
+      <c r="C231" t="n">
         <v>0.62</v>
       </c>
-      <c r="F160" t="n">
+      <c r="D231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F231" t="n">
         <v>1098782.8234</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G231" t="n">
         <v>12333246.95430348</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +649,15 @@
         <v>3066464.306699997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -712,2038 +682,1644 @@
         <v>3860758.179099998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1208195.4068</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5068953.585899998</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="F11" t="n">
+        <v>505751.6841</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5574705.269999998</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1337881.5814</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4236823.688599998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="F13" t="n">
+        <v>997506.1124</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5234329.800999998</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1681404.9331</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3552924.867899998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.5931</v>
       </c>
-      <c r="K9" t="n">
+      <c r="C15" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.5931</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="E15" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="F15" t="n">
+        <v>268801.0603</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3284123.807599998</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="F16" t="n">
+        <v>704148.4545</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3988272.262099998</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1071311.0234</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2916961.238699998</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1460601.3646</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1456359.874099998</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1209764.4542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2666124.328299998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1319491.8816</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1346632.446699998</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1467820.2155</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2814452.662199998</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>884267.8269</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1930184.835299998</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1829958.2377</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3760143.072999998</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="F24" t="n">
+        <v>297651.5375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4057794.610499998</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1846569.0737</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2211225.536799998</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1422054.9008</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3633280.437599998</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="F27" t="n">
+        <v>789420.9409</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4422701.378499998</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="F28" t="n">
+        <v>841.5779</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4423542.956399998</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="F29" t="n">
+        <v>786567.0036000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3636975.952799998</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3632975.952799998</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="F31" t="n">
+        <v>638513.4954</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4271489.448199998</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1353012.5004</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5624501.948599998</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="F33" t="n">
+        <v>741210.028</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6365711.976599998</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1401808.7099</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4963903.266699998</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2877986.3401</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4963903.266699998</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5959</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1560116.4089</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6524019.675599998</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F37" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6124019.675599998</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F38" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>6124019.675599998</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F39" t="n">
+        <v>394113.2594</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6124019.675599998</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="F40" t="n">
+        <v>926418.3773000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>7050438.052899998</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6850438.052899998</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1245269.9125</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8095707.965399997</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="F43" t="n">
+        <v>552946.9799</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7542760.985499998</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1587990.1228</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9130751.108299997</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="F45" t="n">
+        <v>936545.3644</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10067296.4727</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9867296.472699996</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1208195.4068</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5068953.585899998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>9867296.472699996</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="F11" t="n">
-        <v>505751.6841</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5574705.269999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1337881.5814</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4236823.688599998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16879.2245</v>
+      </c>
+      <c r="G48" t="n">
+        <v>9867296.472699996</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2140218.0927</v>
+      </c>
+      <c r="G49" t="n">
+        <v>12007514.5654</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F13" t="n">
-        <v>997506.1124</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5234329.800999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="F50" t="n">
+        <v>506291.7849</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11501222.7805</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5954</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5954</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5954</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5954</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1681404.9331</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3552924.867899998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="F15" t="n">
-        <v>268801.0603</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3284123.807599998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="F16" t="n">
-        <v>704148.4545</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3988272.262099998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1071311.0234</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2916961.238699998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11301222.7805</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3357727.382</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11301222.7805</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1460601.3646</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1456359.874099998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2104150.141</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13405372.9215</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5935</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1209764.4542</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2666124.328299998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1319491.8816</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1346632.446699998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2064543.1308</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11340829.7907</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1995671.2962</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13336501.0869</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.5949</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1467820.2155</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2814452.662199998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="F56" t="n">
+        <v>483863.2636</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13820364.3505</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>884267.8269</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1930184.835299998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1829958.2377</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3760143.072999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="F24" t="n">
-        <v>297651.5375</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4057794.610499998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1846569.0737</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2211225.536799998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1422054.9008</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3633280.437599998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="F27" t="n">
-        <v>789420.9409</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4422701.378499998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="F28" t="n">
-        <v>841.5779</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4423542.956399998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="F29" t="n">
-        <v>786567.0036000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3636975.952799998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3632975.952799998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="F31" t="n">
-        <v>638513.4954</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4271489.448199998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1353012.5004</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5624501.948599998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="F33" t="n">
-        <v>741210.028</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6365711.976599998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1401808.7099</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4963903.266699998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2877986.3401</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4963903.266699998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1560116.4089</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6524019.675599998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="F37" t="n">
-        <v>400000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6124019.675599998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5959</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="F38" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6124019.675599998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="F39" t="n">
-        <v>394113.2594</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6124019.675599998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="F40" t="n">
-        <v>926418.3773000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>7050438.052899998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6850438.052899998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1245269.9125</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8095707.965399997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="F43" t="n">
-        <v>552946.9799</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7542760.985499998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1587990.1228</v>
-      </c>
-      <c r="G44" t="n">
-        <v>9130751.108299997</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="F45" t="n">
-        <v>936545.3644</v>
-      </c>
-      <c r="G45" t="n">
-        <v>10067296.4727</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F46" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>9867296.472699996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F47" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9867296.472699996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F48" t="n">
-        <v>16879.2245</v>
-      </c>
-      <c r="G48" t="n">
-        <v>9867296.472699996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2140218.0927</v>
-      </c>
-      <c r="G49" t="n">
-        <v>12007514.5654</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="F50" t="n">
-        <v>506291.7849</v>
-      </c>
-      <c r="G50" t="n">
-        <v>11501222.7805</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F51" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>11301222.7805</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3357727.382</v>
-      </c>
-      <c r="G52" t="n">
-        <v>11301222.7805</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2104150.141</v>
-      </c>
-      <c r="G53" t="n">
-        <v>13405372.9215</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5949</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5949</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5949</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5949</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2064543.1308</v>
-      </c>
-      <c r="G54" t="n">
-        <v>11340829.7907</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1995671.2962</v>
-      </c>
-      <c r="G55" t="n">
-        <v>13336501.0869</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5949</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="F56" t="n">
-        <v>483863.2636</v>
-      </c>
-      <c r="G56" t="n">
-        <v>13820364.3505</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2768,26 +2344,19 @@
         <v>13821219.0457</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="J57" t="n">
         <v>0.596</v>
       </c>
-      <c r="K57" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2812,26 +2381,23 @@
         <v>12690511.9032</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.6018</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L58" t="inlineStr">
+        <v>0.596</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2856,26 +2422,23 @@
         <v>14090492.2062</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.5964</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5964</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L59" t="inlineStr">
+        <v>0.596</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2900,26 +2463,19 @@
         <v>14095696.9409</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>0.5984</v>
       </c>
       <c r="J60" t="n">
         <v>0.5984</v>
       </c>
-      <c r="K60" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2944,26 +2500,23 @@
         <v>12713064.8091</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.6028</v>
       </c>
       <c r="J61" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L61" t="inlineStr">
+        <v>0.5984</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2990,22 +2543,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3030,26 +2580,19 @@
         <v>12222252.8641</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.5945</v>
       </c>
       <c r="J63" t="n">
         <v>0.5945</v>
       </c>
-      <c r="K63" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3076,22 +2619,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.5945</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3118,22 +2658,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.5945</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3160,22 +2697,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3202,22 +2730,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3244,22 +2763,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3286,22 +2796,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3328,22 +2829,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3370,22 +2862,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3412,22 +2895,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3454,22 +2928,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3496,22 +2961,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3538,22 +2994,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3580,22 +3027,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3622,22 +3060,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3664,22 +3093,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3706,22 +3126,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3748,22 +3159,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3790,22 +3192,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3832,22 +3225,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3874,22 +3258,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3916,22 +3291,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3958,22 +3324,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4000,22 +3357,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4042,22 +3390,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4084,22 +3423,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4126,22 +3456,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4168,22 +3489,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4210,22 +3522,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4252,22 +3555,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4294,22 +3588,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4336,22 +3621,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4378,22 +3654,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4420,22 +3687,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4462,22 +3720,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4504,22 +3753,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4546,22 +3786,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4588,22 +3819,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4630,22 +3852,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4672,22 +3885,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4714,22 +3918,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4756,22 +3951,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4798,22 +3984,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4840,22 +4017,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4882,22 +4050,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4924,22 +4083,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4966,22 +4116,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5008,22 +4149,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5050,22 +4182,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5092,22 +4215,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5134,22 +4248,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5176,22 +4281,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5218,22 +4314,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5260,22 +4347,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5302,22 +4380,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5344,22 +4413,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5386,22 +4446,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5428,22 +4479,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5470,22 +4512,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5512,22 +4545,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5554,22 +4578,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5596,22 +4611,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5638,22 +4644,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5678,24 +4675,19 @@
         <v>11646409.4105</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0.5989</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5722,22 +4714,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5764,22 +4753,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5806,22 +4792,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5848,22 +4825,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5890,22 +4858,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5932,22 +4891,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5974,22 +4924,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6016,22 +4957,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6058,22 +4990,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6100,22 +5023,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6142,22 +5056,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6184,22 +5089,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6226,22 +5122,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6268,22 +5155,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6310,22 +5188,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6352,22 +5221,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6394,22 +5254,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6436,22 +5287,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6478,22 +5320,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6520,22 +5353,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6562,22 +5386,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6604,22 +5419,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6646,22 +5452,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6688,22 +5485,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6730,22 +5518,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6772,22 +5551,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6814,22 +5584,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6854,24 +5615,15 @@
         <v>2306468.525199994</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6896,24 +5648,15 @@
         <v>2306468.525199994</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6940,22 +5683,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6980,24 +5714,15 @@
         <v>989177.1657999943</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7022,24 +5747,15 @@
         <v>2395550.299799995</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7066,22 +5782,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7108,22 +5815,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7150,22 +5848,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7190,24 +5879,15 @@
         <v>-171683.0380112983</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7234,22 +5914,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7274,24 +5945,15 @@
         <v>323027.2780887017</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7318,22 +5980,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7360,22 +6013,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7402,22 +6046,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7444,22 +6079,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7486,22 +6112,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7528,22 +6145,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7570,22 +6178,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7610,24 +6209,19 @@
         <v>-1862724.011411299</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0.61</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7654,22 +6248,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7696,22 +6287,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7738,22 +6326,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7780,22 +6359,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7822,22 +6392,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7864,22 +6425,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7906,22 +6458,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7948,22 +6491,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7990,22 +6524,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8032,22 +6557,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8074,22 +6590,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8116,22 +6623,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8158,22 +6656,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8200,22 +6689,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8242,22 +6722,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8284,22 +6755,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8326,22 +6788,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8368,22 +6821,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8410,22 +6854,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8452,22 +6887,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8494,22 +6920,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8536,22 +6953,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8578,22 +6986,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8620,22 +7019,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8662,22 +7052,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8704,22 +7085,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8746,22 +7118,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8788,22 +7151,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8830,22 +7184,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8872,22 +7217,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8914,22 +7250,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8956,22 +7283,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8998,22 +7316,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9040,22 +7349,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9082,22 +7382,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9124,22 +7415,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9166,22 +7448,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9208,22 +7481,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9250,22 +7514,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9292,22 +7547,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9334,22 +7580,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9376,22 +7613,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9418,22 +7646,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9460,22 +7679,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9500,24 +7710,15 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9542,24 +7743,15 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9584,24 +7776,15 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9628,22 +7811,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9668,24 +7842,15 @@
         <v>10559157.46350348</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9712,22 +7877,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9752,24 +7908,15 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9794,26 +7941,15 @@
         <v>9333892.792703476</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1.058067608476287</v>
-      </c>
-      <c r="N224" t="n">
-        <v>1.016694772344014</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9838,18 +7974,15 @@
         <v>10782536.03210348</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9874,18 +8007,15 @@
         <v>9273913.391103474</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9910,18 +8040,15 @@
         <v>10654428.04670347</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9948,16 +8075,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9984,16 +8108,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10020,16 +8141,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10054,20 +8172,17 @@
         <v>12333246.95430348</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,10 +649,14 @@
         <v>3066464.306699997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5931</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -682,11 +686,19 @@
         <v>3860758.179099998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +727,19 @@
         <v>5068953.585899998</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5942</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,10 +768,14 @@
         <v>5574705.269999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5993000000000001</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -781,11 +805,19 @@
         <v>4236823.688599998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +846,19 @@
         <v>5234329.800999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,10 +887,14 @@
         <v>3552924.867899998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -880,11 +924,19 @@
         <v>3284123.807599998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +965,19 @@
         <v>3988272.262099998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1006,19 @@
         <v>2916961.238699998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1047,19 @@
         <v>1456359.874099998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1088,19 @@
         <v>2666124.328299998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1129,19 @@
         <v>1346632.446699998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1170,19 @@
         <v>2814452.662199998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1211,19 @@
         <v>1930184.835299998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1252,19 @@
         <v>3760143.072999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1293,19 @@
         <v>4057794.610499998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1334,19 @@
         <v>2211225.536799998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1375,19 @@
         <v>3633280.437599998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1416,19 @@
         <v>4422701.378499998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1457,19 @@
         <v>4423542.956399998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1498,19 @@
         <v>3636975.952799998</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1539,19 @@
         <v>3632975.952799998</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1580,19 @@
         <v>4271489.448199998</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1621,19 @@
         <v>5624501.948599998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1662,19 @@
         <v>6365711.976599998</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1742,19 @@
         <v>4963903.266699998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1786,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1825,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1861,19 @@
         <v>6124019.675599998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1902,19 @@
         <v>6124019.675599998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1943,19 @@
         <v>7050438.052899998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1984,19 @@
         <v>6850438.052899998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +2025,19 @@
         <v>8095707.965399997</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2066,19 @@
         <v>7542760.985499998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5953000000000001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2107,19 @@
         <v>9130751.108299997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,15 +2148,19 @@
         <v>10067296.4727</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0.5971</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,17 +2189,17 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0.5976</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5971</v>
+        <v>0.5984</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1948,15 +2230,17 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
       <c r="J47" t="n">
-        <v>0.5971</v>
+        <v>0.5984</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1987,15 +2271,19 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0.5931999999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2024,17 +2312,17 @@
         <v>12007514.5654</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0.5931999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2065,17 +2353,17 @@
         <v>11501222.7805</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0.5942</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5931999999999999</v>
+        <v>0.5984</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2106,15 +2394,19 @@
         <v>11301222.7805</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0.5935</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2143,17 +2435,17 @@
         <v>11301222.7805</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0.5931999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5935</v>
+        <v>0.5984</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2184,17 +2476,17 @@
         <v>13405372.9215</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0.5931999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5935</v>
+        <v>0.5984</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2225,15 +2517,19 @@
         <v>11340829.7907</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0.5955</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2262,17 +2558,17 @@
         <v>13336501.0869</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0.5949</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5955</v>
+        <v>0.5984</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2303,17 +2599,17 @@
         <v>13820364.3505</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0.5955</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5955</v>
+        <v>0.5984</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2344,15 +2640,19 @@
         <v>13821219.0457</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0.596</v>
       </c>
       <c r="J57" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2381,17 +2681,17 @@
         <v>12690511.9032</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0.6018</v>
       </c>
       <c r="J58" t="n">
-        <v>0.596</v>
+        <v>0.5984</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2422,17 +2722,17 @@
         <v>14090492.2062</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0.5964</v>
       </c>
       <c r="J59" t="n">
-        <v>0.596</v>
+        <v>0.5984</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2463,7 +2763,7 @@
         <v>14095696.9409</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0.5984</v>
@@ -2471,7 +2771,11 @@
       <c r="J60" t="n">
         <v>0.5984</v>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2500,7 +2804,7 @@
         <v>12713064.8091</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0.6028</v>
@@ -2510,7 +2814,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2541,15 +2845,17 @@
         <v>11154454.0868</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5956</v>
+      </c>
       <c r="J62" t="n">
         <v>0.5984</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2580,15 +2886,19 @@
         <v>12222252.8641</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0.5945</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5945</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2617,15 +2927,17 @@
         <v>12659523.6164</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.5999</v>
+      </c>
       <c r="J64" t="n">
-        <v>0.5945</v>
+        <v>0.5984</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2656,15 +2968,17 @@
         <v>12660378.2179</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.6</v>
+      </c>
       <c r="J65" t="n">
-        <v>0.5945</v>
+        <v>0.5984</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2698,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3051,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3090,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3129,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3168,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3207,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3246,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3441,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3519,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3555,19 @@
         <v>11947159.9887</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3596,19 @@
         <v>15675707.4364</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3640,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3679,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3718,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3754,19 @@
         <v>17681770.6096</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.6032999999999999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3798,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3834,19 @@
         <v>19067584.1375</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3878,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3917,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3956,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3995,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4073,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4112,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4151,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4190,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4229,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4268,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4307,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4346,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4385,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4463,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3949,13 +4499,19 @@
         <v>16453644.18799999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>1.01572192513369</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
@@ -3982,7 +4538,7 @@
         <v>14480134.71529999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4015,7 +4571,7 @@
         <v>14480959.89439999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4048,7 +4604,7 @@
         <v>13011570.90829999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4081,7 +4637,7 @@
         <v>13012398.44809999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4114,7 +4670,7 @@
         <v>13012398.44809999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4147,7 +4703,7 @@
         <v>11329728.90139999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4180,7 +4736,7 @@
         <v>11882638.24569999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4213,7 +4769,7 @@
         <v>11878527.32979999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4835,7 @@
         <v>13424951.40359999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4675,14 +5231,10 @@
         <v>11646409.4105</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.5989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4715,14 +5267,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4754,14 +5300,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.5989</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4955,7 +5495,7 @@
         <v>10693389.91109999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4988,7 +5528,7 @@
         <v>9417716.271199994</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5615,7 +6155,7 @@
         <v>2306468.525199994</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5648,7 +6188,7 @@
         <v>2306468.525199994</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5714,7 +6254,7 @@
         <v>989177.1657999943</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5747,7 +6287,7 @@
         <v>2395550.299799995</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5879,7 +6419,7 @@
         <v>-171683.0380112983</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5945,7 +6485,7 @@
         <v>323027.2780887017</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6209,14 +6749,10 @@
         <v>-1862724.011411299</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6249,14 +6785,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6288,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +8234,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7743,7 +8267,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7776,7 +8300,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7842,7 +8366,7 @@
         <v>10559157.46350348</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7908,7 +8432,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7941,7 +8465,7 @@
         <v>9333892.792703476</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7974,7 +8498,7 @@
         <v>10782536.03210348</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8007,7 +8531,7 @@
         <v>9273913.391103474</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8040,7 +8564,7 @@
         <v>10654428.04670347</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8172,7 +8696,7 @@
         <v>12333246.95430348</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8183,6 +8707,6 @@
       <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>3066464.306699997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -694,11 +690,7 @@
       <c r="J9" t="n">
         <v>0.5931</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,15 +760,17 @@
         <v>5574705.269999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5993000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>0.5931</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,19 +799,11 @@
         <v>4236823.688599998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -846,19 +832,11 @@
         <v>5234329.800999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,14 +865,10 @@
         <v>3552924.867899998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -924,837 +898,677 @@
         <v>3284123.807599998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.5954</v>
-      </c>
-      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="F16" t="n">
+        <v>704148.4545</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3988272.262099998</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6008</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1071311.0234</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2916961.238699998</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1460601.3646</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1456359.874099998</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1209764.4542</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2666124.328299998</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1319491.8816</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1346632.446699998</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>0.5984</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="C21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1467820.2155</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2814452.662199998</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>884267.8269</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1930184.835299998</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1829958.2377</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3760143.072999998</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="F24" t="n">
+        <v>297651.5375</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4057794.610499998</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1846569.0737</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2211225.536799998</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1422054.9008</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3633280.437599998</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5992</v>
+      </c>
+      <c r="F27" t="n">
+        <v>789420.9409</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4422701.378499998</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="F28" t="n">
+        <v>841.5779</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4423542.956399998</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="F29" t="n">
+        <v>786567.0036000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3636975.952799998</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3632975.952799998</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="F31" t="n">
+        <v>638513.4954</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4271489.448199998</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1353012.5004</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5624501.948599998</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="F33" t="n">
+        <v>741210.028</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6365711.976599998</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1401808.7099</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4963903.266699998</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2877986.3401</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4963903.266699998</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="F16" t="n">
-        <v>704148.4545</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3988272.262099998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1071311.0234</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2916961.238699998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1460601.3646</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1456359.874099998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.6008</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1209764.4542</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2666124.328299998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1319491.8816</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1346632.446699998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1467820.2155</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2814452.662199998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>884267.8269</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1930184.835299998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1829958.2377</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3760143.072999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="F24" t="n">
-        <v>297651.5375</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4057794.610499998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1846569.0737</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2211225.536799998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.6029</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1422054.9008</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3633280.437599998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="F27" t="n">
-        <v>789420.9409</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4422701.378499998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="F28" t="n">
-        <v>841.5779</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4423542.956399998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.5992</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="F29" t="n">
-        <v>786567.0036000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3636975.952799998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.6024</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3632975.952799998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="F31" t="n">
-        <v>638513.4954</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4271489.448199998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1353012.5004</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5624501.948599998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.6012</v>
-      </c>
-      <c r="F33" t="n">
-        <v>741210.028</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6365711.976599998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1401808.7099</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4963903.266699998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2877986.3401</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4963903.266699998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1786,9 +1600,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,9 +1637,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1861,14 +1671,10 @@
         <v>6124019.675599998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1907,9 +1713,7 @@
       <c r="I39" t="n">
         <v>0.5933</v>
       </c>
-      <c r="J39" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,9 +1752,7 @@
       <c r="I40" t="n">
         <v>0.5933</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1989,9 +1791,7 @@
       <c r="I41" t="n">
         <v>0.6018</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,9 +1830,7 @@
       <c r="I42" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,9 +1869,7 @@
       <c r="I43" t="n">
         <v>0.5953000000000001</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2107,14 +1903,10 @@
         <v>9130751.108299997</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2148,14 +1940,10 @@
         <v>10067296.4727</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2189,14 +1977,10 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2230,14 +2014,10 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,9 +2056,7 @@
       <c r="I48" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2317,9 +2095,7 @@
       <c r="I49" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,9 +2134,7 @@
       <c r="I50" t="n">
         <v>0.5942</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2399,9 +2173,7 @@
       <c r="I51" t="n">
         <v>0.5935</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,9 +2212,7 @@
       <c r="I52" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,9 +2251,7 @@
       <c r="I53" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2517,14 +2285,10 @@
         <v>11340829.7907</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2563,9 +2327,7 @@
       <c r="I55" t="n">
         <v>0.5949</v>
       </c>
-      <c r="J55" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,14 +2361,10 @@
         <v>13820364.3505</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2640,14 +2398,10 @@
         <v>13821219.0457</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,14 +2435,10 @@
         <v>12690511.9032</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,14 +2472,10 @@
         <v>14090492.2062</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.5964</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2763,14 +2509,10 @@
         <v>14095696.9409</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2804,14 +2546,10 @@
         <v>12713064.8091</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,14 +2583,10 @@
         <v>11154454.0868</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.5956</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2886,14 +2620,10 @@
         <v>12222252.8641</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.5945</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,14 +2657,10 @@
         <v>12659523.6164</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.5999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,14 +2694,10 @@
         <v>12660378.2179</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,9 +2734,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3051,9 +2771,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,9 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,9 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,9 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,9 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,9 +2993,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,9 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,9 +3067,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,9 +3104,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3441,9 +3141,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,9 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,9 +3215,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,14 +3249,10 @@
         <v>11947159.9887</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,14 +3286,10 @@
         <v>15675707.4364</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,9 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,9 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,9 +3400,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,14 +3434,10 @@
         <v>17681770.6096</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.6032999999999999</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,9 +3474,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3834,14 +3508,10 @@
         <v>19067584.1375</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,9 +3548,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,9 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,9 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,9 +3659,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4031,20 +3693,16 @@
         <v>19117100.8043</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.5984</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -4073,14 +3731,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +3764,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +3797,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4187,17 +3827,11 @@
         <v>19117087.91049999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +3863,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +3896,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +3929,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4385,14 +3995,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4424,14 +4028,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4463,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4499,19 +4091,13 @@
         <v>16453644.18799999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1.01572192513369</v>
+        <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
@@ -4538,7 +4124,7 @@
         <v>14480134.71529999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4571,7 +4157,7 @@
         <v>14480959.89439999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4604,7 +4190,7 @@
         <v>13011570.90829999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4637,7 +4223,7 @@
         <v>13012398.44809999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4670,7 +4256,7 @@
         <v>13012398.44809999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4703,7 +4289,7 @@
         <v>11329728.90139999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4736,7 +4322,7 @@
         <v>11882638.24569999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4769,7 +4355,7 @@
         <v>11878527.32979999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4835,7 +4421,7 @@
         <v>13424951.40359999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5495,7 +5081,7 @@
         <v>10693389.91109999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5528,7 +5114,7 @@
         <v>9417716.271199994</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -7376,10 +6962,14 @@
         <v>2891248.070488702</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.6001</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -7412,8 +7002,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7445,8 +7041,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0.6001</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7574,10 +7176,14 @@
         <v>743624.4888887018</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.6007</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
@@ -7610,8 +7216,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7640,11 +7252,19 @@
         <v>2417481.303488702</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.6002</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.6007</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7673,10 +7293,14 @@
         <v>606719.4410887016</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.6034</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
@@ -7706,11 +7330,19 @@
         <v>607603.5658887016</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.6012</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7739,11 +7371,19 @@
         <v>-700704.2691112984</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.6034</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7772,10 +7412,14 @@
         <v>-226946.2923112984</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.6068</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
@@ -7805,11 +7449,19 @@
         <v>860466.8261887017</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.6074000000000001</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7838,11 +7490,19 @@
         <v>1717804.783988702</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.6068</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7871,10 +7531,14 @@
         <v>2699832.552788702</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.6082</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7907,8 +7571,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7940,8 +7610,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0.6082</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8234,7 +7910,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8267,7 +7943,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8300,7 +7976,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8333,7 +8009,7 @@
         <v>9086568.874803476</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8366,7 +8042,7 @@
         <v>10559157.46350348</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8399,7 +8075,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8432,7 +8108,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8498,7 +8174,7 @@
         <v>10782536.03210348</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8564,7 +8240,7 @@
         <v>10654428.04670347</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8597,7 +8273,7 @@
         <v>12096648.78450347</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8630,7 +8306,7 @@
         <v>11532115.66840347</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8707,6 +8383,6 @@
       <c r="M231" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -649,10 +649,14 @@
         <v>3066464.306699997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5931</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5931</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -690,7 +694,11 @@
       <c r="J9" t="n">
         <v>0.5931</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -760,17 +768,15 @@
         <v>5574705.269999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5993000000000001</v>
+      </c>
       <c r="J11" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -799,11 +805,19 @@
         <v>4236823.688599998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,11 +846,19 @@
         <v>5234329.800999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5947</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5993000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,10 +887,14 @@
         <v>3552924.867899998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -898,11 +924,19 @@
         <v>3284123.807599998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5954</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -931,11 +965,19 @@
         <v>3988272.262099998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -964,11 +1006,19 @@
         <v>2916961.238699998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6026</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1000,8 +1050,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +1086,19 @@
         <v>2666124.328299998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +1127,19 @@
         <v>1346632.446699998</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5987</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1168,19 @@
         <v>2814452.662199998</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5943000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1209,19 @@
         <v>1930184.835299998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1162,11 +1250,19 @@
         <v>3760143.072999998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1291,19 @@
         <v>4057794.610499998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5977</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1335,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1374,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1413,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1330,8 +1452,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1363,8 +1491,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1396,8 +1530,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1569,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1459,11 +1605,19 @@
         <v>5624501.948599998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1649,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1528,8 +1688,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1558,15 +1724,15 @@
         <v>4963903.266699998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1600,7 +1766,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1637,7 +1805,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1671,10 +1841,14 @@
         <v>6124019.675599998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5933</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1713,7 +1887,9 @@
       <c r="I39" t="n">
         <v>0.5933</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,7 +1928,9 @@
       <c r="I40" t="n">
         <v>0.5933</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1791,7 +1969,9 @@
       <c r="I41" t="n">
         <v>0.6018</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1830,7 +2010,9 @@
       <c r="I42" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1869,7 +2051,9 @@
       <c r="I43" t="n">
         <v>0.5953000000000001</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,10 +2087,14 @@
         <v>9130751.108299997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5946</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,10 +2128,14 @@
         <v>10067296.4727</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5971</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1977,10 +2169,14 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,10 +2210,14 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.5931999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2056,7 +2256,9 @@
       <c r="I48" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2095,7 +2297,9 @@
       <c r="I49" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2134,7 +2338,9 @@
       <c r="I50" t="n">
         <v>0.5942</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2173,7 +2379,9 @@
       <c r="I51" t="n">
         <v>0.5935</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2212,7 +2420,9 @@
       <c r="I52" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2251,7 +2461,9 @@
       <c r="I53" t="n">
         <v>0.5931999999999999</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2285,10 +2497,14 @@
         <v>11340829.7907</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,7 +2543,9 @@
       <c r="I55" t="n">
         <v>0.5949</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2361,10 +2579,14 @@
         <v>13820364.3505</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,10 +2620,14 @@
         <v>13821219.0457</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2435,10 +2661,14 @@
         <v>12690511.9032</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.6018</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,10 +2702,14 @@
         <v>14090492.2062</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.5964</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,7 +2746,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,7 +2785,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,7 +2824,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,7 +2863,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,7 +2902,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2697,7 +2941,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,7 +2980,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2771,7 +3019,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,7 +3058,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2845,7 +3097,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2882,7 +3136,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2919,7 +3175,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,7 +3214,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2993,7 +3253,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,7 +3292,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,7 +3331,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3104,7 +3370,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3141,7 +3409,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,7 +3448,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3215,7 +3487,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,7 +3526,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3289,7 +3565,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,7 +3604,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,7 +3643,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3400,7 +3682,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3437,7 +3721,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,7 +3760,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,7 +3799,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,7 +3838,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,7 +3877,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,7 +3916,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,7 +3955,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3693,16 +3991,20 @@
         <v>19117100.8043</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.5984</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
       <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3731,8 +4033,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3764,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3797,8 +4111,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3827,11 +4147,17 @@
         <v>19117087.91049999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3863,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3896,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3929,8 +4267,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3962,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3995,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4028,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4061,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4094,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4127,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4160,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4193,8 +4579,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4226,8 +4618,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4259,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4292,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4325,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4358,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4391,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4424,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4457,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4490,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4523,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4556,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4655,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4688,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4721,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4754,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4787,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4820,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4853,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4886,8 +5398,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +5437,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4952,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4985,8 +5515,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5018,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5084,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5117,8 +5671,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5150,8 +5710,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5183,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5216,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5282,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +5944,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5381,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5447,8 +6061,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5480,8 +6100,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5513,8 +6139,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5546,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5579,8 +6217,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5612,8 +6256,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5645,8 +6295,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5678,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5711,8 +6373,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5810,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5843,8 +6529,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5876,8 +6568,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5909,8 +6607,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5942,8 +6646,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +6685,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6008,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6041,8 +6763,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6074,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6107,8 +6841,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6140,8 +6880,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6173,8 +6919,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6206,8 +6958,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6239,8 +6997,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6272,8 +7036,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6305,8 +7075,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +7114,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6371,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6404,8 +7192,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6437,8 +7231,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6470,8 +7270,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6503,8 +7309,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6536,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6569,8 +7387,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6602,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6635,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6668,8 +7504,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6701,8 +7543,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6734,8 +7582,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6767,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6800,8 +7660,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6833,8 +7699,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6866,8 +7738,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +7777,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7816,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6962,15 +7852,17 @@
         <v>2891248.070488702</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0.6001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>0.6001</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7003,11 +7895,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>0.6001</v>
+        <v>0.5984</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L192" t="n">
@@ -7042,11 +7934,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>0.6001</v>
+        <v>0.5984</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -7080,8 +7972,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7113,8 +8011,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7146,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7176,15 +8086,17 @@
         <v>743624.4888887018</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0.6007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>0.6007</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +8129,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>0.6007</v>
+        <v>0.5984</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
@@ -7252,17 +8164,15 @@
         <v>2417481.303488702</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0.6002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>0.6007</v>
+        <v>0.5984</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -7293,15 +8203,17 @@
         <v>606719.4410887016</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0.6034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>0.6034</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7330,17 +8242,15 @@
         <v>607603.5658887016</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0.6012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>0.6034</v>
+        <v>0.5984</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L201" t="n">
@@ -7371,17 +8281,15 @@
         <v>-700704.2691112984</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0.6074000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>0.6034</v>
+        <v>0.5984</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L202" t="n">
@@ -7412,15 +8320,17 @@
         <v>-226946.2923112984</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0.6068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>0.6068</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7449,17 +8359,15 @@
         <v>860466.8261887017</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0.6074000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>0.6068</v>
+        <v>0.5984</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7490,17 +8398,15 @@
         <v>1717804.783988702</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0.608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>0.6068</v>
+        <v>0.5984</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -7531,15 +8437,17 @@
         <v>2699832.552788702</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0.6082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>0.6082</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +8480,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>0.6082</v>
+        <v>0.5984</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -7611,11 +8519,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>0.6082</v>
+        <v>0.5984</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L208" t="n">
@@ -7649,8 +8557,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7682,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7715,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7748,8 +8674,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7781,8 +8713,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7814,8 +8752,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7847,8 +8791,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7880,8 +8830,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +8866,17 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7946,12 +8908,20 @@
         <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>1.06451871657754</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1.016694772344014</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8009,7 +8979,7 @@
         <v>9086568.874803476</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8042,7 +9012,7 @@
         <v>10559157.46350348</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8075,7 +9045,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8141,7 +9111,7 @@
         <v>9333892.792703476</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8174,7 +9144,7 @@
         <v>10782536.03210348</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8240,7 +9210,7 @@
         <v>10654428.04670347</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8273,7 +9243,7 @@
         <v>12096648.78450347</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8339,7 +9309,7 @@
         <v>11234464.13090347</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest APIS.xlsx
+++ b/BackTest/2020-01-11 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1746113.0516</v>
       </c>
       <c r="G2" t="n">
-        <v>7038433.644799998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1966174.514</v>
       </c>
       <c r="G3" t="n">
-        <v>5072259.130799998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>211458.8255</v>
       </c>
       <c r="G4" t="n">
-        <v>4860800.305299997</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2036283.0867</v>
       </c>
       <c r="G5" t="n">
-        <v>2824517.218599997</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>211458.8255</v>
       </c>
       <c r="G6" t="n">
-        <v>2824517.218599997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>241947.0881</v>
       </c>
       <c r="G7" t="n">
-        <v>3066464.306699997</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,22 +623,15 @@
         <v>49872.689</v>
       </c>
       <c r="G8" t="n">
-        <v>3066464.306699997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -683,26 +653,15 @@
         <v>794293.8724</v>
       </c>
       <c r="G9" t="n">
-        <v>3860758.179099998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -724,26 +683,15 @@
         <v>1208195.4068</v>
       </c>
       <c r="G10" t="n">
-        <v>5068953.585899998</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5931</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -765,22 +713,15 @@
         <v>505751.6841</v>
       </c>
       <c r="G11" t="n">
-        <v>5574705.269999998</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -802,26 +743,15 @@
         <v>1337881.5814</v>
       </c>
       <c r="G12" t="n">
-        <v>4236823.688599998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6022</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -843,26 +773,15 @@
         <v>997506.1124</v>
       </c>
       <c r="G13" t="n">
-        <v>5234329.800999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5947</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5993000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -884,22 +803,19 @@
         <v>1681404.9331</v>
       </c>
       <c r="G14" t="n">
-        <v>3552924.867899998</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.5984</v>
       </c>
       <c r="I14" t="n">
         <v>0.5984</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -921,26 +837,23 @@
         <v>268801.0603</v>
       </c>
       <c r="G15" t="n">
-        <v>3284123.807599998</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.5954</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5954</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0.5984</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,26 +875,23 @@
         <v>704148.4545</v>
       </c>
       <c r="G16" t="n">
-        <v>3988272.262099998</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.593</v>
       </c>
       <c r="I16" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,26 +913,23 @@
         <v>1071311.0234</v>
       </c>
       <c r="G17" t="n">
-        <v>2916961.238699998</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.6026</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6026</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1044,24 +951,21 @@
         <v>1460601.3646</v>
       </c>
       <c r="G18" t="n">
-        <v>1456359.874099998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1083,26 +987,21 @@
         <v>1209764.4542</v>
       </c>
       <c r="G19" t="n">
-        <v>2666124.328299998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,26 +1023,21 @@
         <v>1319491.8816</v>
       </c>
       <c r="G20" t="n">
-        <v>1346632.446699998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.5987</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1165,26 +1059,21 @@
         <v>1467820.2155</v>
       </c>
       <c r="G21" t="n">
-        <v>2814452.662199998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.5943000000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1206,26 +1095,21 @@
         <v>884267.8269</v>
       </c>
       <c r="G22" t="n">
-        <v>1930184.835299998</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>0.5984</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1247,26 +1131,21 @@
         <v>1829958.2377</v>
       </c>
       <c r="G23" t="n">
-        <v>3760143.072999998</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1288,26 +1167,21 @@
         <v>297651.5375</v>
       </c>
       <c r="G24" t="n">
-        <v>4057794.610499998</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.5977</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1329,24 +1203,21 @@
         <v>1846569.0737</v>
       </c>
       <c r="G25" t="n">
-        <v>2211225.536799998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1368,24 +1239,21 @@
         <v>1422054.9008</v>
       </c>
       <c r="G26" t="n">
-        <v>3633280.437599998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1407,24 +1275,21 @@
         <v>789420.9409</v>
       </c>
       <c r="G27" t="n">
-        <v>4422701.378499998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,24 +1311,21 @@
         <v>841.5779</v>
       </c>
       <c r="G28" t="n">
-        <v>4423542.956399998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1485,24 +1347,21 @@
         <v>786567.0036000001</v>
       </c>
       <c r="G29" t="n">
-        <v>3636975.952799998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,24 +1383,21 @@
         <v>4000</v>
       </c>
       <c r="G30" t="n">
-        <v>3632975.952799998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1563,24 +1419,21 @@
         <v>638513.4954</v>
       </c>
       <c r="G31" t="n">
-        <v>4271489.448199998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1602,26 +1455,21 @@
         <v>1353012.5004</v>
       </c>
       <c r="G32" t="n">
-        <v>5624501.948599998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.5965</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1643,24 +1491,21 @@
         <v>741210.028</v>
       </c>
       <c r="G33" t="n">
-        <v>6365711.976599998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1682,24 +1527,21 @@
         <v>1401808.7099</v>
       </c>
       <c r="G34" t="n">
-        <v>4963903.266699998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1721,24 +1563,21 @@
         <v>2877986.3401</v>
       </c>
       <c r="G35" t="n">
-        <v>4963903.266699998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1760,24 +1599,21 @@
         <v>1560116.4089</v>
       </c>
       <c r="G36" t="n">
-        <v>6524019.675599998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1799,24 +1635,21 @@
         <v>400000</v>
       </c>
       <c r="G37" t="n">
-        <v>6124019.675599998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1838,26 +1671,21 @@
         <v>200000</v>
       </c>
       <c r="G38" t="n">
-        <v>6124019.675599998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1879,26 +1707,21 @@
         <v>394113.2594</v>
       </c>
       <c r="G39" t="n">
-        <v>6124019.675599998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1920,26 +1743,21 @@
         <v>926418.3773000001</v>
       </c>
       <c r="G40" t="n">
-        <v>7050438.052899998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>0.5933</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1961,26 +1779,21 @@
         <v>200000</v>
       </c>
       <c r="G41" t="n">
-        <v>6850438.052899998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2002,26 +1815,21 @@
         <v>1245269.9125</v>
       </c>
       <c r="G42" t="n">
-        <v>8095707.965399997</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2043,26 +1851,21 @@
         <v>552946.9799</v>
       </c>
       <c r="G43" t="n">
-        <v>7542760.985499998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>0.5953000000000001</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,26 +1887,23 @@
         <v>1587990.1228</v>
       </c>
       <c r="G44" t="n">
-        <v>9130751.108299997</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.5946</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5946</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2125,26 +1925,23 @@
         <v>936545.3644</v>
       </c>
       <c r="G45" t="n">
-        <v>10067296.4727</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.5971</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5971</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,26 +1963,21 @@
         <v>200000</v>
       </c>
       <c r="G46" t="n">
-        <v>9867296.472699996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>0.5976</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2207,26 +1999,21 @@
         <v>200000</v>
       </c>
       <c r="G47" t="n">
-        <v>9867296.472699996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2248,26 +2035,21 @@
         <v>16879.2245</v>
       </c>
       <c r="G48" t="n">
-        <v>9867296.472699996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2289,26 +2071,21 @@
         <v>2140218.0927</v>
       </c>
       <c r="G49" t="n">
-        <v>12007514.5654</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2330,26 +2107,21 @@
         <v>506291.7849</v>
       </c>
       <c r="G50" t="n">
-        <v>11501222.7805</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>0.5942</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2371,26 +2143,21 @@
         <v>200000</v>
       </c>
       <c r="G51" t="n">
-        <v>11301222.7805</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>0.5935</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2412,26 +2179,23 @@
         <v>3357727.382</v>
       </c>
       <c r="G52" t="n">
-        <v>11301222.7805</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2453,26 +2217,23 @@
         <v>2104150.141</v>
       </c>
       <c r="G53" t="n">
-        <v>13405372.9215</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5931999999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,26 +2255,23 @@
         <v>2064543.1308</v>
       </c>
       <c r="G54" t="n">
-        <v>11340829.7907</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.5955</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2535,26 +2293,23 @@
         <v>1995671.2962</v>
       </c>
       <c r="G55" t="n">
-        <v>13336501.0869</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0.5949</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5949</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2576,26 +2331,23 @@
         <v>483863.2636</v>
       </c>
       <c r="G56" t="n">
-        <v>13820364.3505</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.5955</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5955</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2617,26 +2369,23 @@
         <v>854.6952</v>
       </c>
       <c r="G57" t="n">
-        <v>13821219.0457</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.596</v>
       </c>
       <c r="I57" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2658,26 +2407,23 @@
         <v>1130707.1425</v>
       </c>
       <c r="G58" t="n">
-        <v>12690511.9032</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0.6018</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6018</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2699,26 +2445,23 @@
         <v>1399980.303</v>
       </c>
       <c r="G59" t="n">
-        <v>14090492.2062</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0.5964</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5964</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0.5984</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2740,24 +2483,21 @@
         <v>5204.7347</v>
       </c>
       <c r="G60" t="n">
-        <v>14095696.9409</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2779,24 +2519,21 @@
         <v>1382632.1318</v>
       </c>
       <c r="G61" t="n">
-        <v>12713064.8091</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2818,24 +2555,21 @@
         <v>1558610.7223</v>
       </c>
       <c r="G62" t="n">
-        <v>11154454.0868</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2857,24 +2591,21 @@
         <v>1067798.7773</v>
       </c>
       <c r="G63" t="n">
-        <v>12222252.8641</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2896,24 +2627,21 @@
         <v>437270.7523</v>
       </c>
       <c r="G64" t="n">
-        <v>12659523.6164</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2935,24 +2663,21 @@
         <v>854.6015</v>
       </c>
       <c r="G65" t="n">
-        <v>12660378.2179</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2974,24 +2699,21 @@
         <v>1391424.4827</v>
       </c>
       <c r="G66" t="n">
-        <v>12660378.2179</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3013,24 +2735,21 @@
         <v>1712162.3563</v>
       </c>
       <c r="G67" t="n">
-        <v>12660378.2179</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3052,24 +2771,21 @@
         <v>1426853.4357</v>
       </c>
       <c r="G68" t="n">
-        <v>14087231.6536</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3091,24 +2807,21 @@
         <v>270217.3505</v>
       </c>
       <c r="G69" t="n">
-        <v>14357449.0041</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3130,24 +2843,21 @@
         <v>210903.2514</v>
       </c>
       <c r="G70" t="n">
-        <v>14568352.2555</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3169,24 +2879,21 @@
         <v>849.9431</v>
       </c>
       <c r="G71" t="n">
-        <v>14569202.1986</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3208,24 +2915,21 @@
         <v>1097024.4537</v>
       </c>
       <c r="G72" t="n">
-        <v>14569202.1986</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3247,24 +2951,21 @@
         <v>2735.7311</v>
       </c>
       <c r="G73" t="n">
-        <v>14569202.1986</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3286,24 +2987,21 @@
         <v>205309.5122</v>
       </c>
       <c r="G74" t="n">
-        <v>14569202.1986</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3325,24 +3023,21 @@
         <v>209351.0502</v>
       </c>
       <c r="G75" t="n">
-        <v>14569202.1986</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3364,24 +3059,21 @@
         <v>200957.7755</v>
       </c>
       <c r="G76" t="n">
-        <v>14569202.1986</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3403,24 +3095,21 @@
         <v>1246615.0795</v>
       </c>
       <c r="G77" t="n">
-        <v>13322587.1191</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3442,24 +3131,21 @@
         <v>1863864.1937</v>
       </c>
       <c r="G78" t="n">
-        <v>15186451.3128</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3481,24 +3167,21 @@
         <v>1269721.6185</v>
       </c>
       <c r="G79" t="n">
-        <v>13916729.6943</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3520,24 +3203,21 @@
         <v>1969569.7056</v>
       </c>
       <c r="G80" t="n">
-        <v>11947159.9887</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3559,24 +3239,21 @@
         <v>3728547.4477</v>
       </c>
       <c r="G81" t="n">
-        <v>15675707.4364</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3598,24 +3275,21 @@
         <v>539648.4659</v>
       </c>
       <c r="G82" t="n">
-        <v>16215355.9023</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3637,24 +3311,21 @@
         <v>855.6217</v>
       </c>
       <c r="G83" t="n">
-        <v>16216211.524</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3676,24 +3347,21 @@
         <v>71452.5523</v>
       </c>
       <c r="G84" t="n">
-        <v>16144758.9717</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3715,24 +3383,21 @@
         <v>1537011.6379</v>
       </c>
       <c r="G85" t="n">
-        <v>17681770.6096</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3754,24 +3419,21 @@
         <v>119313.2727</v>
       </c>
       <c r="G86" t="n">
-        <v>17562457.3369</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3793,24 +3455,21 @@
         <v>1505126.8006</v>
       </c>
       <c r="G87" t="n">
-        <v>19067584.1375</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3832,24 +3491,21 @@
         <v>44628.8293</v>
       </c>
       <c r="G88" t="n">
-        <v>19112212.9668</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3871,24 +3527,21 @@
         <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>19111212.9668</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3910,24 +3563,21 @@
         <v>846.8079</v>
       </c>
       <c r="G90" t="n">
-        <v>19112059.7747</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3949,24 +3599,21 @@
         <v>5041.0296</v>
       </c>
       <c r="G91" t="n">
-        <v>19117100.8043</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3988,24 +3635,21 @@
         <v>1865841.6955</v>
       </c>
       <c r="G92" t="n">
-        <v>19117100.8043</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4027,24 +3671,21 @@
         <v>834</v>
       </c>
       <c r="G93" t="n">
-        <v>19116266.8043</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4066,24 +3707,21 @@
         <v>821.1061999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>19117087.91049999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4105,24 +3743,21 @@
         <v>475664.3388</v>
       </c>
       <c r="G95" t="n">
-        <v>19117087.91049999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4144,24 +3779,21 @@
         <v>432987.4372</v>
       </c>
       <c r="G96" t="n">
-        <v>19117087.91049999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4183,24 +3815,21 @@
         <v>471793.6117</v>
       </c>
       <c r="G97" t="n">
-        <v>18645294.2988</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4222,24 +3851,21 @@
         <v>52239.2805</v>
       </c>
       <c r="G98" t="n">
-        <v>18593055.0183</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4261,24 +3887,21 @@
         <v>845.7286</v>
       </c>
       <c r="G99" t="n">
-        <v>18593900.7469</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4300,24 +3923,21 @@
         <v>1926114.2175</v>
       </c>
       <c r="G100" t="n">
-        <v>18593900.7469</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4339,24 +3959,21 @@
         <v>450812.675</v>
       </c>
       <c r="G101" t="n">
-        <v>18143088.0719</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4378,24 +3995,21 @@
         <v>855.2603</v>
       </c>
       <c r="G102" t="n">
-        <v>18143943.33219999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4417,24 +4031,21 @@
         <v>1691158.6939</v>
       </c>
       <c r="G103" t="n">
-        <v>16452784.63829999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4456,24 +4067,21 @@
         <v>859.5497</v>
       </c>
       <c r="G104" t="n">
-        <v>16453644.18799999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4495,24 +4103,21 @@
         <v>1973509.4727</v>
       </c>
       <c r="G105" t="n">
-        <v>14480134.71529999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4534,24 +4139,21 @@
         <v>825.1790999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>14480959.89439999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4573,24 +4175,21 @@
         <v>1469388.9861</v>
       </c>
       <c r="G107" t="n">
-        <v>13011570.90829999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4612,24 +4211,21 @@
         <v>827.5398</v>
       </c>
       <c r="G108" t="n">
-        <v>13012398.44809999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4651,24 +4247,21 @@
         <v>3299.3318</v>
       </c>
       <c r="G109" t="n">
-        <v>13012398.44809999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4690,24 +4283,21 @@
         <v>1682669.5467</v>
       </c>
       <c r="G110" t="n">
-        <v>11329728.90139999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4729,24 +4319,21 @@
         <v>552909.3443</v>
       </c>
       <c r="G111" t="n">
-        <v>11882638.24569999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4768,24 +4355,21 @@
         <v>4110.9159</v>
       </c>
       <c r="G112" t="n">
-        <v>11878527.32979999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4807,24 +4391,21 @@
         <v>2059075.3008</v>
       </c>
       <c r="G113" t="n">
-        <v>13937602.63059999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4846,24 +4427,21 @@
         <v>512651.227</v>
       </c>
       <c r="G114" t="n">
-        <v>13424951.40359999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4885,24 +4463,21 @@
         <v>1450854.3884</v>
       </c>
       <c r="G115" t="n">
-        <v>11974097.01519999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4924,24 +4499,21 @@
         <v>374750.5559</v>
       </c>
       <c r="G116" t="n">
-        <v>11599346.45929999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4963,24 +4535,21 @@
         <v>1310516.5957</v>
       </c>
       <c r="G117" t="n">
-        <v>11599346.45929999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5002,24 +4571,21 @@
         <v>194234.9154</v>
       </c>
       <c r="G118" t="n">
-        <v>11599346.45929999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5041,24 +4607,21 @@
         <v>439341.4211</v>
       </c>
       <c r="G119" t="n">
-        <v>11160005.03819999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5080,24 +4643,21 @@
         <v>874.6102</v>
       </c>
       <c r="G120" t="n">
-        <v>11160879.64839999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5119,24 +4679,21 @@
         <v>28582.9756</v>
       </c>
       <c r="G121" t="n">
-        <v>11189462.62399999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5158,24 +4715,21 @@
         <v>770962.5823</v>
       </c>
       <c r="G122" t="n">
-        <v>10418500.04169999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5197,24 +4751,21 @@
         <v>923775.1647</v>
       </c>
       <c r="G123" t="n">
-        <v>9494724.876999995</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5236,24 +4787,21 @@
         <v>506752.1151</v>
       </c>
       <c r="G124" t="n">
-        <v>8987972.761899995</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5275,24 +4823,21 @@
         <v>1306050.9242</v>
       </c>
       <c r="G125" t="n">
-        <v>10294023.68609999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5314,24 +4859,21 @@
         <v>1352385.7244</v>
       </c>
       <c r="G126" t="n">
-        <v>11646409.4105</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5353,24 +4895,21 @@
         <v>1374844.9308</v>
       </c>
       <c r="G127" t="n">
-        <v>13021254.3413</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5392,24 +4931,21 @@
         <v>1854623.5131</v>
       </c>
       <c r="G128" t="n">
-        <v>14875877.8544</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5431,24 +4967,21 @@
         <v>2054074.9316</v>
       </c>
       <c r="G129" t="n">
-        <v>12821802.9228</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5470,24 +5003,21 @@
         <v>849.3155</v>
       </c>
       <c r="G130" t="n">
-        <v>12822652.2383</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5509,24 +5039,21 @@
         <v>915636.2868</v>
       </c>
       <c r="G131" t="n">
-        <v>11907015.95149999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5548,24 +5075,21 @@
         <v>851.7437</v>
       </c>
       <c r="G132" t="n">
-        <v>11907867.69519999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5587,24 +5111,21 @@
         <v>1215334.1918</v>
       </c>
       <c r="G133" t="n">
-        <v>10692533.50339999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5626,24 +5147,21 @@
         <v>856.4077</v>
       </c>
       <c r="G134" t="n">
-        <v>10693389.91109999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5665,24 +5183,21 @@
         <v>1275673.6399</v>
       </c>
       <c r="G135" t="n">
-        <v>9417716.271199994</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5704,24 +5219,21 @@
         <v>863.3199</v>
       </c>
       <c r="G136" t="n">
-        <v>9418579.591099994</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5743,24 +5255,21 @@
         <v>1491235.0493</v>
       </c>
       <c r="G137" t="n">
-        <v>7927344.541799994</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5782,24 +5291,21 @@
         <v>916573.8403</v>
       </c>
       <c r="G138" t="n">
-        <v>8843918.382099994</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5821,24 +5327,21 @@
         <v>828.7926</v>
       </c>
       <c r="G139" t="n">
-        <v>8844747.174699994</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5860,24 +5363,21 @@
         <v>321015.3658</v>
       </c>
       <c r="G140" t="n">
-        <v>9165762.540499995</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5899,24 +5399,21 @@
         <v>1042741.2895</v>
       </c>
       <c r="G141" t="n">
-        <v>9165762.540499995</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5938,24 +5435,21 @@
         <v>1688595.4533</v>
       </c>
       <c r="G142" t="n">
-        <v>7477167.087199994</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5977,24 +5471,21 @@
         <v>1294122.4343</v>
       </c>
       <c r="G143" t="n">
-        <v>8771289.521499995</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6016,24 +5507,21 @@
         <v>1560208.9446</v>
       </c>
       <c r="G144" t="n">
-        <v>7211080.576899995</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6055,24 +5543,21 @@
         <v>2059425.7</v>
       </c>
       <c r="G145" t="n">
-        <v>5151654.876899995</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6094,24 +5579,21 @@
         <v>1807248.2876</v>
       </c>
       <c r="G146" t="n">
-        <v>3344406.589299995</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6133,24 +5615,21 @@
         <v>1337095.2472</v>
       </c>
       <c r="G147" t="n">
-        <v>4681501.836499995</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6172,24 +5651,21 @@
         <v>2082418.6352</v>
       </c>
       <c r="G148" t="n">
-        <v>2599083.201299995</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6211,24 +5687,21 @@
         <v>1706968.8819</v>
       </c>
       <c r="G149" t="n">
-        <v>4306052.083199995</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6250,24 +5723,21 @@
         <v>16366.61211129296</v>
       </c>
       <c r="G150" t="n">
-        <v>4322418.695311287</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6289,24 +5759,21 @@
         <v>1973628.1758</v>
       </c>
       <c r="G151" t="n">
-        <v>2348790.519511287</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6328,24 +5795,21 @@
         <v>1828090.5936</v>
       </c>
       <c r="G152" t="n">
-        <v>4176881.113111287</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6367,24 +5831,21 @@
         <v>191800.081588707</v>
       </c>
       <c r="G153" t="n">
-        <v>4368681.194699994</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6406,24 +5867,21 @@
         <v>2062212.6695</v>
       </c>
       <c r="G154" t="n">
-        <v>2306468.525199994</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6445,24 +5903,21 @@
         <v>886034.3339</v>
       </c>
       <c r="G155" t="n">
-        <v>2306468.525199994</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6484,24 +5939,21 @@
         <v>484836.8578</v>
       </c>
       <c r="G156" t="n">
-        <v>2791305.382999994</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6523,24 +5975,21 @@
         <v>1802128.2172</v>
       </c>
       <c r="G157" t="n">
-        <v>989177.1657999943</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6562,24 +6011,21 @@
         <v>1406373.134</v>
       </c>
       <c r="G158" t="n">
-        <v>2395550.299799995</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6601,24 +6047,21 @@
         <v>1694.0474</v>
       </c>
       <c r="G159" t="n">
-        <v>2397244.347199995</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6640,24 +6083,21 @@
         <v>635987.7192112929</v>
       </c>
       <c r="G160" t="n">
-        <v>1761256.627988702</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6679,24 +6119,21 @@
         <v>847.6165999999999</v>
       </c>
       <c r="G161" t="n">
-        <v>1762104.244588702</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6718,24 +6155,21 @@
         <v>1933787.2826</v>
       </c>
       <c r="G162" t="n">
-        <v>-171683.0380112983</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6757,24 +6191,21 @@
         <v>493881.902</v>
       </c>
       <c r="G163" t="n">
-        <v>322198.8639887017</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6796,24 +6227,21 @@
         <v>828.4141</v>
       </c>
       <c r="G164" t="n">
-        <v>323027.2780887017</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6835,24 +6263,21 @@
         <v>1366056.303</v>
       </c>
       <c r="G165" t="n">
-        <v>-1043029.024911298</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6874,24 +6299,21 @@
         <v>1576697.3514</v>
       </c>
       <c r="G166" t="n">
-        <v>533668.3264887016</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6913,24 +6335,21 @@
         <v>1354494.287</v>
       </c>
       <c r="G167" t="n">
-        <v>533668.3264887016</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6952,24 +6371,21 @@
         <v>830.7834</v>
       </c>
       <c r="G168" t="n">
-        <v>534499.1098887016</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6991,24 +6407,21 @@
         <v>1477708.554</v>
       </c>
       <c r="G169" t="n">
-        <v>-943209.4441112984</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7030,24 +6443,21 @@
         <v>739916.3612</v>
       </c>
       <c r="G170" t="n">
-        <v>-203293.0829112984</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7069,24 +6479,21 @@
         <v>861.17</v>
       </c>
       <c r="G171" t="n">
-        <v>-202431.9129112984</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7108,24 +6515,21 @@
         <v>1660292.0985</v>
       </c>
       <c r="G172" t="n">
-        <v>-1862724.011411299</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7147,24 +6551,21 @@
         <v>1174179.5781</v>
       </c>
       <c r="G173" t="n">
-        <v>-688544.4333112985</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7186,24 +6587,21 @@
         <v>829783.2678</v>
       </c>
       <c r="G174" t="n">
-        <v>-1518327.701111299</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7225,24 +6623,21 @@
         <v>1581721.0184</v>
       </c>
       <c r="G175" t="n">
-        <v>63393.31728870142</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7264,24 +6659,21 @@
         <v>1299940.8865</v>
       </c>
       <c r="G176" t="n">
-        <v>-1236547.569211299</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7303,24 +6695,21 @@
         <v>9892.623799999999</v>
       </c>
       <c r="G177" t="n">
-        <v>-1246440.193011299</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7342,24 +6731,21 @@
         <v>1750643.7844</v>
       </c>
       <c r="G178" t="n">
-        <v>504203.5913887015</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7381,24 +6767,21 @@
         <v>1370618.9662</v>
       </c>
       <c r="G179" t="n">
-        <v>-866415.3748112984</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7420,24 +6803,21 @@
         <v>636272.7458</v>
       </c>
       <c r="G180" t="n">
-        <v>-230142.6290112984</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7459,24 +6839,21 @@
         <v>4625.5779</v>
       </c>
       <c r="G181" t="n">
-        <v>-225517.0511112984</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7498,24 +6875,21 @@
         <v>297651.5375</v>
       </c>
       <c r="G182" t="n">
-        <v>-523168.5886112984</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7537,24 +6911,21 @@
         <v>2052538.9809</v>
       </c>
       <c r="G183" t="n">
-        <v>1529370.392288702</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7576,24 +6947,21 @@
         <v>903581.4389</v>
       </c>
       <c r="G184" t="n">
-        <v>2432951.831188702</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7615,24 +6983,21 @@
         <v>919107.6576</v>
       </c>
       <c r="G185" t="n">
-        <v>1513844.173588702</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7654,24 +7019,21 @@
         <v>4625.5779</v>
       </c>
       <c r="G186" t="n">
-        <v>1509218.595688702</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7693,24 +7055,21 @@
         <v>749467.118</v>
       </c>
       <c r="G187" t="n">
-        <v>2258685.713688701</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7732,24 +7091,21 @@
         <v>4570.1189</v>
       </c>
       <c r="G188" t="n">
-        <v>2263255.832588702</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7771,24 +7127,21 @@
         <v>682359.8053</v>
       </c>
       <c r="G189" t="n">
-        <v>1580896.027288701</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7810,24 +7163,21 @@
         <v>24636.8942</v>
       </c>
       <c r="G190" t="n">
-        <v>1556259.133088701</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7849,24 +7199,21 @@
         <v>1334988.9374</v>
       </c>
       <c r="G191" t="n">
-        <v>2891248.070488702</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7888,24 +7235,21 @@
         <v>874.0118</v>
       </c>
       <c r="G192" t="n">
-        <v>2892122.082288702</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7927,24 +7271,21 @@
         <v>843288.3522</v>
       </c>
       <c r="G193" t="n">
-        <v>2048833.730088701</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7966,24 +7307,21 @@
         <v>1767180.2997</v>
       </c>
       <c r="G194" t="n">
-        <v>3816014.029788702</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8005,24 +7343,21 @@
         <v>2092008.8831</v>
       </c>
       <c r="G195" t="n">
-        <v>1724005.146688702</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8044,24 +7379,21 @@
         <v>981330.2635</v>
       </c>
       <c r="G196" t="n">
-        <v>742674.8831887018</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8083,24 +7415,21 @@
         <v>949.6057</v>
       </c>
       <c r="G197" t="n">
-        <v>743624.4888887018</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8122,24 +7451,21 @@
         <v>17000</v>
       </c>
       <c r="G198" t="n">
-        <v>726624.4888887018</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8161,24 +7487,21 @@
         <v>1690856.8146</v>
       </c>
       <c r="G199" t="n">
-        <v>2417481.303488702</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8200,24 +7523,21 @@
         <v>1810761.8624</v>
       </c>
       <c r="G200" t="n">
-        <v>606719.4410887016</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8239,24 +7559,21 @@
         <v>884.1248000000001</v>
       </c>
       <c r="G201" t="n">
-        <v>607603.5658887016</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8278,24 +7595,21 @@
         <v>1308307.835</v>
       </c>
       <c r="G202" t="n">
-        <v>-700704.2691112984</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8317,24 +7631,21 @@
         <v>473757.9768</v>
       </c>
       <c r="G203" t="n">
-        <v>-226946.2923112984</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8356,24 +7667,21 @@
         <v>1087413.1185</v>
       </c>
       <c r="G204" t="n">
-        <v>860466.8261887017</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8395,24 +7703,21 @@
         <v>857337.9578</v>
       </c>
       <c r="G205" t="n">
-        <v>1717804.783988702</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8434,24 +7739,21 @@
         <v>982027.7688</v>
       </c>
       <c r="G206" t="n">
-        <v>2699832.552788702</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8473,24 +7775,21 @@
         <v>731688.5696</v>
       </c>
       <c r="G207" t="n">
-        <v>1968143.983188702</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8512,24 +7811,21 @@
         <v>1142886.6734</v>
       </c>
       <c r="G208" t="n">
-        <v>3111030.656588702</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8551,24 +7847,21 @@
         <v>1598241.1297</v>
       </c>
       <c r="G209" t="n">
-        <v>1512789.526888702</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8590,24 +7883,21 @@
         <v>252259.6444</v>
       </c>
       <c r="G210" t="n">
-        <v>1765049.171288702</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8629,24 +7919,21 @@
         <v>1421963.3502</v>
       </c>
       <c r="G211" t="n">
-        <v>3187012.521488702</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8668,24 +7955,21 @@
         <v>195526.7092</v>
       </c>
       <c r="G212" t="n">
-        <v>2991485.812288702</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8707,24 +7991,21 @@
         <v>783001.1219</v>
       </c>
       <c r="G213" t="n">
-        <v>3774486.934188702</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8746,24 +8027,21 @@
         <v>447237.9204</v>
       </c>
       <c r="G214" t="n">
-        <v>3327249.013788702</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8785,24 +8063,21 @@
         <v>1597668.1743</v>
       </c>
       <c r="G215" t="n">
-        <v>4924917.188088702</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8824,24 +8099,21 @@
         <v>6843141.469112077</v>
       </c>
       <c r="G216" t="n">
-        <v>11768058.65720078</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8863,24 +8135,21 @@
         <v>2631489.782397303</v>
       </c>
       <c r="G217" t="n">
-        <v>9136568.874803476</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8902,26 +8171,21 @@
         <v>27927.8029</v>
       </c>
       <c r="G218" t="n">
-        <v>9136568.874803476</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>0.5984</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1.06451871657754</v>
-      </c>
-      <c r="M218" t="n">
-        <v>1.016694772344014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8943,18 +8207,21 @@
         <v>1704076.3806</v>
       </c>
       <c r="G219" t="n">
-        <v>9136568.874803476</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8976,18 +8243,21 @@
         <v>50000</v>
       </c>
       <c r="G220" t="n">
-        <v>9086568.874803476</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9009,18 +8279,21 @@
         <v>1472588.5887</v>
       </c>
       <c r="G221" t="n">
-        <v>10559157.46350348</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9042,18 +8315,21 @@
         <v>858.3902</v>
       </c>
       <c r="G222" t="n">
-        <v>10560015.85370348</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9075,18 +8351,23 @@
         <v>886.8184</v>
       </c>
       <c r="G223" t="n">
-        <v>10560015.85370348</v>
-      </c>
-      <c r="H223" t="n">
         <v>2</v>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>0.5984</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1.064017379679145</v>
+      </c>
       <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>1.016694772344014</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9108,18 +8389,15 @@
         <v>1226123.061</v>
       </c>
       <c r="G224" t="n">
-        <v>9333892.792703476</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9141,18 +8419,15 @@
         <v>1448643.2394</v>
       </c>
       <c r="G225" t="n">
-        <v>10782536.03210348</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9174,18 +8449,15 @@
         <v>1508622.641</v>
       </c>
       <c r="G226" t="n">
-        <v>9273913.391103474</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9207,18 +8479,15 @@
         <v>1380514.6556</v>
       </c>
       <c r="G227" t="n">
-        <v>10654428.04670347</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9240,18 +8509,15 @@
         <v>1442220.7378</v>
       </c>
       <c r="G228" t="n">
-        <v>12096648.78450347</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9273,18 +8539,15 @@
         <v>564533.1161</v>
       </c>
       <c r="G229" t="n">
-        <v>11532115.66840347</v>
-      </c>
-      <c r="H229" t="n">
         <v>2</v>
       </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9306,18 +8569,15 @@
         <v>297651.5375</v>
       </c>
       <c r="G230" t="n">
-        <v>11234464.13090347</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9339,18 +8599,15 @@
         <v>1098782.8234</v>
       </c>
       <c r="G231" t="n">
-        <v>12333246.95430348</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
